--- a/master-index.xlsx
+++ b/master-index.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14600FA-AE5E-4C09-8EDB-9AF20EDA3B86}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B52BFD9-0CE1-4940-8CC0-87E3BBC9E3DB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="132">
   <si>
     <t>potusLastName</t>
   </si>
@@ -57,12 +57,6 @@
     <t>isSOTU</t>
   </si>
   <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
     <t>Trump</t>
   </si>
   <si>
@@ -412,6 +406,24 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>ucsb-comments</t>
+  </si>
+  <si>
+    <t>Begins with the words "The President." in italics, omitted from .md file.  NOTE: The President spoke at 9:10 p.m. in the House Chamber of the U.S. Capitol. In his remarks, he referred to President Vladimir Vladimirovich Putin of Russia; and former U.S. Agency for International Development contractor Alan P. Gross. He also referred to the Islamic State of Iraq and the Levant (ISIL) terrorist organization.</t>
+  </si>
+  <si>
+    <t>ucsb-citation</t>
+  </si>
+  <si>
+    <t>Barack Obama, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/308225</t>
+  </si>
+  <si>
+    <t>ucsb-filename</t>
+  </si>
+  <si>
+    <t>2015-01-20-obama.md</t>
   </si>
 </sst>
 </file>
@@ -476,16 +488,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -544,30 +562,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -583,6 +577,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1016,6 +1020,48 @@
           <color theme="4"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2076,26 +2122,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:Q234" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" tableBorderDxfId="19">
-  <autoFilter ref="A1:Q234" xr:uid="{1A87793E-49BD-41E7-A23F-71562D7FA107}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{C540AFC6-4C29-42B3-AE7E-1D891380CF6D}" name="wordCount" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="Column5" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="Column6" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:R234" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A1:R234" xr:uid="{1A87793E-49BD-41E7-A23F-71562D7FA107}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{C540AFC6-4C29-42B3-AE7E-1D891380CF6D}" name="wordCount" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2404,10 +2451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A15899E-558C-4C63-B86C-F370C964819B}">
-  <dimension ref="A1:Q234"/>
+  <dimension ref="A1:R234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="P232" sqref="P232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,9 +2469,11 @@
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="10" width="17.28515625" customWidth="1"/>
     <col min="11" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="44.85546875" customWidth="1"/>
+    <col min="18" max="18" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2444,7 +2493,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -2453,55 +2502,58 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1790</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2511,28 +2563,29 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1790</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2542,28 +2595,29 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1791</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2573,28 +2627,29 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1792</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2604,28 +2659,29 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1793</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2635,28 +2691,29 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1794</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2666,28 +2723,29 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1795</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2697,28 +2755,29 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1796</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2728,28 +2787,29 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1797</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2759,28 +2819,29 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1798</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2790,28 +2851,29 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1799</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2821,28 +2883,29 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1800</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2852,28 +2915,29 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1801</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2883,28 +2947,29 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1802</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1">
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2914,28 +2979,29 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1803</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1">
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2945,28 +3011,29 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1804</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2976,28 +3043,29 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1805</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3007,28 +3075,29 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1806</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3038,28 +3107,29 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1807</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3069,28 +3139,29 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1808</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3100,28 +3171,29 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1809</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3131,28 +3203,29 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1810</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3162,28 +3235,29 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1811</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3193,28 +3267,29 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1812</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3224,28 +3299,29 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1813</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3255,28 +3331,29 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1814</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3286,28 +3363,29 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1815</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3317,28 +3395,29 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1816</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3348,28 +3427,29 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1817</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -3379,28 +3459,29 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1818</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3410,28 +3491,29 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1819</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3441,28 +3523,29 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1820</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1">
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3472,28 +3555,29 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1821</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1">
         <v>1</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3503,28 +3587,29 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1822</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1">
         <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3534,28 +3619,29 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1823</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3565,28 +3651,29 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1824</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1">
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3596,28 +3683,29 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1825</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1">
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3627,28 +3715,29 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1826</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1">
         <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3658,28 +3747,29 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1827</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1">
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3689,28 +3779,29 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1828</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3720,28 +3811,29 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1829</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1">
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3751,28 +3843,29 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1830</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1">
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3782,28 +3875,29 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1831</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1">
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3813,28 +3907,29 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1832</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1">
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3844,28 +3939,29 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1833</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1">
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3875,28 +3971,29 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1834</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1">
         <v>1</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3906,28 +4003,29 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1835</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1">
         <v>1</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3937,28 +4035,29 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1836</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1">
         <v>1</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3968,28 +4067,29 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1837</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1">
         <v>1</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3999,28 +4099,29 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1838</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1">
         <v>1</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -4030,28 +4131,29 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1839</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1">
         <v>1</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -4061,28 +4163,29 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1840</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1">
         <v>1</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -4092,31 +4195,32 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1841</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1">
         <v>1</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -4125,31 +4229,32 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1842</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1">
         <v>1</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -4158,31 +4263,32 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="1"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1843</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1">
         <v>1</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -4191,31 +4297,32 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1844</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1">
         <v>1</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -4224,28 +4331,29 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1845</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1">
         <v>1</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -4255,28 +4363,29 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58" s="1"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1846</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1">
         <v>1</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -4286,28 +4395,29 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59" s="1"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1847</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1">
         <v>1</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -4317,28 +4427,29 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60" s="1"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1848</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1">
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -4348,28 +4459,29 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61" s="1"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1849</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1">
         <v>1</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -4379,28 +4491,29 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62" s="1"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1850</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1">
         <v>1</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -4410,28 +4523,29 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63" s="1"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1851</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1">
         <v>1</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4441,28 +4555,29 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64" s="1"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1852</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1">
         <v>1</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -4472,28 +4587,29 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65" s="1"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1853</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1">
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -4503,28 +4619,29 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66" s="1"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1854</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1">
         <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -4534,28 +4651,29 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67" s="1"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1855</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1">
         <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -4565,28 +4683,29 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68" s="1"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1856</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1">
         <v>1</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -4596,28 +4715,29 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69" s="1"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1857</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1">
         <v>1</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -4627,28 +4747,29 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70" s="1"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1858</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1">
         <v>1</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -4658,28 +4779,29 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71" s="1"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1859</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1">
         <v>1</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -4689,28 +4811,29 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72" s="1"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1860</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1">
         <v>1</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -4720,31 +4843,32 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73" s="1"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1861</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1">
         <v>1</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -4753,31 +4877,32 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74" s="1"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1862</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1">
         <v>1</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -4786,31 +4911,32 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75" s="1"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1863</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1">
         <v>1</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -4819,31 +4945,32 @@
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76" s="1"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1864</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1">
         <v>1</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -4852,31 +4979,32 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77" s="1"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1865</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1">
         <v>1</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -4885,31 +5013,32 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R78" s="1"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1866</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1">
         <v>1</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -4918,31 +5047,32 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R79" s="1"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1867</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1">
         <v>1</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -4951,31 +5081,32 @@
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R80" s="1"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1868</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1">
         <v>1</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -4984,28 +5115,29 @@
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1869</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1">
         <v>1</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -5015,28 +5147,29 @@
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R82" s="1"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1870</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1">
         <v>1</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -5046,28 +5179,29 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83" s="1"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1871</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1">
         <v>1</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -5077,28 +5211,29 @@
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84" s="1"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1872</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1">
         <v>1</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -5108,28 +5243,29 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85" s="1"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1873</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1">
         <v>1</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -5139,28 +5275,29 @@
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86" s="1"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1874</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1">
         <v>1</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -5170,28 +5307,29 @@
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R87" s="1"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1875</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1">
         <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -5201,28 +5339,29 @@
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R88" s="1"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1876</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1">
         <v>1</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -5232,28 +5371,29 @@
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R89" s="1"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1877</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1">
         <v>1</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -5263,28 +5403,29 @@
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R90" s="1"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1878</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1">
         <v>1</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -5294,28 +5435,29 @@
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R91" s="1"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1879</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1">
         <v>1</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -5325,28 +5467,29 @@
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R92" s="1"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1880</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1">
         <v>1</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -5356,28 +5499,29 @@
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R93" s="1"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1881</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1">
         <v>1</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -5387,28 +5531,29 @@
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R94" s="1"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1882</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1">
         <v>1</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -5418,28 +5563,29 @@
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R95" s="1"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1883</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1">
         <v>1</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -5449,28 +5595,29 @@
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R96" s="1"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1884</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1">
         <v>1</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -5480,28 +5627,29 @@
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R97" s="1"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1885</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1">
         <v>1</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -5511,28 +5659,29 @@
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R98" s="1"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1886</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1">
         <v>1</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -5542,28 +5691,29 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R99" s="1"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1887</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1">
         <v>1</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -5573,28 +5723,29 @@
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100" s="1"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1888</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1">
         <v>1</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -5604,28 +5755,29 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R101" s="1"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1889</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1">
         <v>1</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -5635,28 +5787,29 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R102" s="1"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1890</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1">
         <v>1</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -5666,28 +5819,29 @@
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R103" s="1"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1891</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1">
         <v>1</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -5697,28 +5851,29 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R104" s="1"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1892</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1">
         <v>1</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -5728,28 +5883,29 @@
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R105" s="1"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1893</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1">
         <v>1</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -5759,28 +5915,29 @@
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R106" s="1"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1894</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1">
         <v>1</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -5790,28 +5947,29 @@
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R107" s="1"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1895</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1">
         <v>1</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -5821,28 +5979,29 @@
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R108" s="1"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1896</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1">
         <v>1</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -5852,28 +6011,29 @@
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R109" s="1"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1897</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1">
         <v>1</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -5883,28 +6043,29 @@
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R110" s="1"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1898</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1">
         <v>1</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -5914,28 +6075,29 @@
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R111" s="1"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1899</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1">
         <v>1</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -5945,28 +6107,29 @@
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R112" s="1"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1900</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1">
         <v>1</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -5976,28 +6139,29 @@
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R113" s="1"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>1901</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1">
         <v>1</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -6007,28 +6171,29 @@
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R114" s="1"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1902</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1">
         <v>1</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -6038,28 +6203,29 @@
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R115" s="1"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>1903</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1">
         <v>1</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -6069,28 +6235,29 @@
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R116" s="1"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1904</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1">
         <v>1</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -6100,28 +6267,29 @@
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R117" s="1"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>1905</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1">
         <v>1</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -6131,28 +6299,29 @@
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R118" s="1"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>1906</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1">
         <v>1</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -6162,28 +6331,29 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R119" s="1"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1907</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1">
         <v>1</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -6193,28 +6363,29 @@
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R120" s="1"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>1908</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1">
         <v>1</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -6224,28 +6395,29 @@
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R121" s="1"/>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1909</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1">
         <v>1</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -6255,28 +6427,29 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R122" s="1"/>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>1910</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1">
         <v>1</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -6286,28 +6459,29 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R123" s="1"/>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>1911</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1">
         <v>1</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -6317,28 +6491,29 @@
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R124" s="1"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>1912</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1">
         <v>1</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
@@ -6348,28 +6523,29 @@
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R125" s="1"/>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>1913</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1">
         <v>1</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -6379,28 +6555,29 @@
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R126" s="1"/>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>1914</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1">
         <v>1</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -6410,28 +6587,29 @@
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R127" s="1"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>1915</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1">
         <v>1</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -6441,28 +6619,29 @@
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R128" s="1"/>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>1916</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1">
         <v>1</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -6472,28 +6651,29 @@
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R129" s="1"/>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>1917</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1">
         <v>1</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -6503,28 +6683,29 @@
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R130" s="1"/>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>1918</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1">
         <v>1</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -6534,28 +6715,29 @@
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R131" s="1"/>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>1919</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1">
         <v>1</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -6565,28 +6747,29 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R132" s="1"/>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>1920</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1">
         <v>1</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
@@ -6596,28 +6779,29 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R133" s="1"/>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1921</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1">
         <v>1</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -6627,28 +6811,29 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R134" s="1"/>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1922</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1">
         <v>1</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -6658,28 +6843,29 @@
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R135" s="1"/>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1923</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1">
         <v>1</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -6689,28 +6875,29 @@
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R136" s="1"/>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1924</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1">
         <v>1</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -6720,28 +6907,29 @@
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R137" s="1"/>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1925</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1">
         <v>1</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -6751,28 +6939,29 @@
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R138" s="1"/>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>1926</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1">
         <v>1</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -6782,28 +6971,29 @@
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R139" s="1"/>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1927</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1">
         <v>1</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -6813,28 +7003,29 @@
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R140" s="1"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1928</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1">
         <v>1</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
@@ -6844,28 +7035,29 @@
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R141" s="1"/>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1929</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1">
         <v>1</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -6875,28 +7067,29 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R142" s="1"/>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1930</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1">
         <v>1</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -6906,28 +7099,29 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R143" s="1"/>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1931</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1">
         <v>1</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -6937,28 +7131,29 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R144" s="1"/>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1932</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1">
         <v>1</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -6968,28 +7163,29 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R145" s="1"/>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1934</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1">
         <v>1</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -6999,28 +7195,29 @@
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R146" s="1"/>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1935</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1">
         <v>1</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -7030,28 +7227,29 @@
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R147" s="1"/>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1936</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1">
         <v>1</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
@@ -7061,28 +7259,29 @@
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R148" s="1"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1937</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1">
         <v>1</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
@@ -7092,28 +7291,29 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R149" s="1"/>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1938</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1">
         <v>1</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
@@ -7123,28 +7323,29 @@
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R150" s="1"/>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>1939</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1">
         <v>1</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -7154,28 +7355,29 @@
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R151" s="1"/>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1940</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1">
         <v>1</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -7185,28 +7387,29 @@
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R152" s="1"/>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1941</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1">
         <v>1</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -7216,28 +7419,29 @@
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R153" s="1"/>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1942</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1">
         <v>1</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -7247,28 +7451,29 @@
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R154" s="1"/>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1943</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1">
         <v>1</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
@@ -7278,28 +7483,29 @@
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R155" s="1"/>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1944</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1">
         <v>1</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
@@ -7309,30 +7515,31 @@
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R156" s="1"/>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>1945</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="H157" s="1">
         <v>1</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
@@ -7342,28 +7549,29 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R157" s="1"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>1946</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1">
         <v>1</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -7373,28 +7581,29 @@
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R158" s="1"/>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>1947</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1">
         <v>1</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -7404,28 +7613,29 @@
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R159" s="1"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>1948</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1">
         <v>1</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -7435,28 +7645,29 @@
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R160" s="1"/>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>1949</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1">
         <v>1</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -7466,28 +7677,29 @@
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R161" s="1"/>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>1950</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1">
         <v>1</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -7497,28 +7709,29 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R162" s="1"/>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1951</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1">
         <v>1</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
@@ -7528,28 +7741,29 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R163" s="1"/>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1952</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1">
         <v>1</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
@@ -7559,28 +7773,29 @@
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R164" s="1"/>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>1953</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1">
         <v>1</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -7590,26 +7805,27 @@
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R165" s="1"/>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>1953</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
@@ -7619,28 +7835,29 @@
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R166" s="1"/>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>1954</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1">
         <v>1</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
@@ -7650,28 +7867,29 @@
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R167" s="1"/>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>1955</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1">
         <v>1</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -7681,30 +7899,31 @@
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R168" s="1"/>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>1956</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="H169" s="1">
         <v>1</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -7714,28 +7933,29 @@
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R169" s="1"/>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1957</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1">
         <v>1</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -7745,28 +7965,29 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R170" s="1"/>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>1958</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1">
         <v>1</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
@@ -7776,28 +7997,29 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R171" s="1"/>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>1959</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1">
         <v>1</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -7807,28 +8029,29 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R172" s="1"/>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>1960</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1">
         <v>1</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
@@ -7838,28 +8061,29 @@
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R173" s="1"/>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>1961</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1">
         <v>1</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
@@ -7869,26 +8093,27 @@
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R174" s="1"/>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>1961</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -7898,28 +8123,29 @@
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R175" s="1"/>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>1962</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1">
         <v>1</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -7929,28 +8155,29 @@
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R176" s="1"/>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>1963</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1">
         <v>1</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -7960,28 +8187,29 @@
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R177" s="1"/>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>1964</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1">
         <v>1</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -7991,28 +8219,29 @@
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R178" s="1"/>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>1965</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1">
         <v>1</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -8022,28 +8251,29 @@
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R179" s="1"/>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>1966</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1">
         <v>1</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
@@ -8053,28 +8283,29 @@
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R180" s="1"/>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>1967</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1">
         <v>1</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
@@ -8084,28 +8315,29 @@
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R181" s="1"/>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>1968</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1">
         <v>1</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
@@ -8115,28 +8347,29 @@
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R182" s="1"/>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>1969</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1">
         <v>1</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
@@ -8146,28 +8379,29 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R183" s="1"/>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>1970</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1">
         <v>1</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
@@ -8177,28 +8411,29 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R184" s="1"/>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>1971</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1">
         <v>1</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
@@ -8208,28 +8443,29 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R185" s="1"/>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>1972</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1">
         <v>1</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -8239,28 +8475,29 @@
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R186" s="1"/>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>1972</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1">
         <v>1</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -8270,30 +8507,31 @@
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R187" s="1"/>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>1973</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="H188" s="1">
         <v>1</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -8303,28 +8541,29 @@
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R188" s="1"/>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>1974</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1">
         <v>1</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -8334,28 +8573,29 @@
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R189" s="1"/>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>1975</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1">
         <v>1</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -8365,28 +8605,29 @@
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R190" s="1"/>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>1976</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1">
         <v>1</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
@@ -8396,28 +8637,29 @@
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R191" s="1"/>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>1977</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1">
         <v>1</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
@@ -8427,28 +8669,29 @@
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R192" s="1"/>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>1978</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1">
         <v>1</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -8458,28 +8701,29 @@
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R193" s="1"/>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>1979</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1">
         <v>1</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
@@ -8489,28 +8733,29 @@
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R194" s="1"/>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>1980</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="1">
         <v>1</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -8520,28 +8765,29 @@
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R195" s="1"/>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>1981</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1">
         <v>1</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
@@ -8551,28 +8797,29 @@
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R196" s="1"/>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>1981</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1">
         <v>0</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -8582,28 +8829,29 @@
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R197" s="1"/>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>1982</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1">
         <v>1</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
@@ -8613,28 +8861,29 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R198" s="1"/>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1983</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1">
         <v>1</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -8644,28 +8893,29 @@
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R199" s="1"/>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>1984</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F200" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G200" s="1"/>
       <c r="H200" s="1">
         <v>1</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -8675,28 +8925,29 @@
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R200" s="1"/>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1985</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1">
         <v>1</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
@@ -8706,28 +8957,29 @@
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R201" s="1"/>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>1986</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1">
         <v>1</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
@@ -8737,28 +8989,29 @@
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R202" s="1"/>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>1987</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1">
         <v>1</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
@@ -8768,28 +9021,29 @@
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R203" s="1"/>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>1988</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1">
         <v>1</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
@@ -8799,28 +9053,29 @@
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R204" s="1"/>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>1989</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1">
         <v>0</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
@@ -8830,28 +9085,29 @@
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R205" s="1"/>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>1990</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="1">
         <v>1</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
@@ -8861,26 +9117,27 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R206" s="1"/>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>1991</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -8890,28 +9147,29 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R207" s="1"/>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>1992</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1">
         <v>1</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
@@ -8921,28 +9179,29 @@
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R208" s="1"/>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>1993</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1">
         <v>0</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
@@ -8952,28 +9211,29 @@
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R209" s="1"/>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>1994</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1">
         <v>1</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
@@ -8983,28 +9243,29 @@
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R210" s="1"/>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>1995</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1">
         <v>1</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -9014,28 +9275,29 @@
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R211" s="1"/>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>1996</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1">
         <v>1</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
@@ -9045,28 +9307,29 @@
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R212" s="1"/>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>1997</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1">
         <v>1</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
@@ -9076,28 +9339,29 @@
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R213" s="1"/>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>1998</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="1">
         <v>1</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
@@ -9107,28 +9371,29 @@
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R214" s="1"/>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>1999</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="1">
         <v>1</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
@@ -9138,28 +9403,29 @@
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R215" s="1"/>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>2000</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="1">
         <v>1</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
@@ -9169,28 +9435,29 @@
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R216" s="1"/>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2001</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="1">
         <v>0</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
@@ -9200,28 +9467,29 @@
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R217" s="1"/>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2002</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="1">
         <v>1</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -9231,28 +9499,29 @@
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R218" s="1"/>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2003</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G219" s="1"/>
       <c r="H219" s="1">
         <v>1</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
@@ -9262,28 +9531,29 @@
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R219" s="1"/>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2004</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G220" s="1"/>
       <c r="H220" s="1">
         <v>1</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
@@ -9293,28 +9563,29 @@
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R220" s="1"/>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2005</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G221" s="1"/>
       <c r="H221" s="1">
         <v>1</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
@@ -9324,28 +9595,29 @@
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R221" s="1"/>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2006</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1">
         <v>1</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -9355,28 +9627,29 @@
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R222" s="1"/>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2007</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G223" s="1"/>
       <c r="H223" s="1">
         <v>1</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -9386,28 +9659,29 @@
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R223" s="1"/>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2008</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1">
         <v>1</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -9417,28 +9691,29 @@
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R224" s="1"/>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2009</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G225" s="1"/>
       <c r="H225" s="1">
         <v>0</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -9448,28 +9723,29 @@
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R225" s="1"/>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2010</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G226" s="1"/>
       <c r="H226" s="1">
         <v>1</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -9479,28 +9755,29 @@
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R226" s="1"/>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2011</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G227" s="1"/>
       <c r="H227" s="1">
         <v>1</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
@@ -9510,28 +9787,29 @@
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R227" s="1"/>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2012</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="1">
         <v>1</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
@@ -9541,28 +9819,29 @@
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R228" s="1"/>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2013</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1">
         <v>1</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -9572,28 +9851,29 @@
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R229" s="1"/>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2014</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G230" s="1"/>
       <c r="H230" s="1">
         <v>1</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
@@ -9603,28 +9883,29 @@
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R230" s="1"/>
+    </row>
+    <row r="231" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2015</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G231" s="1"/>
       <c r="H231" s="1">
         <v>1</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
@@ -9632,30 +9913,37 @@
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P231" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q231" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R231" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2016</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="1">
         <v>1</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
@@ -9665,28 +9953,29 @@
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R232" s="1"/>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>2017</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G233" s="1"/>
       <c r="H233" s="1">
         <v>0</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -9696,28 +9985,29 @@
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R233" s="1"/>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>2018</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G234" s="1"/>
       <c r="H234" s="1">
         <v>1</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -9727,6 +10017,7 @@
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9783,18 +10074,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -9817,7 +10108,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1">
         <f>COUNTA(Table3[deliveredYear])</f>
@@ -9826,12 +10117,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <f>COUNTIF(master!F2:F234,vocabulary!A3)</f>
@@ -9840,7 +10131,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <f>COUNTIF(master!F2:F234,vocabulary!A2)</f>
@@ -9849,7 +10140,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <f>COUNTIF(Table3[deliveryMedium],vocabulary!A4)</f>
@@ -9879,27 +10170,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -9907,13 +10198,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -9921,13 +10212,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -9935,10 +10226,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -9946,10 +10237,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -9957,10 +10248,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -9968,10 +10259,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -9979,7 +10270,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -9987,7 +10278,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -9995,7 +10286,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -10003,7 +10294,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -10011,7 +10302,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G13">
         <v>12</v>

--- a/master-index.xlsx
+++ b/master-index.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B52BFD9-0CE1-4940-8CC0-87E3BBC9E3DB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F5216-931E-4939-BE79-0ECE56D79F83}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="136">
   <si>
     <t>potusLastName</t>
   </si>
@@ -360,9 +360,6 @@
     <t>national-union</t>
   </si>
   <si>
-    <t>wordCount</t>
-  </si>
-  <si>
     <t>approvalRating</t>
   </si>
   <si>
@@ -423,14 +420,33 @@
     <t>ucsb-filename</t>
   </si>
   <si>
-    <t>2015-01-20-obama.md</t>
+    <t>signed "TH. JEFFERSON" (omitted from file)</t>
+  </si>
+  <si>
+    <t>Thomas Jefferson, Fourth Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/202713</t>
+  </si>
+  <si>
+    <t>Thomas Jefferson, Fifth Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/202789</t>
+  </si>
+  <si>
+    <t>Thomas Jefferson, Sixth Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/202839</t>
+  </si>
+  <si>
+    <t>Thomas Jefferson, Seventh Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/202886</t>
+  </si>
+  <si>
+    <t>Thomas Jefferson, Eighth Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/202933</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +467,13 @@
       <color rgb="FF111111"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -485,10 +508,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -499,11 +523,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="19">
     <dxf>
       <font>
         <b val="0"/>
@@ -521,6 +547,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -549,6 +576,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="173" formatCode="00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -577,71 +605,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2122,27 +2092,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:R234" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
-  <autoFilter ref="A1:R234" xr:uid="{1A87793E-49BD-41E7-A23F-71562D7FA107}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{C540AFC6-4C29-42B3-AE7E-1D891380CF6D}" name="wordCount" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:Q234" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth"/>
+    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="5">
+      <calculatedColumnFormula>(A2&amp;"-"&amp;B2&amp;"-"&amp;C2&amp;"-"&amp;LOWER(D2)&amp;".md")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2451,36 +2421,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A15899E-558C-4C63-B86C-F370C964819B}">
-  <dimension ref="A1:R234"/>
+  <dimension ref="A1:Q234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="P232" sqref="P232"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="44.85546875" customWidth="1"/>
-    <col min="18" max="18" width="44.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="44.85546875" customWidth="1"/>
+    <col min="17" max="17" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2517,26 +2490,23 @@
         <v>110</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1790</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2556,21 +2526,31 @@
         <v>103</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1">
+        <v>1089</v>
+      </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="O2" s="1" t="str">
+        <f>(A2&amp;"-"&amp;B2&amp;"-"&amp;C2&amp;"-"&amp;LOWER(D2)&amp;".md")</f>
+        <v>1790-1-8-washington.md</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1790</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2588,21 +2568,31 @@
         <v>103</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1">
+        <v>1411</v>
+      </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:O66" si="0">(A3&amp;"-"&amp;B3&amp;"-"&amp;C3&amp;"-"&amp;LOWER(D3)&amp;".md")</f>
+        <v>1790-12-8-washington.md</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1791</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>25</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2620,21 +2610,31 @@
         <v>103</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>2314</v>
+      </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1791-10-25-washington.md</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1792</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
@@ -2652,21 +2652,31 @@
         <v>103</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>2102</v>
+      </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1792-11-6-washington.md</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1793</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2684,21 +2694,31 @@
         <v>103</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>1971</v>
+      </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1793-12-3-washington.md</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1794</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6">
+        <v>19</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
@@ -2716,21 +2736,31 @@
         <v>103</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>2920</v>
+      </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1794-11-19-washington.md</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1795</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2748,21 +2778,31 @@
         <v>103</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>1986</v>
+      </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1795-12-8-washington.md</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1796</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2780,21 +2820,31 @@
         <v>103</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1">
+        <v>2879</v>
+      </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1796-12-7-washington.md</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1797</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
+        <v>22</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2812,21 +2862,31 @@
         <v>104</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>2060</v>
+      </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1797-11-22-adams.md</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1798</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2844,21 +2904,31 @@
         <v>104</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <v>2218</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1798-12-8-adams.md</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1799</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2876,21 +2946,31 @@
         <v>104</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>1505</v>
+      </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="O12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1799-12-3-adams.md</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1800</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <v>22</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
@@ -2908,21 +2988,31 @@
         <v>104</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1">
+        <v>1374</v>
+      </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="O13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1800-11-22-adams.md</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1801</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2940,21 +3030,31 @@
         <v>105</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <v>3226</v>
+      </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="O14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1801-12-8-jefferson.md</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1802</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6">
+        <v>15</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
@@ -2972,21 +3072,31 @@
         <v>105</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>2203</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="O15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1802-12-15-jefferson.md</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1803</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6">
+        <v>17</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
@@ -3004,21 +3114,31 @@
         <v>105</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <v>2271</v>
+      </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="O16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1803-10-17-jefferson.md</v>
+      </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1804</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6">
+        <v>8</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3036,21 +3156,35 @@
         <v>105</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1">
+        <v>2101</v>
+      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1804-11-8-jefferson.md</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1805</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
@@ -3068,21 +3202,35 @@
         <v>105</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1">
+        <v>2932</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1805-12-3-jefferson.md</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1806</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
@@ -3100,21 +3248,35 @@
         <v>105</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1">
+        <v>2868</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1806-12-2-jefferson.md</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1807</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6">
+        <v>27</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
@@ -3132,21 +3294,35 @@
         <v>105</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1">
+        <v>2396</v>
+      </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1">
+        <v>2</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1807-10-27-jefferson.md</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1808</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6">
+        <v>8</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3164,21 +3340,29 @@
         <v>105</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1">
+        <v>2681</v>
+      </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1808-11-8-jefferson.md</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1809</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
@@ -3198,19 +3382,21 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="O22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1809---madison.md</v>
+      </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1810</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3230,19 +3416,21 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="O23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1810---madison.md</v>
+      </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1811</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
@@ -3262,19 +3450,21 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1811---madison.md</v>
+      </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1812</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>25</v>
       </c>
@@ -3294,19 +3484,21 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="O25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1812---madison.md</v>
+      </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1813</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3326,19 +3518,21 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="O26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1813---madison.md</v>
+      </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1814</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3358,19 +3552,21 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1">
+        <v>2</v>
+      </c>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="O27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1814---madison.md</v>
+      </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1815</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3390,19 +3586,21 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="O28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1815---madison.md</v>
+      </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1816</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
@@ -3422,19 +3620,21 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1">
+        <v>2</v>
+      </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="O29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1816---madison.md</v>
+      </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1817</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
@@ -3454,19 +3654,21 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="O30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1817---monroe.md</v>
+      </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1818</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -3486,19 +3688,21 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="O31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1818---monroe.md</v>
+      </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1819</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>27</v>
       </c>
@@ -3518,19 +3722,21 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="O32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1819---monroe.md</v>
+      </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1820</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>27</v>
       </c>
@@ -3550,19 +3756,21 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="O33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1820---monroe.md</v>
+      </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1821</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
@@ -3582,19 +3790,21 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="O34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1821---monroe.md</v>
+      </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1822</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
@@ -3614,19 +3824,21 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1">
+        <v>2</v>
+      </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="O35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1822---monroe.md</v>
+      </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1823</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
         <v>27</v>
       </c>
@@ -3646,19 +3858,21 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="M36" s="1">
+        <v>2</v>
+      </c>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="O36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1823---monroe.md</v>
+      </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1824</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
         <v>27</v>
       </c>
@@ -3678,19 +3892,21 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="M37" s="1">
+        <v>2</v>
+      </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="O37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1824---monroe.md</v>
+      </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1825</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
         <v>21</v>
       </c>
@@ -3712,17 +3928,17 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="O38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1825---adams.md</v>
+      </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1826</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
         <v>21</v>
       </c>
@@ -3744,17 +3960,17 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="O39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1826---adams.md</v>
+      </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1827</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
         <v>21</v>
       </c>
@@ -3776,17 +3992,17 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="O40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1827---adams.md</v>
+      </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1828</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
         <v>21</v>
       </c>
@@ -3808,17 +4024,17 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="O41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1828---adams.md</v>
+      </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1829</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
         <v>31</v>
       </c>
@@ -3840,17 +4056,17 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="O42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1829---jackson.md</v>
+      </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1830</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>31</v>
       </c>
@@ -3872,17 +4088,17 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+      <c r="O43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1830---jackson.md</v>
+      </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1831</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
         <v>31</v>
       </c>
@@ -3904,17 +4120,17 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="O44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1831---jackson.md</v>
+      </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1832</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
         <v>31</v>
       </c>
@@ -3936,17 +4152,17 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="O45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1832---jackson.md</v>
+      </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1833</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
         <v>31</v>
       </c>
@@ -3968,17 +4184,17 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="O46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1833---jackson.md</v>
+      </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1834</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
         <v>31</v>
       </c>
@@ -4000,17 +4216,17 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+      <c r="O47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1834---jackson.md</v>
+      </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1835</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
         <v>31</v>
       </c>
@@ -4032,17 +4248,17 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+      <c r="O48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1835---jackson.md</v>
+      </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1836</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
         <v>31</v>
       </c>
@@ -4064,17 +4280,17 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
+      <c r="O49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1836---jackson.md</v>
+      </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1837</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
         <v>33</v>
       </c>
@@ -4096,17 +4312,17 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="O50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1837---van buren.md</v>
+      </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1838</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
         <v>33</v>
       </c>
@@ -4128,17 +4344,17 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="O51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1838---van buren.md</v>
+      </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1839</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
         <v>33</v>
       </c>
@@ -4160,17 +4376,17 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
+      <c r="O52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1839---van buren.md</v>
+      </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1840</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
         <v>33</v>
       </c>
@@ -4192,17 +4408,17 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
+      <c r="O53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1840---van buren.md</v>
+      </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1841</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
         <v>37</v>
       </c>
@@ -4226,17 +4442,17 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
+      <c r="O54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1841---tyler.md</v>
+      </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1842</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
         <v>37</v>
       </c>
@@ -4260,17 +4476,17 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
+      <c r="O55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1842---tyler.md</v>
+      </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1843</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
         <v>37</v>
       </c>
@@ -4294,17 +4510,17 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="O56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1843---tyler.md</v>
+      </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1844</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
         <v>37</v>
       </c>
@@ -4328,17 +4544,17 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
+      <c r="O57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1844---tyler.md</v>
+      </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1845</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
         <v>38</v>
       </c>
@@ -4360,17 +4576,17 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
+      <c r="O58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1845---polk.md</v>
+      </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1846</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
         <v>38</v>
       </c>
@@ -4392,17 +4608,17 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
+      <c r="O59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1846---polk.md</v>
+      </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1847</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
         <v>38</v>
       </c>
@@ -4424,17 +4640,17 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
+      <c r="O60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1847---polk.md</v>
+      </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1848</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
         <v>38</v>
       </c>
@@ -4456,17 +4672,17 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
+      <c r="O61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1848---polk.md</v>
+      </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1849</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
         <v>40</v>
       </c>
@@ -4488,17 +4704,17 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
+      <c r="O62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1849---taylor.md</v>
+      </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1850</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
         <v>42</v>
       </c>
@@ -4520,17 +4736,17 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
+      <c r="O63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1850---fillmore.md</v>
+      </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1851</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
         <v>42</v>
       </c>
@@ -4552,17 +4768,17 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
+      <c r="O64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1851---fillmore.md</v>
+      </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1852</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
         <v>42</v>
       </c>
@@ -4584,17 +4800,17 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
+      <c r="O65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1852---fillmore.md</v>
+      </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1853</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
         <v>44</v>
       </c>
@@ -4616,17 +4832,17 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
+      <c r="O66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1853---pierce.md</v>
+      </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1854</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
         <v>44</v>
       </c>
@@ -4648,17 +4864,17 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
+      <c r="O67" s="1" t="str">
+        <f t="shared" ref="O67:O130" si="1">(A67&amp;"-"&amp;B67&amp;"-"&amp;C67&amp;"-"&amp;LOWER(D67)&amp;".md")</f>
+        <v>1854---pierce.md</v>
+      </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1855</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
         <v>44</v>
       </c>
@@ -4680,17 +4896,17 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
+      <c r="O68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1855---pierce.md</v>
+      </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1856</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
         <v>44</v>
       </c>
@@ -4712,17 +4928,17 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
+      <c r="O69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1856---pierce.md</v>
+      </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1857</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
         <v>46</v>
       </c>
@@ -4744,17 +4960,17 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
+      <c r="O70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1857---buchanan.md</v>
+      </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1858</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
         <v>46</v>
       </c>
@@ -4776,17 +4992,17 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
+      <c r="O71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1858---buchanan.md</v>
+      </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1859</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
         <v>46</v>
       </c>
@@ -4808,17 +5024,17 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
+      <c r="O72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1859---buchanan.md</v>
+      </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1860</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
         <v>46</v>
       </c>
@@ -4840,17 +5056,17 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
+      <c r="O73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1860---buchanan.md</v>
+      </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1861</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
         <v>47</v>
       </c>
@@ -4874,17 +5090,17 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
+      <c r="O74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1861---lincoln.md</v>
+      </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1862</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
         <v>47</v>
       </c>
@@ -4908,17 +5124,17 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
+      <c r="O75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1862---lincoln.md</v>
+      </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1863</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
         <v>47</v>
       </c>
@@ -4942,17 +5158,17 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
+      <c r="O76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1863---lincoln.md</v>
+      </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1864</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
         <v>47</v>
       </c>
@@ -4976,17 +5192,17 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
+      <c r="O77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1864---lincoln.md</v>
+      </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1865</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
         <v>49</v>
       </c>
@@ -5010,17 +5226,17 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
+      <c r="O78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1865---johnson.md</v>
+      </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1866</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
         <v>49</v>
       </c>
@@ -5044,17 +5260,17 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
+      <c r="O79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1866---johnson.md</v>
+      </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1867</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
         <v>49</v>
       </c>
@@ -5078,17 +5294,17 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
+      <c r="O80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1867---johnson.md</v>
+      </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1868</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
         <v>49</v>
       </c>
@@ -5112,17 +5328,17 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
+      <c r="O81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1868---johnson.md</v>
+      </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1869</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
         <v>50</v>
       </c>
@@ -5144,17 +5360,17 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
+      <c r="O82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1869---grant.md</v>
+      </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1870</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
         <v>50</v>
       </c>
@@ -5176,17 +5392,17 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
+      <c r="O83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1870---grant.md</v>
+      </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1871</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
         <v>50</v>
       </c>
@@ -5208,17 +5424,17 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
+      <c r="O84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1871---grant.md</v>
+      </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1872</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
         <v>50</v>
       </c>
@@ -5240,17 +5456,17 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
+      <c r="O85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1872---grant.md</v>
+      </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1873</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
         <v>50</v>
       </c>
@@ -5272,17 +5488,17 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
+      <c r="O86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1873---grant.md</v>
+      </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1874</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
         <v>50</v>
       </c>
@@ -5304,17 +5520,17 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
+      <c r="O87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1874---grant.md</v>
+      </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1875</v>
       </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
         <v>50</v>
       </c>
@@ -5336,17 +5552,17 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
+      <c r="O88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1875---grant.md</v>
+      </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1876</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
         <v>50</v>
       </c>
@@ -5368,17 +5584,17 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
+      <c r="O89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1876---grant.md</v>
+      </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1877</v>
       </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
         <v>52</v>
       </c>
@@ -5400,17 +5616,17 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
+      <c r="O90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1877---hayes.md</v>
+      </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1878</v>
       </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
         <v>52</v>
       </c>
@@ -5432,17 +5648,17 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
+      <c r="O91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1878---hayes.md</v>
+      </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1879</v>
       </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
         <v>52</v>
       </c>
@@ -5464,17 +5680,17 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
+      <c r="O92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1879---hayes.md</v>
+      </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1880</v>
       </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
         <v>52</v>
       </c>
@@ -5496,17 +5712,17 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
+      <c r="O93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1880---hayes.md</v>
+      </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1881</v>
       </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
         <v>54</v>
       </c>
@@ -5528,17 +5744,17 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
+      <c r="O94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1881---arthur.md</v>
+      </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1882</v>
       </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
         <v>54</v>
       </c>
@@ -5560,17 +5776,17 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
+      <c r="O95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1882---arthur.md</v>
+      </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1883</v>
       </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
         <v>54</v>
       </c>
@@ -5592,17 +5808,17 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
+      <c r="O96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1883---arthur.md</v>
+      </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1884</v>
       </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>54</v>
       </c>
@@ -5624,17 +5840,17 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
+      <c r="O97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1884---arthur.md</v>
+      </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1885</v>
       </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>56</v>
       </c>
@@ -5656,17 +5872,17 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
+      <c r="O98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1885---cleveland.md</v>
+      </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1886</v>
       </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
         <v>56</v>
       </c>
@@ -5688,17 +5904,17 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
+      <c r="O99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1886---cleveland.md</v>
+      </c>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1887</v>
       </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
         <v>56</v>
       </c>
@@ -5720,17 +5936,17 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
+      <c r="O100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1887---cleveland.md</v>
+      </c>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1888</v>
       </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
         <v>56</v>
       </c>
@@ -5752,17 +5968,17 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
+      <c r="O101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1888---cleveland.md</v>
+      </c>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1889</v>
       </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
         <v>58</v>
       </c>
@@ -5784,17 +6000,17 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
+      <c r="O102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1889---harrison.md</v>
+      </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1890</v>
       </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
         <v>58</v>
       </c>
@@ -5816,17 +6032,17 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
+      <c r="O103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1890---harrison.md</v>
+      </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1891</v>
       </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
         <v>58</v>
       </c>
@@ -5848,17 +6064,17 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
+      <c r="O104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1891---harrison.md</v>
+      </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1892</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
         <v>58</v>
       </c>
@@ -5880,17 +6096,17 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
+      <c r="O105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1892---harrison.md</v>
+      </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1893</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
         <v>56</v>
       </c>
@@ -5912,17 +6128,17 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
+      <c r="O106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1893---cleveland.md</v>
+      </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1894</v>
       </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
         <v>56</v>
       </c>
@@ -5944,17 +6160,17 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
+      <c r="O107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1894---cleveland.md</v>
+      </c>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1895</v>
       </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
         <v>56</v>
       </c>
@@ -5976,17 +6192,17 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
+      <c r="O108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1895---cleveland.md</v>
+      </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1896</v>
       </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
         <v>56</v>
       </c>
@@ -6008,17 +6224,17 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
+      <c r="O109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1896---cleveland.md</v>
+      </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1897</v>
       </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
         <v>60</v>
       </c>
@@ -6040,17 +6256,17 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
+      <c r="O110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1897---mckinley.md</v>
+      </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1898</v>
       </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
         <v>60</v>
       </c>
@@ -6072,17 +6288,17 @@
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
+      <c r="O111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1898---mckinley.md</v>
+      </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1899</v>
       </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
         <v>60</v>
       </c>
@@ -6104,17 +6320,17 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
+      <c r="O112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1899---mckinley.md</v>
+      </c>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1900</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
         <v>60</v>
       </c>
@@ -6136,17 +6352,17 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
+      <c r="O113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1900---mckinley.md</v>
+      </c>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>1901</v>
       </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
         <v>62</v>
       </c>
@@ -6168,17 +6384,17 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
+      <c r="O114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1901---roosevelt.md</v>
+      </c>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1902</v>
       </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
         <v>62</v>
       </c>
@@ -6200,17 +6416,17 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
+      <c r="O115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1902---roosevelt.md</v>
+      </c>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>1903</v>
       </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
         <v>62</v>
       </c>
@@ -6232,17 +6448,17 @@
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
+      <c r="O116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1903---roosevelt.md</v>
+      </c>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1904</v>
       </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
         <v>62</v>
       </c>
@@ -6264,17 +6480,17 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
+      <c r="O117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1904---roosevelt.md</v>
+      </c>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>1905</v>
       </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
         <v>62</v>
       </c>
@@ -6296,17 +6512,17 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
+      <c r="O118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1905---roosevelt.md</v>
+      </c>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>1906</v>
       </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
         <v>62</v>
       </c>
@@ -6328,17 +6544,17 @@
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
+      <c r="O119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1906---roosevelt.md</v>
+      </c>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1907</v>
       </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
         <v>62</v>
       </c>
@@ -6360,17 +6576,17 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
+      <c r="O120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1907---roosevelt.md</v>
+      </c>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>1908</v>
       </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
         <v>62</v>
       </c>
@@ -6392,17 +6608,17 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
+      <c r="O121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1908---roosevelt.md</v>
+      </c>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
-      <c r="R121" s="1"/>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1909</v>
       </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
         <v>64</v>
       </c>
@@ -6424,17 +6640,17 @@
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
+      <c r="O122" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1909---taft.md</v>
+      </c>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>1910</v>
       </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
         <v>64</v>
       </c>
@@ -6456,17 +6672,17 @@
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
+      <c r="O123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1910---taft.md</v>
+      </c>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>1911</v>
       </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
         <v>64</v>
       </c>
@@ -6488,17 +6704,17 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
+      <c r="O124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1911---taft.md</v>
+      </c>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
-      <c r="R124" s="1"/>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>1912</v>
       </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
         <v>64</v>
       </c>
@@ -6520,17 +6736,17 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
+      <c r="O125" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1912---taft.md</v>
+      </c>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>1913</v>
       </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
         <v>66</v>
       </c>
@@ -6552,17 +6768,17 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
+      <c r="O126" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1913---wilson.md</v>
+      </c>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>1914</v>
       </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
         <v>66</v>
       </c>
@@ -6584,17 +6800,17 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
+      <c r="O127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1914---wilson.md</v>
+      </c>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
-      <c r="R127" s="1"/>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>1915</v>
       </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
         <v>66</v>
       </c>
@@ -6616,17 +6832,17 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
+      <c r="O128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1915---wilson.md</v>
+      </c>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
-      <c r="R128" s="1"/>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>1916</v>
       </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
       <c r="D129" s="1" t="s">
         <v>66</v>
       </c>
@@ -6648,17 +6864,17 @@
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
+      <c r="O129" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1916---wilson.md</v>
+      </c>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
-      <c r="R129" s="1"/>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>1917</v>
       </c>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
         <v>66</v>
       </c>
@@ -6680,17 +6896,17 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
+      <c r="O130" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1917---wilson.md</v>
+      </c>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
-      <c r="R130" s="1"/>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>1918</v>
       </c>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
         <v>66</v>
       </c>
@@ -6712,17 +6928,17 @@
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
+      <c r="O131" s="1" t="str">
+        <f t="shared" ref="O131:O194" si="2">(A131&amp;"-"&amp;B131&amp;"-"&amp;C131&amp;"-"&amp;LOWER(D131)&amp;".md")</f>
+        <v>1918---wilson.md</v>
+      </c>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
-      <c r="R131" s="1"/>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>1919</v>
       </c>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
         <v>66</v>
       </c>
@@ -6744,17 +6960,17 @@
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
+      <c r="O132" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1919---wilson.md</v>
+      </c>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>1920</v>
       </c>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
         <v>66</v>
       </c>
@@ -6776,17 +6992,17 @@
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
+      <c r="O133" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1920---wilson.md</v>
+      </c>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1921</v>
       </c>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
       <c r="D134" s="1" t="s">
         <v>68</v>
       </c>
@@ -6808,17 +7024,17 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
+      <c r="O134" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1921---harding.md</v>
+      </c>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1922</v>
       </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
         <v>68</v>
       </c>
@@ -6840,17 +7056,17 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
+      <c r="O135" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1922---harding.md</v>
+      </c>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
-      <c r="R135" s="1"/>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1923</v>
       </c>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
       <c r="D136" s="1" t="s">
         <v>70</v>
       </c>
@@ -6872,17 +7088,17 @@
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
+      <c r="O136" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1923---coolidge.md</v>
+      </c>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
-      <c r="R136" s="1"/>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1924</v>
       </c>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
         <v>70</v>
       </c>
@@ -6904,17 +7120,17 @@
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
+      <c r="O137" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1924---coolidge.md</v>
+      </c>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1925</v>
       </c>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
         <v>70</v>
       </c>
@@ -6936,17 +7152,17 @@
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
+      <c r="O138" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1925---coolidge.md</v>
+      </c>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
-      <c r="R138" s="1"/>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>1926</v>
       </c>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
         <v>70</v>
       </c>
@@ -6968,17 +7184,17 @@
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
-      <c r="O139" s="1"/>
+      <c r="O139" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1926---coolidge.md</v>
+      </c>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
-      <c r="R139" s="1"/>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1927</v>
       </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
         <v>70</v>
       </c>
@@ -7000,17 +7216,17 @@
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
+      <c r="O140" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1927---coolidge.md</v>
+      </c>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
-      <c r="R140" s="1"/>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1928</v>
       </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
         <v>70</v>
       </c>
@@ -7032,17 +7248,17 @@
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
+      <c r="O141" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1928---coolidge.md</v>
+      </c>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
-      <c r="R141" s="1"/>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1929</v>
       </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
       <c r="D142" s="1" t="s">
         <v>72</v>
       </c>
@@ -7064,17 +7280,17 @@
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
+      <c r="O142" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1929---hoover.md</v>
+      </c>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
-      <c r="R142" s="1"/>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1930</v>
       </c>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
         <v>72</v>
       </c>
@@ -7096,17 +7312,17 @@
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
+      <c r="O143" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1930---hoover.md</v>
+      </c>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
-      <c r="R143" s="1"/>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1931</v>
       </c>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
         <v>72</v>
       </c>
@@ -7128,17 +7344,17 @@
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
+      <c r="O144" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1931---hoover.md</v>
+      </c>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1932</v>
       </c>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
         <v>72</v>
       </c>
@@ -7160,17 +7376,17 @@
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
+      <c r="O145" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1932---hoover.md</v>
+      </c>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1934</v>
       </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
         <v>62</v>
       </c>
@@ -7192,17 +7408,17 @@
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
+      <c r="O146" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1934---roosevelt.md</v>
+      </c>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1935</v>
       </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
         <v>62</v>
       </c>
@@ -7224,17 +7440,17 @@
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
+      <c r="O147" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1935---roosevelt.md</v>
+      </c>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1936</v>
       </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
         <v>62</v>
       </c>
@@ -7256,17 +7472,17 @@
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
+      <c r="O148" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1936---roosevelt.md</v>
+      </c>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1937</v>
       </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
         <v>62</v>
       </c>
@@ -7288,17 +7504,17 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
-      <c r="O149" s="1"/>
+      <c r="O149" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1937---roosevelt.md</v>
+      </c>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
-      <c r="R149" s="1"/>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1938</v>
       </c>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
         <v>62</v>
       </c>
@@ -7320,17 +7536,17 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
+      <c r="O150" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1938---roosevelt.md</v>
+      </c>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>1939</v>
       </c>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
         <v>62</v>
       </c>
@@ -7352,17 +7568,17 @@
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
+      <c r="O151" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1939---roosevelt.md</v>
+      </c>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
-      <c r="R151" s="1"/>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1940</v>
       </c>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
         <v>62</v>
       </c>
@@ -7384,17 +7600,17 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
+      <c r="O152" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1940---roosevelt.md</v>
+      </c>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
-      <c r="R152" s="1"/>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1941</v>
       </c>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
         <v>62</v>
       </c>
@@ -7416,17 +7632,17 @@
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
+      <c r="O153" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1941---roosevelt.md</v>
+      </c>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-      <c r="R153" s="1"/>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1942</v>
       </c>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
         <v>62</v>
       </c>
@@ -7448,17 +7664,17 @@
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
-      <c r="O154" s="1"/>
+      <c r="O154" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1942---roosevelt.md</v>
+      </c>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-      <c r="R154" s="1"/>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1943</v>
       </c>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
         <v>62</v>
       </c>
@@ -7480,17 +7696,17 @@
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
+      <c r="O155" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1943---roosevelt.md</v>
+      </c>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-      <c r="R155" s="1"/>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1944</v>
       </c>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
         <v>62</v>
       </c>
@@ -7512,17 +7728,17 @@
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
+      <c r="O156" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1944---roosevelt.md</v>
+      </c>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
-      <c r="R156" s="1"/>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>1945</v>
       </c>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
         <v>62</v>
       </c>
@@ -7546,17 +7762,17 @@
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
+      <c r="O157" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1945---roosevelt.md</v>
+      </c>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
-      <c r="R157" s="1"/>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>1946</v>
       </c>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
         <v>77</v>
       </c>
@@ -7578,17 +7794,17 @@
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
+      <c r="O158" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1946---truman.md</v>
+      </c>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>1947</v>
       </c>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
       <c r="D159" s="1" t="s">
         <v>77</v>
       </c>
@@ -7610,17 +7826,17 @@
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
+      <c r="O159" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1947---truman.md</v>
+      </c>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
-      <c r="R159" s="1"/>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>1948</v>
       </c>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
         <v>77</v>
       </c>
@@ -7642,17 +7858,17 @@
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
+      <c r="O160" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1948---truman.md</v>
+      </c>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>1949</v>
       </c>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
         <v>77</v>
       </c>
@@ -7674,17 +7890,17 @@
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
+      <c r="O161" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1949---truman.md</v>
+      </c>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>1950</v>
       </c>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
         <v>77</v>
       </c>
@@ -7706,17 +7922,17 @@
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
+      <c r="O162" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1950---truman.md</v>
+      </c>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1951</v>
       </c>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
         <v>77</v>
       </c>
@@ -7738,17 +7954,17 @@
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
+      <c r="O163" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1951---truman.md</v>
+      </c>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1952</v>
       </c>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
         <v>77</v>
       </c>
@@ -7770,17 +7986,17 @@
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
+      <c r="O164" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1952---truman.md</v>
+      </c>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
-      <c r="R164" s="1"/>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>1953</v>
       </c>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
         <v>77</v>
       </c>
@@ -7802,17 +8018,17 @@
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
+      <c r="O165" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1953---truman.md</v>
+      </c>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>1953</v>
       </c>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
         <v>79</v>
       </c>
@@ -7832,17 +8048,17 @@
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
+      <c r="O166" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1953---eisenhower.md</v>
+      </c>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>1954</v>
       </c>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
       <c r="D167" s="1" t="s">
         <v>79</v>
       </c>
@@ -7864,17 +8080,17 @@
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
+      <c r="O167" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1954---eisenhower.md</v>
+      </c>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>1955</v>
       </c>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
         <v>79</v>
       </c>
@@ -7896,17 +8112,17 @@
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
+      <c r="O168" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1955---eisenhower.md</v>
+      </c>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>1956</v>
       </c>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
       <c r="D169" s="1" t="s">
         <v>79</v>
       </c>
@@ -7930,17 +8146,17 @@
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
+      <c r="O169" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1956---eisenhower.md</v>
+      </c>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
-      <c r="R169" s="1"/>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1957</v>
       </c>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
         <v>79</v>
       </c>
@@ -7962,17 +8178,17 @@
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
+      <c r="O170" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1957---eisenhower.md</v>
+      </c>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>1958</v>
       </c>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
         <v>79</v>
       </c>
@@ -7994,17 +8210,17 @@
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
+      <c r="O171" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1958---eisenhower.md</v>
+      </c>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>1959</v>
       </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
         <v>79</v>
       </c>
@@ -8026,17 +8242,17 @@
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
+      <c r="O172" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1959---eisenhower.md</v>
+      </c>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>1960</v>
       </c>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
       <c r="D173" s="1" t="s">
         <v>79</v>
       </c>
@@ -8058,17 +8274,17 @@
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
+      <c r="O173" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1960---eisenhower.md</v>
+      </c>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>1961</v>
       </c>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
         <v>79</v>
       </c>
@@ -8090,17 +8306,17 @@
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
+      <c r="O174" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1961---eisenhower.md</v>
+      </c>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>1961</v>
       </c>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
         <v>82</v>
       </c>
@@ -8120,17 +8336,17 @@
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
+      <c r="O175" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1961---kennedy.md</v>
+      </c>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
-      <c r="R175" s="1"/>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>1962</v>
       </c>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
       <c r="D176" s="1" t="s">
         <v>82</v>
       </c>
@@ -8152,17 +8368,17 @@
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
+      <c r="O176" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1962---kennedy.md</v>
+      </c>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
-      <c r="R176" s="1"/>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>1963</v>
       </c>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
         <v>82</v>
       </c>
@@ -8184,17 +8400,17 @@
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
+      <c r="O177" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1963---kennedy.md</v>
+      </c>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>1964</v>
       </c>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
       <c r="D178" s="1" t="s">
         <v>49</v>
       </c>
@@ -8216,17 +8432,17 @@
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
+      <c r="O178" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1964---johnson.md</v>
+      </c>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
-      <c r="R178" s="1"/>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>1965</v>
       </c>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
       <c r="D179" s="1" t="s">
         <v>49</v>
       </c>
@@ -8248,17 +8464,17 @@
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
+      <c r="O179" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1965---johnson.md</v>
+      </c>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
-      <c r="R179" s="1"/>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>1966</v>
       </c>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
       <c r="D180" s="1" t="s">
         <v>49</v>
       </c>
@@ -8280,17 +8496,17 @@
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
+      <c r="O180" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1966---johnson.md</v>
+      </c>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>1967</v>
       </c>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
       <c r="D181" s="1" t="s">
         <v>49</v>
       </c>
@@ -8312,17 +8528,17 @@
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
+      <c r="O181" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1967---johnson.md</v>
+      </c>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>1968</v>
       </c>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
       <c r="D182" s="1" t="s">
         <v>49</v>
       </c>
@@ -8344,17 +8560,17 @@
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
+      <c r="O182" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1968---johnson.md</v>
+      </c>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
-      <c r="R182" s="1"/>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>1969</v>
       </c>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
       <c r="D183" s="1" t="s">
         <v>49</v>
       </c>
@@ -8376,17 +8592,17 @@
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
+      <c r="O183" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1969---johnson.md</v>
+      </c>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
-      <c r="R183" s="1"/>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>1970</v>
       </c>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
       <c r="D184" s="1" t="s">
         <v>85</v>
       </c>
@@ -8408,17 +8624,17 @@
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
+      <c r="O184" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1970---nixon.md</v>
+      </c>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
-      <c r="R184" s="1"/>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>1971</v>
       </c>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
       <c r="D185" s="1" t="s">
         <v>85</v>
       </c>
@@ -8440,17 +8656,17 @@
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
+      <c r="O185" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1971---nixon.md</v>
+      </c>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
-      <c r="R185" s="1"/>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>1972</v>
       </c>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
         <v>85</v>
       </c>
@@ -8472,17 +8688,17 @@
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
+      <c r="O186" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1972---nixon.md</v>
+      </c>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
-      <c r="R186" s="1"/>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>1972</v>
       </c>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
         <v>85</v>
       </c>
@@ -8504,17 +8720,17 @@
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
+      <c r="O187" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1972---nixon.md</v>
+      </c>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
-      <c r="R187" s="1"/>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>1973</v>
       </c>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
       <c r="D188" s="1" t="s">
         <v>85</v>
       </c>
@@ -8538,17 +8754,17 @@
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
+      <c r="O188" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1973---nixon.md</v>
+      </c>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
-      <c r="R188" s="1"/>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>1974</v>
       </c>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
         <v>85</v>
       </c>
@@ -8570,17 +8786,17 @@
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
+      <c r="O189" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1974---nixon.md</v>
+      </c>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
-      <c r="R189" s="1"/>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>1975</v>
       </c>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
       <c r="D190" s="1" t="s">
         <v>88</v>
       </c>
@@ -8602,17 +8818,17 @@
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
+      <c r="O190" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1975---ford.md</v>
+      </c>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
-      <c r="R190" s="1"/>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>1976</v>
       </c>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
       <c r="D191" s="1" t="s">
         <v>88</v>
       </c>
@@ -8634,17 +8850,17 @@
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
-      <c r="O191" s="1"/>
+      <c r="O191" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1976---ford.md</v>
+      </c>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
-      <c r="R191" s="1"/>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>1977</v>
       </c>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
       <c r="D192" s="1" t="s">
         <v>88</v>
       </c>
@@ -8666,17 +8882,17 @@
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
+      <c r="O192" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1977---ford.md</v>
+      </c>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
-      <c r="R192" s="1"/>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>1978</v>
       </c>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
       <c r="D193" s="1" t="s">
         <v>90</v>
       </c>
@@ -8698,17 +8914,17 @@
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
-      <c r="O193" s="1"/>
+      <c r="O193" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1978---carter.md</v>
+      </c>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
-      <c r="R193" s="1"/>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>1979</v>
       </c>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
       <c r="D194" s="1" t="s">
         <v>90</v>
       </c>
@@ -8730,17 +8946,17 @@
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
+      <c r="O194" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1979---carter.md</v>
+      </c>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
-      <c r="R194" s="1"/>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>1980</v>
       </c>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
         <v>90</v>
       </c>
@@ -8762,17 +8978,17 @@
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
+      <c r="O195" s="1" t="str">
+        <f t="shared" ref="O195:O234" si="3">(A195&amp;"-"&amp;B195&amp;"-"&amp;C195&amp;"-"&amp;LOWER(D195)&amp;".md")</f>
+        <v>1980---carter.md</v>
+      </c>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
-      <c r="R195" s="1"/>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>1981</v>
       </c>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
       <c r="D196" s="1" t="s">
         <v>90</v>
       </c>
@@ -8794,17 +9010,17 @@
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
+      <c r="O196" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1981---carter.md</v>
+      </c>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
-      <c r="R196" s="1"/>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>1981</v>
       </c>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
       <c r="D197" s="1" t="s">
         <v>15</v>
       </c>
@@ -8826,17 +9042,17 @@
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
+      <c r="O197" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1981---reagan.md</v>
+      </c>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
-      <c r="R197" s="1"/>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>1982</v>
       </c>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
       <c r="D198" s="1" t="s">
         <v>15</v>
       </c>
@@ -8858,17 +9074,17 @@
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
-      <c r="O198" s="1"/>
+      <c r="O198" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1982---reagan.md</v>
+      </c>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
-      <c r="R198" s="1"/>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1983</v>
       </c>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
       <c r="D199" s="1" t="s">
         <v>15</v>
       </c>
@@ -8890,17 +9106,17 @@
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
+      <c r="O199" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1983---reagan.md</v>
+      </c>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
-      <c r="R199" s="1"/>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>1984</v>
       </c>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
         <v>15</v>
       </c>
@@ -8922,17 +9138,17 @@
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
+      <c r="O200" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1984---reagan.md</v>
+      </c>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1985</v>
       </c>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
         <v>15</v>
       </c>
@@ -8954,17 +9170,17 @@
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
+      <c r="O201" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1985---reagan.md</v>
+      </c>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
-      <c r="R201" s="1"/>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>1986</v>
       </c>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
       <c r="D202" s="1" t="s">
         <v>15</v>
       </c>
@@ -8986,17 +9202,17 @@
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
-      <c r="O202" s="1"/>
+      <c r="O202" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1986---reagan.md</v>
+      </c>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
-      <c r="R202" s="1"/>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>1987</v>
       </c>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
       <c r="D203" s="1" t="s">
         <v>15</v>
       </c>
@@ -9018,17 +9234,17 @@
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
+      <c r="O203" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1987---reagan.md</v>
+      </c>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
-      <c r="R203" s="1"/>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>1988</v>
       </c>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
         <v>15</v>
       </c>
@@ -9050,17 +9266,17 @@
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
+      <c r="O204" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1988---reagan.md</v>
+      </c>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
-      <c r="R204" s="1"/>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>1989</v>
       </c>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
         <v>11</v>
       </c>
@@ -9082,17 +9298,17 @@
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
-      <c r="O205" s="1"/>
+      <c r="O205" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1989---bush.md</v>
+      </c>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
-      <c r="R205" s="1"/>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>1990</v>
       </c>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
       <c r="D206" s="1" t="s">
         <v>11</v>
       </c>
@@ -9114,17 +9330,17 @@
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
+      <c r="O206" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1990---bush.md</v>
+      </c>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
-      <c r="R206" s="1"/>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>1991</v>
       </c>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
         <v>11</v>
       </c>
@@ -9144,17 +9360,17 @@
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
-      <c r="O207" s="1"/>
+      <c r="O207" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1991---bush.md</v>
+      </c>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
-      <c r="R207" s="1"/>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>1992</v>
       </c>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
       <c r="D208" s="1" t="s">
         <v>11</v>
       </c>
@@ -9176,17 +9392,17 @@
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
+      <c r="O208" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1992---bush.md</v>
+      </c>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
-      <c r="R208" s="1"/>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>1993</v>
       </c>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
       <c r="D209" s="1" t="s">
         <v>13</v>
       </c>
@@ -9208,17 +9424,17 @@
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
+      <c r="O209" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1993---clinton.md</v>
+      </c>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
-      <c r="R209" s="1"/>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>1994</v>
       </c>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
       <c r="D210" s="1" t="s">
         <v>13</v>
       </c>
@@ -9240,17 +9456,17 @@
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
+      <c r="O210" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1994---clinton.md</v>
+      </c>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
-      <c r="R210" s="1"/>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>1995</v>
       </c>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
         <v>13</v>
       </c>
@@ -9272,17 +9488,17 @@
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
+      <c r="O211" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1995---clinton.md</v>
+      </c>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
-      <c r="R211" s="1"/>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>1996</v>
       </c>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
         <v>13</v>
       </c>
@@ -9304,17 +9520,17 @@
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
+      <c r="O212" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1996---clinton.md</v>
+      </c>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
-      <c r="R212" s="1"/>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>1997</v>
       </c>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
         <v>13</v>
       </c>
@@ -9336,17 +9552,17 @@
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
-      <c r="O213" s="1"/>
+      <c r="O213" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1997---clinton.md</v>
+      </c>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
-      <c r="R213" s="1"/>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>1998</v>
       </c>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
         <v>13</v>
       </c>
@@ -9368,17 +9584,17 @@
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
-      <c r="O214" s="1"/>
+      <c r="O214" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1998---clinton.md</v>
+      </c>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
-      <c r="R214" s="1"/>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>1999</v>
       </c>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
         <v>13</v>
       </c>
@@ -9400,17 +9616,17 @@
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
+      <c r="O215" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1999---clinton.md</v>
+      </c>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>2000</v>
       </c>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
         <v>13</v>
       </c>
@@ -9432,17 +9648,17 @@
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
+      <c r="O216" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2000---clinton.md</v>
+      </c>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2001</v>
       </c>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
         <v>11</v>
       </c>
@@ -9464,17 +9680,17 @@
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
+      <c r="O217" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2001---bush.md</v>
+      </c>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2002</v>
       </c>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
         <v>11</v>
       </c>
@@ -9496,17 +9712,17 @@
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
+      <c r="O218" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2002---bush.md</v>
+      </c>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2003</v>
       </c>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
         <v>11</v>
       </c>
@@ -9528,17 +9744,17 @@
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
+      <c r="O219" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2003---bush.md</v>
+      </c>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
-      <c r="R219" s="1"/>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2004</v>
       </c>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
       <c r="D220" s="1" t="s">
         <v>11</v>
       </c>
@@ -9560,17 +9776,17 @@
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
+      <c r="O220" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2004---bush.md</v>
+      </c>
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2005</v>
       </c>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
       <c r="D221" s="1" t="s">
         <v>11</v>
       </c>
@@ -9592,17 +9808,17 @@
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
+      <c r="O221" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2005---bush.md</v>
+      </c>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
-      <c r="R221" s="1"/>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2006</v>
       </c>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
       <c r="D222" s="1" t="s">
         <v>11</v>
       </c>
@@ -9624,17 +9840,17 @@
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
-      <c r="O222" s="1"/>
+      <c r="O222" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2006---bush.md</v>
+      </c>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
-      <c r="R222" s="1"/>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2007</v>
       </c>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
         <v>11</v>
       </c>
@@ -9656,17 +9872,17 @@
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
-      <c r="O223" s="1"/>
+      <c r="O223" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2007---bush.md</v>
+      </c>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
-      <c r="R223" s="1"/>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2008</v>
       </c>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
         <v>11</v>
       </c>
@@ -9688,17 +9904,17 @@
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
-      <c r="O224" s="1"/>
+      <c r="O224" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2008---bush.md</v>
+      </c>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
-      <c r="R224" s="1"/>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2009</v>
       </c>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
       <c r="D225" s="1" t="s">
         <v>10</v>
       </c>
@@ -9720,17 +9936,17 @@
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
+      <c r="O225" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2009---obama.md</v>
+      </c>
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
-      <c r="R225" s="1"/>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2010</v>
       </c>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
       <c r="D226" s="1" t="s">
         <v>10</v>
       </c>
@@ -9752,17 +9968,17 @@
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
+      <c r="O226" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2010---obama.md</v>
+      </c>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
-      <c r="R226" s="1"/>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2011</v>
       </c>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
         <v>10</v>
       </c>
@@ -9784,17 +10000,17 @@
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
+      <c r="O227" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2011---obama.md</v>
+      </c>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
-      <c r="R227" s="1"/>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2012</v>
       </c>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
         <v>10</v>
       </c>
@@ -9816,17 +10032,17 @@
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
+      <c r="O228" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2012---obama.md</v>
+      </c>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
-      <c r="R228" s="1"/>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2013</v>
       </c>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
         <v>10</v>
       </c>
@@ -9848,17 +10064,17 @@
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
+      <c r="O229" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2013---obama.md</v>
+      </c>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
-      <c r="R229" s="1"/>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2014</v>
       </c>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
       <c r="D230" s="1" t="s">
         <v>10</v>
       </c>
@@ -9880,17 +10096,17 @@
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
-      <c r="O230" s="1"/>
+      <c r="O230" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2014---obama.md</v>
+      </c>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
-      <c r="R230" s="1"/>
-    </row>
-    <row r="231" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2015</v>
       </c>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
       <c r="D231" s="1" t="s">
         <v>10</v>
       </c>
@@ -9912,23 +10128,21 @@
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
-      <c r="P231" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q231" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="R231" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O231" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2015---obama.md</v>
+      </c>
+      <c r="P231" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q231" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2016</v>
       </c>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
         <v>10</v>
       </c>
@@ -9950,17 +10164,17 @@
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
-      <c r="O232" s="1"/>
+      <c r="O232" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2016---obama.md</v>
+      </c>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
-      <c r="R232" s="1"/>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>2017</v>
       </c>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
       <c r="D233" s="1" t="s">
         <v>9</v>
       </c>
@@ -9982,17 +10196,17 @@
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
-      <c r="O233" s="1"/>
+      <c r="O233" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2017---trump.md</v>
+      </c>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
-      <c r="R233" s="1"/>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>2018</v>
       </c>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
       <c r="D234" s="1" t="s">
         <v>9</v>
       </c>
@@ -10014,12 +10228,20 @@
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
-      <c r="O234" s="1"/>
+      <c r="O234" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2018---trump.md</v>
+      </c>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
-      <c r="R234" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{DB144446-EB57-47C0-BE17-4F8D925A6CFF}">
+      <formula1>1</formula1>
+      <formula2>12</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -10027,7 +10249,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="written or verbal" xr:uid="{55D13022-9677-4D1E-8621-9932C7131202}">
           <x14:formula1>
             <xm:f>vocabulary!$A$2:$A$4</xm:f>
@@ -10039,12 +10261,6 @@
             <xm:f>vocabulary!$C$2:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>I1:J234</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{DB144446-EB57-47C0-BE17-4F8D925A6CFF}">
-          <x14:formula1>
-            <xm:f>vocabulary!$E$2:$E$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{863E898A-9393-44B1-82F7-419B3770C50E}">
           <x14:formula1>
@@ -10176,10 +10392,10 @@
         <v>102</v>
       </c>
       <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
         <v>112</v>
-      </c>
-      <c r="G1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10190,7 +10406,7 @@
         <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -10204,7 +10420,7 @@
         <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -10218,7 +10434,7 @@
         <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -10229,7 +10445,7 @@
         <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -10240,7 +10456,7 @@
         <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -10251,7 +10467,7 @@
         <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -10262,7 +10478,7 @@
         <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -10270,7 +10486,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -10278,7 +10494,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -10286,7 +10502,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -10294,7 +10510,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -10302,7 +10518,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G13">
         <v>12</v>

--- a/master-index.xlsx
+++ b/master-index.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F5216-931E-4939-BE79-0ECE56D79F83}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A0950A-5C01-45EA-BA46-2FD6EDA96C98}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="146">
   <si>
     <t>potusLastName</t>
   </si>
@@ -436,6 +436,36 @@
   </si>
   <si>
     <t>Thomas Jefferson, Eighth Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/202933</t>
+  </si>
+  <si>
+    <t>signed "JAMES MADISON" (omitted from file)</t>
+  </si>
+  <si>
+    <t>James Madison, First Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/204403</t>
+  </si>
+  <si>
+    <t>James Madison, Second Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/204434</t>
+  </si>
+  <si>
+    <t>James Madison, Third Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/204473</t>
+  </si>
+  <si>
+    <t>James Madison, Fourth Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/204504</t>
+  </si>
+  <si>
+    <t>James Madison, Fifth Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/204541</t>
+  </si>
+  <si>
+    <t>James Madison, Sixth Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/204586</t>
+  </si>
+  <si>
+    <t>James Madison, Seventh Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/204622</t>
+  </si>
+  <si>
+    <t>James Madison, Eighth Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/204790</t>
+  </si>
+  <si>
+    <t>word count</t>
   </si>
 </sst>
 </file>
@@ -444,7 +474,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="00"/>
+    <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -512,52 +542,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="164" formatCode="00"/>
     </dxf>
     <dxf>
       <font>
@@ -576,16 +582,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="173" formatCode="00"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -631,6 +635,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -911,15 +944,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -939,6 +970,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1496,7 +1528,1144 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>word count over time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>master!$A$2:$A$234</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="233"/>
+                <c:pt idx="0">
+                  <c:v>1790</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1790</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1803</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1804</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1806</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1807</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1808</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1809</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1812</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1814</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1817</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1819</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1820</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1823</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1829</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1833</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1837</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1838</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1839</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1843</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1846</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1847</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1852</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1856</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1857</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1871</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1874</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1876</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1879</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1882</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1886</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1887</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1888</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1889</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1893</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1895</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1899</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1906</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1909</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1915</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1916</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1923</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1926</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>master!$K$2:$K$234</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="233"/>
+                <c:pt idx="0">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2314</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2920</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2879</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2203</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2271</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2932</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2868</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2396</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1833</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2449</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2273</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3249</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3264</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3146</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-771D-4A8A-B24F-6D9739640C51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="510002416"/>
+        <c:axId val="510007992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="510002416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510007992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="510007992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510002416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2050,6 +3219,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2088,31 +3773,69 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2114549</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42389D5C-69E4-43C6-BAFC-19D4FE78E0E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:Q234" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:Q234" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth"/>
-    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="0"/>
-    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="3">
       <calculatedColumnFormula>(A2&amp;"-"&amp;B2&amp;"-"&amp;C2&amp;"-"&amp;LOWER(D2)&amp;".md")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2423,37 +4146,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A15899E-558C-4C63-B86C-F370C964819B}">
   <dimension ref="A1:Q234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K234" activeCellId="1" sqref="A2:A234 K2:K234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="11" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="7.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" customWidth="1"/>
     <col min="15" max="15" width="26.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="44.85546875" customWidth="1"/>
-    <col min="17" max="17" width="44.42578125" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2495,7 +4220,7 @@
       <c r="P1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2503,10 +4228,10 @@
       <c r="A2" s="1">
         <v>1790</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2539,16 +4264,16 @@
         <v>1790-1-8-washington.md</v>
       </c>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1790</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>12</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2581,16 +4306,16 @@
         <v>1790-12-8-washington.md</v>
       </c>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1791</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2623,16 +4348,16 @@
         <v>1791-10-25-washington.md</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1792</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>11</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2665,16 +4390,16 @@
         <v>1792-11-6-washington.md</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1793</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2707,16 +4432,16 @@
         <v>1793-12-3-washington.md</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1794</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
         <v>11</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2749,16 +4474,16 @@
         <v>1794-11-19-washington.md</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1795</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="10">
         <v>12</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2791,16 +4516,16 @@
         <v>1795-12-8-washington.md</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1796</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="10">
         <v>12</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2833,16 +4558,16 @@
         <v>1796-12-7-washington.md</v>
       </c>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1797</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="10">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2875,16 +4600,16 @@
         <v>1797-11-22-adams.md</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1798</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="10">
         <v>12</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2917,16 +4642,16 @@
         <v>1798-12-8-adams.md</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1799</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="10">
         <v>12</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2959,16 +4684,16 @@
         <v>1799-12-3-adams.md</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1800</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3001,16 +4726,16 @@
         <v>1800-11-22-adams.md</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1801</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3043,16 +4768,16 @@
         <v>1801-12-8-jefferson.md</v>
       </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1802</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="10">
         <v>12</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3085,16 +4810,16 @@
         <v>1802-12-15-jefferson.md</v>
       </c>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1803</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="10">
         <v>10</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3127,16 +4852,16 @@
         <v>1803-10-17-jefferson.md</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1804</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="10">
         <v>11</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3171,7 +4896,7 @@
       <c r="P17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3179,10 +4904,10 @@
       <c r="A18" s="1">
         <v>1805</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="10">
         <v>12</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -3217,7 +4942,7 @@
       <c r="P18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="8" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3225,10 +4950,10 @@
       <c r="A19" s="1">
         <v>1806</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="10">
         <v>12</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -3263,7 +4988,7 @@
       <c r="P19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="8" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3271,10 +4996,10 @@
       <c r="A20" s="1">
         <v>1807</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="10">
         <v>10</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3309,7 +5034,7 @@
       <c r="P20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="8" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3317,10 +5042,10 @@
       <c r="A21" s="1">
         <v>1808</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="10">
         <v>11</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -3355,7 +5080,7 @@
       <c r="P21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="8" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3363,6 +5088,12 @@
       <c r="A22" s="1">
         <v>1809</v>
       </c>
+      <c r="B22" s="10">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5">
+        <v>29</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
@@ -3380,7 +5111,9 @@
         <v>105</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="1">
+        <v>1833</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
         <v>1</v>
@@ -3388,15 +5121,25 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1809---madison.md</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+        <v>1809-11-29-madison.md</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1810</v>
       </c>
+      <c r="B23" s="10">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5">
+        <v>5</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3414,7 +5157,9 @@
         <v>105</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1">
+        <v>2449</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
         <v>1</v>
@@ -3422,15 +5167,25 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1810---madison.md</v>
-      </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+        <v>1810-12-5-madison.md</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1811</v>
       </c>
+      <c r="B24" s="10">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
@@ -3448,7 +5203,9 @@
         <v>105</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1">
+        <v>2273</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
         <v>1</v>
@@ -3456,15 +5213,25 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1811---madison.md</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+        <v>1811-11-5-madison.md</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1812</v>
       </c>
+      <c r="B25" s="10">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>25</v>
       </c>
@@ -3482,7 +5249,9 @@
         <v>105</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1">
+        <v>3249</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
         <v>1</v>
@@ -3490,15 +5259,25 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1812---madison.md</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+        <v>1812-11-4-madison.md</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1813</v>
       </c>
+      <c r="B26" s="10">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5">
+        <v>7</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3516,7 +5295,9 @@
         <v>105</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1">
+        <v>3264</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
         <v>2</v>
@@ -3524,15 +5305,25 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1813---madison.md</v>
-      </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+        <v>1813-12-7-madison.md</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1814</v>
       </c>
+      <c r="B27" s="10">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5">
+        <v>20</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3550,7 +5341,9 @@
         <v>105</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1">
+        <v>2114</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
         <v>2</v>
@@ -3558,15 +5351,25 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1814---madison.md</v>
-      </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+        <v>1814-9-20-madison.md</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1815</v>
       </c>
+      <c r="B28" s="10">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3584,7 +5387,9 @@
         <v>105</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1">
+        <v>3146</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
         <v>2</v>
@@ -3592,15 +5397,25 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1815---madison.md</v>
-      </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+        <v>1815-12-5-madison.md</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1816</v>
       </c>
+      <c r="B29" s="10">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
@@ -3618,7 +5433,9 @@
         <v>105</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="1">
+        <v>3367</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
         <v>2</v>
@@ -3626,10 +5443,14 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1816---madison.md</v>
-      </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+        <v>1816-12-3-madison.md</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -3663,7 +5484,7 @@
         <v>1817---monroe.md</v>
       </c>
       <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -3697,7 +5518,7 @@
         <v>1818---monroe.md</v>
       </c>
       <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
+      <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -3731,7 +5552,7 @@
         <v>1819---monroe.md</v>
       </c>
       <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -3765,7 +5586,7 @@
         <v>1820---monroe.md</v>
       </c>
       <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -3799,7 +5620,7 @@
         <v>1821---monroe.md</v>
       </c>
       <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -3833,7 +5654,7 @@
         <v>1822---monroe.md</v>
       </c>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -3867,7 +5688,7 @@
         <v>1823---monroe.md</v>
       </c>
       <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
+      <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -3901,7 +5722,7 @@
         <v>1824---monroe.md</v>
       </c>
       <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -3933,7 +5754,7 @@
         <v>1825---adams.md</v>
       </c>
       <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
+      <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -3965,7 +5786,7 @@
         <v>1826---adams.md</v>
       </c>
       <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -3997,7 +5818,7 @@
         <v>1827---adams.md</v>
       </c>
       <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -4029,7 +5850,7 @@
         <v>1828---adams.md</v>
       </c>
       <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -4061,7 +5882,7 @@
         <v>1829---jackson.md</v>
       </c>
       <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -4093,7 +5914,7 @@
         <v>1830---jackson.md</v>
       </c>
       <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -4125,7 +5946,7 @@
         <v>1831---jackson.md</v>
       </c>
       <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -4157,7 +5978,7 @@
         <v>1832---jackson.md</v>
       </c>
       <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -4189,7 +6010,7 @@
         <v>1833---jackson.md</v>
       </c>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -4221,7 +6042,7 @@
         <v>1834---jackson.md</v>
       </c>
       <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -4253,7 +6074,7 @@
         <v>1835---jackson.md</v>
       </c>
       <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
+      <c r="Q48" s="7"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -4285,7 +6106,7 @@
         <v>1836---jackson.md</v>
       </c>
       <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
+      <c r="Q49" s="7"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -4317,7 +6138,7 @@
         <v>1837---van buren.md</v>
       </c>
       <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="Q50" s="7"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -4349,7 +6170,7 @@
         <v>1838---van buren.md</v>
       </c>
       <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
+      <c r="Q51" s="7"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
@@ -4381,7 +6202,7 @@
         <v>1839---van buren.md</v>
       </c>
       <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
+      <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -4413,7 +6234,7 @@
         <v>1840---van buren.md</v>
       </c>
       <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
+      <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -4447,7 +6268,7 @@
         <v>1841---tyler.md</v>
       </c>
       <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
+      <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -4481,7 +6302,7 @@
         <v>1842---tyler.md</v>
       </c>
       <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
+      <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -4515,7 +6336,7 @@
         <v>1843---tyler.md</v>
       </c>
       <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
+      <c r="Q56" s="7"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -4549,7 +6370,7 @@
         <v>1844---tyler.md</v>
       </c>
       <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
+      <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -4581,7 +6402,7 @@
         <v>1845---polk.md</v>
       </c>
       <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="Q58" s="7"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -4613,7 +6434,7 @@
         <v>1846---polk.md</v>
       </c>
       <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
@@ -4645,7 +6466,7 @@
         <v>1847---polk.md</v>
       </c>
       <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
+      <c r="Q60" s="7"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -4677,7 +6498,7 @@
         <v>1848---polk.md</v>
       </c>
       <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
+      <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -4709,7 +6530,7 @@
         <v>1849---taylor.md</v>
       </c>
       <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
+      <c r="Q62" s="7"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -4741,7 +6562,7 @@
         <v>1850---fillmore.md</v>
       </c>
       <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
+      <c r="Q63" s="7"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -4773,7 +6594,7 @@
         <v>1851---fillmore.md</v>
       </c>
       <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
+      <c r="Q64" s="7"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -4805,7 +6626,7 @@
         <v>1852---fillmore.md</v>
       </c>
       <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
+      <c r="Q65" s="7"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -4837,7 +6658,7 @@
         <v>1853---pierce.md</v>
       </c>
       <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
+      <c r="Q66" s="7"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -4869,7 +6690,7 @@
         <v>1854---pierce.md</v>
       </c>
       <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
+      <c r="Q67" s="7"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -4901,7 +6722,7 @@
         <v>1855---pierce.md</v>
       </c>
       <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
+      <c r="Q68" s="7"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -4933,7 +6754,7 @@
         <v>1856---pierce.md</v>
       </c>
       <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
+      <c r="Q69" s="7"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
@@ -4965,7 +6786,7 @@
         <v>1857---buchanan.md</v>
       </c>
       <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
+      <c r="Q70" s="7"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -4997,7 +6818,7 @@
         <v>1858---buchanan.md</v>
       </c>
       <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
+      <c r="Q71" s="7"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -5029,7 +6850,7 @@
         <v>1859---buchanan.md</v>
       </c>
       <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
+      <c r="Q72" s="7"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -5061,7 +6882,7 @@
         <v>1860---buchanan.md</v>
       </c>
       <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+      <c r="Q73" s="7"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -5095,7 +6916,7 @@
         <v>1861---lincoln.md</v>
       </c>
       <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
+      <c r="Q74" s="7"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -5129,7 +6950,7 @@
         <v>1862---lincoln.md</v>
       </c>
       <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
+      <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -5163,7 +6984,7 @@
         <v>1863---lincoln.md</v>
       </c>
       <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
+      <c r="Q76" s="7"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -5197,7 +7018,7 @@
         <v>1864---lincoln.md</v>
       </c>
       <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
+      <c r="Q77" s="7"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -5231,7 +7052,7 @@
         <v>1865---johnson.md</v>
       </c>
       <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
+      <c r="Q78" s="7"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -5265,7 +7086,7 @@
         <v>1866---johnson.md</v>
       </c>
       <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
+      <c r="Q79" s="7"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
@@ -5299,7 +7120,7 @@
         <v>1867---johnson.md</v>
       </c>
       <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
+      <c r="Q80" s="7"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
@@ -5333,7 +7154,7 @@
         <v>1868---johnson.md</v>
       </c>
       <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
+      <c r="Q81" s="7"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
@@ -5365,7 +7186,7 @@
         <v>1869---grant.md</v>
       </c>
       <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
+      <c r="Q82" s="7"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -5397,7 +7218,7 @@
         <v>1870---grant.md</v>
       </c>
       <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
+      <c r="Q83" s="7"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -5429,7 +7250,7 @@
         <v>1871---grant.md</v>
       </c>
       <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
+      <c r="Q84" s="7"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
@@ -5461,7 +7282,7 @@
         <v>1872---grant.md</v>
       </c>
       <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
+      <c r="Q85" s="7"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
@@ -5493,7 +7314,7 @@
         <v>1873---grant.md</v>
       </c>
       <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
+      <c r="Q86" s="7"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
@@ -5525,7 +7346,7 @@
         <v>1874---grant.md</v>
       </c>
       <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
+      <c r="Q87" s="7"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
@@ -5557,7 +7378,7 @@
         <v>1875---grant.md</v>
       </c>
       <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
+      <c r="Q88" s="7"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
@@ -5589,7 +7410,7 @@
         <v>1876---grant.md</v>
       </c>
       <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
+      <c r="Q89" s="7"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -5621,7 +7442,7 @@
         <v>1877---hayes.md</v>
       </c>
       <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
+      <c r="Q90" s="7"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
@@ -5653,7 +7474,7 @@
         <v>1878---hayes.md</v>
       </c>
       <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
+      <c r="Q91" s="7"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
@@ -5685,7 +7506,7 @@
         <v>1879---hayes.md</v>
       </c>
       <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
+      <c r="Q92" s="7"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
@@ -5717,7 +7538,7 @@
         <v>1880---hayes.md</v>
       </c>
       <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
+      <c r="Q93" s="7"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
@@ -5749,7 +7570,7 @@
         <v>1881---arthur.md</v>
       </c>
       <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
+      <c r="Q94" s="7"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
@@ -5781,7 +7602,7 @@
         <v>1882---arthur.md</v>
       </c>
       <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
+      <c r="Q95" s="7"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
@@ -5813,7 +7634,7 @@
         <v>1883---arthur.md</v>
       </c>
       <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
+      <c r="Q96" s="7"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
@@ -5845,7 +7666,7 @@
         <v>1884---arthur.md</v>
       </c>
       <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
+      <c r="Q97" s="7"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
@@ -5877,7 +7698,7 @@
         <v>1885---cleveland.md</v>
       </c>
       <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
+      <c r="Q98" s="7"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
@@ -5909,7 +7730,7 @@
         <v>1886---cleveland.md</v>
       </c>
       <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
+      <c r="Q99" s="7"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
@@ -5941,7 +7762,7 @@
         <v>1887---cleveland.md</v>
       </c>
       <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
+      <c r="Q100" s="7"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
@@ -5973,7 +7794,7 @@
         <v>1888---cleveland.md</v>
       </c>
       <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
+      <c r="Q101" s="7"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
@@ -6005,7 +7826,7 @@
         <v>1889---harrison.md</v>
       </c>
       <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
+      <c r="Q102" s="7"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
@@ -6037,7 +7858,7 @@
         <v>1890---harrison.md</v>
       </c>
       <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
+      <c r="Q103" s="7"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -6069,7 +7890,7 @@
         <v>1891---harrison.md</v>
       </c>
       <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
+      <c r="Q104" s="7"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -6101,7 +7922,7 @@
         <v>1892---harrison.md</v>
       </c>
       <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
+      <c r="Q105" s="7"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
@@ -6133,7 +7954,7 @@
         <v>1893---cleveland.md</v>
       </c>
       <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
+      <c r="Q106" s="7"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
@@ -6165,7 +7986,7 @@
         <v>1894---cleveland.md</v>
       </c>
       <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
+      <c r="Q107" s="7"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
@@ -6197,7 +8018,7 @@
         <v>1895---cleveland.md</v>
       </c>
       <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
+      <c r="Q108" s="7"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
@@ -6229,7 +8050,7 @@
         <v>1896---cleveland.md</v>
       </c>
       <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
+      <c r="Q109" s="7"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
@@ -6261,7 +8082,7 @@
         <v>1897---mckinley.md</v>
       </c>
       <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
+      <c r="Q110" s="7"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
@@ -6293,7 +8114,7 @@
         <v>1898---mckinley.md</v>
       </c>
       <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
+      <c r="Q111" s="7"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
@@ -6325,7 +8146,7 @@
         <v>1899---mckinley.md</v>
       </c>
       <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
+      <c r="Q112" s="7"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -6357,7 +8178,7 @@
         <v>1900---mckinley.md</v>
       </c>
       <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
+      <c r="Q113" s="7"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -6389,7 +8210,7 @@
         <v>1901---roosevelt.md</v>
       </c>
       <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
+      <c r="Q114" s="7"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
@@ -6421,7 +8242,7 @@
         <v>1902---roosevelt.md</v>
       </c>
       <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
+      <c r="Q115" s="7"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -6453,7 +8274,7 @@
         <v>1903---roosevelt.md</v>
       </c>
       <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
+      <c r="Q116" s="7"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
@@ -6485,7 +8306,7 @@
         <v>1904---roosevelt.md</v>
       </c>
       <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
+      <c r="Q117" s="7"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
@@ -6517,7 +8338,7 @@
         <v>1905---roosevelt.md</v>
       </c>
       <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
+      <c r="Q118" s="7"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
@@ -6549,7 +8370,7 @@
         <v>1906---roosevelt.md</v>
       </c>
       <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
+      <c r="Q119" s="7"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -6581,7 +8402,7 @@
         <v>1907---roosevelt.md</v>
       </c>
       <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
+      <c r="Q120" s="7"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -6613,7 +8434,7 @@
         <v>1908---roosevelt.md</v>
       </c>
       <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
+      <c r="Q121" s="7"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -6645,7 +8466,7 @@
         <v>1909---taft.md</v>
       </c>
       <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
+      <c r="Q122" s="7"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
@@ -6677,7 +8498,7 @@
         <v>1910---taft.md</v>
       </c>
       <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
+      <c r="Q123" s="7"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
@@ -6709,7 +8530,7 @@
         <v>1911---taft.md</v>
       </c>
       <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
+      <c r="Q124" s="7"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
@@ -6741,7 +8562,7 @@
         <v>1912---taft.md</v>
       </c>
       <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
+      <c r="Q125" s="7"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -6773,7 +8594,7 @@
         <v>1913---wilson.md</v>
       </c>
       <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
+      <c r="Q126" s="7"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
@@ -6805,7 +8626,7 @@
         <v>1914---wilson.md</v>
       </c>
       <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
+      <c r="Q127" s="7"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
@@ -6837,7 +8658,7 @@
         <v>1915---wilson.md</v>
       </c>
       <c r="P128" s="1"/>
-      <c r="Q128" s="1"/>
+      <c r="Q128" s="7"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
@@ -6869,7 +8690,7 @@
         <v>1916---wilson.md</v>
       </c>
       <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
+      <c r="Q129" s="7"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
@@ -6901,7 +8722,7 @@
         <v>1917---wilson.md</v>
       </c>
       <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
+      <c r="Q130" s="7"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
@@ -6933,7 +8754,7 @@
         <v>1918---wilson.md</v>
       </c>
       <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
+      <c r="Q131" s="7"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
@@ -6965,7 +8786,7 @@
         <v>1919---wilson.md</v>
       </c>
       <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
+      <c r="Q132" s="7"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
@@ -6997,7 +8818,7 @@
         <v>1920---wilson.md</v>
       </c>
       <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
+      <c r="Q133" s="7"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
@@ -7029,7 +8850,7 @@
         <v>1921---harding.md</v>
       </c>
       <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
+      <c r="Q134" s="7"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
@@ -7061,7 +8882,7 @@
         <v>1922---harding.md</v>
       </c>
       <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
+      <c r="Q135" s="7"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
@@ -7093,7 +8914,7 @@
         <v>1923---coolidge.md</v>
       </c>
       <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
+      <c r="Q136" s="7"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -7125,7 +8946,7 @@
         <v>1924---coolidge.md</v>
       </c>
       <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
+      <c r="Q137" s="7"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
@@ -7157,7 +8978,7 @@
         <v>1925---coolidge.md</v>
       </c>
       <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
+      <c r="Q138" s="7"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
@@ -7189,7 +9010,7 @@
         <v>1926---coolidge.md</v>
       </c>
       <c r="P139" s="1"/>
-      <c r="Q139" s="1"/>
+      <c r="Q139" s="7"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
@@ -7221,7 +9042,7 @@
         <v>1927---coolidge.md</v>
       </c>
       <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
+      <c r="Q140" s="7"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -7253,7 +9074,7 @@
         <v>1928---coolidge.md</v>
       </c>
       <c r="P141" s="1"/>
-      <c r="Q141" s="1"/>
+      <c r="Q141" s="7"/>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
@@ -7285,7 +9106,7 @@
         <v>1929---hoover.md</v>
       </c>
       <c r="P142" s="1"/>
-      <c r="Q142" s="1"/>
+      <c r="Q142" s="7"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -7317,7 +9138,7 @@
         <v>1930---hoover.md</v>
       </c>
       <c r="P143" s="1"/>
-      <c r="Q143" s="1"/>
+      <c r="Q143" s="7"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -7349,7 +9170,7 @@
         <v>1931---hoover.md</v>
       </c>
       <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
+      <c r="Q144" s="7"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
@@ -7381,7 +9202,7 @@
         <v>1932---hoover.md</v>
       </c>
       <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
+      <c r="Q145" s="7"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -7413,7 +9234,7 @@
         <v>1934---roosevelt.md</v>
       </c>
       <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
+      <c r="Q146" s="7"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
@@ -7445,7 +9266,7 @@
         <v>1935---roosevelt.md</v>
       </c>
       <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
+      <c r="Q147" s="7"/>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
@@ -7477,7 +9298,7 @@
         <v>1936---roosevelt.md</v>
       </c>
       <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
+      <c r="Q148" s="7"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
@@ -7509,7 +9330,7 @@
         <v>1937---roosevelt.md</v>
       </c>
       <c r="P149" s="1"/>
-      <c r="Q149" s="1"/>
+      <c r="Q149" s="7"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
@@ -7541,7 +9362,7 @@
         <v>1938---roosevelt.md</v>
       </c>
       <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
+      <c r="Q150" s="7"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
@@ -7573,7 +9394,7 @@
         <v>1939---roosevelt.md</v>
       </c>
       <c r="P151" s="1"/>
-      <c r="Q151" s="1"/>
+      <c r="Q151" s="7"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -7605,7 +9426,7 @@
         <v>1940---roosevelt.md</v>
       </c>
       <c r="P152" s="1"/>
-      <c r="Q152" s="1"/>
+      <c r="Q152" s="7"/>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -7637,7 +9458,7 @@
         <v>1941---roosevelt.md</v>
       </c>
       <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
+      <c r="Q153" s="7"/>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
@@ -7669,7 +9490,7 @@
         <v>1942---roosevelt.md</v>
       </c>
       <c r="P154" s="1"/>
-      <c r="Q154" s="1"/>
+      <c r="Q154" s="7"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
@@ -7701,7 +9522,7 @@
         <v>1943---roosevelt.md</v>
       </c>
       <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
+      <c r="Q155" s="7"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
@@ -7733,7 +9554,7 @@
         <v>1944---roosevelt.md</v>
       </c>
       <c r="P156" s="1"/>
-      <c r="Q156" s="1"/>
+      <c r="Q156" s="7"/>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
@@ -7767,7 +9588,7 @@
         <v>1945---roosevelt.md</v>
       </c>
       <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
+      <c r="Q157" s="7"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
@@ -7799,7 +9620,7 @@
         <v>1946---truman.md</v>
       </c>
       <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
+      <c r="Q158" s="7"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -7831,7 +9652,7 @@
         <v>1947---truman.md</v>
       </c>
       <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
+      <c r="Q159" s="7"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -7863,7 +9684,7 @@
         <v>1948---truman.md</v>
       </c>
       <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
+      <c r="Q160" s="7"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
@@ -7895,7 +9716,7 @@
         <v>1949---truman.md</v>
       </c>
       <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
+      <c r="Q161" s="7"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
@@ -7927,7 +9748,7 @@
         <v>1950---truman.md</v>
       </c>
       <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
+      <c r="Q162" s="7"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
@@ -7959,7 +9780,7 @@
         <v>1951---truman.md</v>
       </c>
       <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
+      <c r="Q163" s="7"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
@@ -7991,7 +9812,7 @@
         <v>1952---truman.md</v>
       </c>
       <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
+      <c r="Q164" s="7"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
@@ -8023,7 +9844,7 @@
         <v>1953---truman.md</v>
       </c>
       <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
+      <c r="Q165" s="7"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
@@ -8053,7 +9874,7 @@
         <v>1953---eisenhower.md</v>
       </c>
       <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
+      <c r="Q166" s="7"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
@@ -8085,7 +9906,7 @@
         <v>1954---eisenhower.md</v>
       </c>
       <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
+      <c r="Q167" s="7"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
@@ -8117,7 +9938,7 @@
         <v>1955---eisenhower.md</v>
       </c>
       <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
+      <c r="Q168" s="7"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
@@ -8151,7 +9972,7 @@
         <v>1956---eisenhower.md</v>
       </c>
       <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
+      <c r="Q169" s="7"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
@@ -8183,7 +10004,7 @@
         <v>1957---eisenhower.md</v>
       </c>
       <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
+      <c r="Q170" s="7"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
@@ -8215,7 +10036,7 @@
         <v>1958---eisenhower.md</v>
       </c>
       <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
+      <c r="Q171" s="7"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
@@ -8247,7 +10068,7 @@
         <v>1959---eisenhower.md</v>
       </c>
       <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
+      <c r="Q172" s="7"/>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -8279,7 +10100,7 @@
         <v>1960---eisenhower.md</v>
       </c>
       <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
+      <c r="Q173" s="7"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
@@ -8311,7 +10132,7 @@
         <v>1961---eisenhower.md</v>
       </c>
       <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
+      <c r="Q174" s="7"/>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
@@ -8341,7 +10162,7 @@
         <v>1961---kennedy.md</v>
       </c>
       <c r="P175" s="1"/>
-      <c r="Q175" s="1"/>
+      <c r="Q175" s="7"/>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
@@ -8373,7 +10194,7 @@
         <v>1962---kennedy.md</v>
       </c>
       <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
+      <c r="Q176" s="7"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
@@ -8405,7 +10226,7 @@
         <v>1963---kennedy.md</v>
       </c>
       <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
+      <c r="Q177" s="7"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
@@ -8437,7 +10258,7 @@
         <v>1964---johnson.md</v>
       </c>
       <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
+      <c r="Q178" s="7"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
@@ -8469,7 +10290,7 @@
         <v>1965---johnson.md</v>
       </c>
       <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
+      <c r="Q179" s="7"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
@@ -8501,7 +10322,7 @@
         <v>1966---johnson.md</v>
       </c>
       <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
+      <c r="Q180" s="7"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
@@ -8533,7 +10354,7 @@
         <v>1967---johnson.md</v>
       </c>
       <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
+      <c r="Q181" s="7"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
@@ -8565,7 +10386,7 @@
         <v>1968---johnson.md</v>
       </c>
       <c r="P182" s="1"/>
-      <c r="Q182" s="1"/>
+      <c r="Q182" s="7"/>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
@@ -8597,7 +10418,7 @@
         <v>1969---johnson.md</v>
       </c>
       <c r="P183" s="1"/>
-      <c r="Q183" s="1"/>
+      <c r="Q183" s="7"/>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
@@ -8629,7 +10450,7 @@
         <v>1970---nixon.md</v>
       </c>
       <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
+      <c r="Q184" s="7"/>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
@@ -8661,7 +10482,7 @@
         <v>1971---nixon.md</v>
       </c>
       <c r="P185" s="1"/>
-      <c r="Q185" s="1"/>
+      <c r="Q185" s="7"/>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
@@ -8693,7 +10514,7 @@
         <v>1972---nixon.md</v>
       </c>
       <c r="P186" s="1"/>
-      <c r="Q186" s="1"/>
+      <c r="Q186" s="7"/>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
@@ -8725,7 +10546,7 @@
         <v>1972---nixon.md</v>
       </c>
       <c r="P187" s="1"/>
-      <c r="Q187" s="1"/>
+      <c r="Q187" s="7"/>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
@@ -8759,7 +10580,7 @@
         <v>1973---nixon.md</v>
       </c>
       <c r="P188" s="1"/>
-      <c r="Q188" s="1"/>
+      <c r="Q188" s="7"/>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
@@ -8791,7 +10612,7 @@
         <v>1974---nixon.md</v>
       </c>
       <c r="P189" s="1"/>
-      <c r="Q189" s="1"/>
+      <c r="Q189" s="7"/>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
@@ -8823,7 +10644,7 @@
         <v>1975---ford.md</v>
       </c>
       <c r="P190" s="1"/>
-      <c r="Q190" s="1"/>
+      <c r="Q190" s="7"/>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
@@ -8855,7 +10676,7 @@
         <v>1976---ford.md</v>
       </c>
       <c r="P191" s="1"/>
-      <c r="Q191" s="1"/>
+      <c r="Q191" s="7"/>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
@@ -8887,7 +10708,7 @@
         <v>1977---ford.md</v>
       </c>
       <c r="P192" s="1"/>
-      <c r="Q192" s="1"/>
+      <c r="Q192" s="7"/>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
@@ -8919,7 +10740,7 @@
         <v>1978---carter.md</v>
       </c>
       <c r="P193" s="1"/>
-      <c r="Q193" s="1"/>
+      <c r="Q193" s="7"/>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
@@ -8951,7 +10772,7 @@
         <v>1979---carter.md</v>
       </c>
       <c r="P194" s="1"/>
-      <c r="Q194" s="1"/>
+      <c r="Q194" s="7"/>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
@@ -8983,7 +10804,7 @@
         <v>1980---carter.md</v>
       </c>
       <c r="P195" s="1"/>
-      <c r="Q195" s="1"/>
+      <c r="Q195" s="7"/>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
@@ -9015,7 +10836,7 @@
         <v>1981---carter.md</v>
       </c>
       <c r="P196" s="1"/>
-      <c r="Q196" s="1"/>
+      <c r="Q196" s="7"/>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
@@ -9047,7 +10868,7 @@
         <v>1981---reagan.md</v>
       </c>
       <c r="P197" s="1"/>
-      <c r="Q197" s="1"/>
+      <c r="Q197" s="7"/>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
@@ -9079,7 +10900,7 @@
         <v>1982---reagan.md</v>
       </c>
       <c r="P198" s="1"/>
-      <c r="Q198" s="1"/>
+      <c r="Q198" s="7"/>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
@@ -9111,7 +10932,7 @@
         <v>1983---reagan.md</v>
       </c>
       <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
+      <c r="Q199" s="7"/>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
@@ -9143,7 +10964,7 @@
         <v>1984---reagan.md</v>
       </c>
       <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
+      <c r="Q200" s="7"/>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
@@ -9175,7 +10996,7 @@
         <v>1985---reagan.md</v>
       </c>
       <c r="P201" s="1"/>
-      <c r="Q201" s="1"/>
+      <c r="Q201" s="7"/>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
@@ -9207,7 +11028,7 @@
         <v>1986---reagan.md</v>
       </c>
       <c r="P202" s="1"/>
-      <c r="Q202" s="1"/>
+      <c r="Q202" s="7"/>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
@@ -9239,7 +11060,7 @@
         <v>1987---reagan.md</v>
       </c>
       <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
+      <c r="Q203" s="7"/>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
@@ -9271,7 +11092,7 @@
         <v>1988---reagan.md</v>
       </c>
       <c r="P204" s="1"/>
-      <c r="Q204" s="1"/>
+      <c r="Q204" s="7"/>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
@@ -9303,7 +11124,7 @@
         <v>1989---bush.md</v>
       </c>
       <c r="P205" s="1"/>
-      <c r="Q205" s="1"/>
+      <c r="Q205" s="7"/>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
@@ -9335,7 +11156,7 @@
         <v>1990---bush.md</v>
       </c>
       <c r="P206" s="1"/>
-      <c r="Q206" s="1"/>
+      <c r="Q206" s="7"/>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
@@ -9365,7 +11186,7 @@
         <v>1991---bush.md</v>
       </c>
       <c r="P207" s="1"/>
-      <c r="Q207" s="1"/>
+      <c r="Q207" s="7"/>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
@@ -9397,7 +11218,7 @@
         <v>1992---bush.md</v>
       </c>
       <c r="P208" s="1"/>
-      <c r="Q208" s="1"/>
+      <c r="Q208" s="7"/>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
@@ -9429,7 +11250,7 @@
         <v>1993---clinton.md</v>
       </c>
       <c r="P209" s="1"/>
-      <c r="Q209" s="1"/>
+      <c r="Q209" s="7"/>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
@@ -9461,7 +11282,7 @@
         <v>1994---clinton.md</v>
       </c>
       <c r="P210" s="1"/>
-      <c r="Q210" s="1"/>
+      <c r="Q210" s="7"/>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
@@ -9493,7 +11314,7 @@
         <v>1995---clinton.md</v>
       </c>
       <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
+      <c r="Q211" s="7"/>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
@@ -9525,7 +11346,7 @@
         <v>1996---clinton.md</v>
       </c>
       <c r="P212" s="1"/>
-      <c r="Q212" s="1"/>
+      <c r="Q212" s="7"/>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
@@ -9557,7 +11378,7 @@
         <v>1997---clinton.md</v>
       </c>
       <c r="P213" s="1"/>
-      <c r="Q213" s="1"/>
+      <c r="Q213" s="7"/>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
@@ -9589,7 +11410,7 @@
         <v>1998---clinton.md</v>
       </c>
       <c r="P214" s="1"/>
-      <c r="Q214" s="1"/>
+      <c r="Q214" s="7"/>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
@@ -9621,7 +11442,7 @@
         <v>1999---clinton.md</v>
       </c>
       <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
+      <c r="Q215" s="7"/>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
@@ -9653,7 +11474,7 @@
         <v>2000---clinton.md</v>
       </c>
       <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
+      <c r="Q216" s="7"/>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
@@ -9685,7 +11506,7 @@
         <v>2001---bush.md</v>
       </c>
       <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
+      <c r="Q217" s="7"/>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
@@ -9717,7 +11538,7 @@
         <v>2002---bush.md</v>
       </c>
       <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
+      <c r="Q218" s="7"/>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
@@ -9749,7 +11570,7 @@
         <v>2003---bush.md</v>
       </c>
       <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
+      <c r="Q219" s="7"/>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
@@ -9781,7 +11602,7 @@
         <v>2004---bush.md</v>
       </c>
       <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
+      <c r="Q220" s="7"/>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
@@ -9813,7 +11634,7 @@
         <v>2005---bush.md</v>
       </c>
       <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
+      <c r="Q221" s="7"/>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
@@ -9845,7 +11666,7 @@
         <v>2006---bush.md</v>
       </c>
       <c r="P222" s="1"/>
-      <c r="Q222" s="1"/>
+      <c r="Q222" s="7"/>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
@@ -9877,7 +11698,7 @@
         <v>2007---bush.md</v>
       </c>
       <c r="P223" s="1"/>
-      <c r="Q223" s="1"/>
+      <c r="Q223" s="7"/>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
@@ -9909,7 +11730,7 @@
         <v>2008---bush.md</v>
       </c>
       <c r="P224" s="1"/>
-      <c r="Q224" s="1"/>
+      <c r="Q224" s="7"/>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
@@ -9941,7 +11762,7 @@
         <v>2009---obama.md</v>
       </c>
       <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
+      <c r="Q225" s="7"/>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
@@ -9973,7 +11794,7 @@
         <v>2010---obama.md</v>
       </c>
       <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
+      <c r="Q226" s="7"/>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
@@ -10005,7 +11826,7 @@
         <v>2011---obama.md</v>
       </c>
       <c r="P227" s="1"/>
-      <c r="Q227" s="1"/>
+      <c r="Q227" s="7"/>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
@@ -10037,7 +11858,7 @@
         <v>2012---obama.md</v>
       </c>
       <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
+      <c r="Q228" s="7"/>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
@@ -10069,7 +11890,7 @@
         <v>2013---obama.md</v>
       </c>
       <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
+      <c r="Q229" s="7"/>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
@@ -10101,9 +11922,9 @@
         <v>2014---obama.md</v>
       </c>
       <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
-    </row>
-    <row r="231" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="Q230" s="7"/>
+    </row>
+    <row r="231" spans="1:17" ht="270" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2015</v>
       </c>
@@ -10132,10 +11953,10 @@
         <f t="shared" si="3"/>
         <v>2015---obama.md</v>
       </c>
-      <c r="P231" s="5" t="s">
+      <c r="P231" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="Q231" s="4" t="s">
+      <c r="Q231" s="8" t="s">
         <v>128</v>
       </c>
     </row>
@@ -10169,7 +11990,7 @@
         <v>2016---obama.md</v>
       </c>
       <c r="P232" s="1"/>
-      <c r="Q232" s="1"/>
+      <c r="Q232" s="7"/>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
@@ -10201,7 +12022,7 @@
         <v>2017---trump.md</v>
       </c>
       <c r="P233" s="1"/>
-      <c r="Q233" s="1"/>
+      <c r="Q233" s="7"/>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
@@ -10233,7 +12054,7 @@
         <v>2018---trump.md</v>
       </c>
       <c r="P234" s="1"/>
-      <c r="Q234" s="1"/>
+      <c r="Q234" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -10243,7 +12064,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B1:C1" listDataValidation="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -10311,10 +12135,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DDDDA2-CD65-4F05-8376-3F7C0FDAE546}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10361,6 +12185,11 @@
       <c r="B5">
         <f>COUNTIF(Table3[deliveryMedium],vocabulary!A4)</f>
         <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/master-index.xlsx
+++ b/master-index.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A0950A-5C01-45EA-BA46-2FD6EDA96C98}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BCAC91-01CE-4989-B96C-0351ACC8588E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="3" r:id="rId1"/>
@@ -562,9 +562,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="00"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -981,6 +978,9 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="00"/>
     </dxf>
     <dxf>
       <font>
@@ -3818,24 +3818,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:Q234" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="2">
       <calculatedColumnFormula>(A2&amp;"-"&amp;B2&amp;"-"&amp;C2&amp;"-"&amp;LOWER(D2)&amp;".md")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4146,8 +4146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A15899E-558C-4C63-B86C-F370C964819B}">
   <dimension ref="A1:Q234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K234" activeCellId="1" sqref="A2:A234 K2:K234"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4156,17 +4156,17 @@
     <col min="2" max="2" width="8.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="11" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="5.28515625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="4.85546875" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" customWidth="1"/>
     <col min="16" max="16" width="25.28515625" customWidth="1"/>
     <col min="17" max="17" width="23.28515625" style="9" customWidth="1"/>
   </cols>
@@ -12137,7 +12137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DDDDA2-CD65-4F05-8376-3F7C0FDAE546}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>

--- a/master-index.xlsx
+++ b/master-index.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BCAC91-01CE-4989-B96C-0351ACC8588E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16848D0A-5B4D-4BA2-9A15-7DC8150540FD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="3" r:id="rId1"/>
-    <sheet name="citations" sheetId="5" r:id="rId2"/>
-    <sheet name="stats" sheetId="4" r:id="rId3"/>
-    <sheet name="vocabulary" sheetId="2" r:id="rId4"/>
+    <sheet name="potus" sheetId="6" r:id="rId2"/>
+    <sheet name="citations" sheetId="5" r:id="rId3"/>
+    <sheet name="stats" sheetId="4" r:id="rId4"/>
+    <sheet name="vocabulary" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="182">
   <si>
     <t>potusLastName</t>
   </si>
@@ -466,6 +467,117 @@
   </si>
   <si>
     <t>word count</t>
+  </si>
+  <si>
+    <t>signed "JAMES MONROE" (omitted from file)</t>
+  </si>
+  <si>
+    <t>signed "JOHN QUINCY ADAMS" (omitted from file)</t>
+  </si>
+  <si>
+    <t>James Monroe, First Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/205560</t>
+  </si>
+  <si>
+    <t>James Monroe, Second Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/205598</t>
+  </si>
+  <si>
+    <t>James Monroe, Third Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/205633</t>
+  </si>
+  <si>
+    <t>James Monroe, Fourth Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/205662</t>
+  </si>
+  <si>
+    <t>James Monroe, Fifth Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/205698</t>
+  </si>
+  <si>
+    <t>James Monroe, Sixth Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/205723</t>
+  </si>
+  <si>
+    <t>James Monroe, Seventh Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/205755</t>
+  </si>
+  <si>
+    <t>James Monroe, Eighth Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/205780</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>given names</t>
+  </si>
+  <si>
+    <t>year elected</t>
+  </si>
+  <si>
+    <t>date inaugurated</t>
+  </si>
+  <si>
+    <t>date left office</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Van Buren</t>
+  </si>
+  <si>
+    <t>William Henry</t>
+  </si>
+  <si>
+    <t>John Quincy Adams, First Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/206789</t>
+  </si>
+  <si>
+    <t>John Quincy Adams, Second Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/206797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signed "JOHN QUINCY ADAMS" (omitted from file) APP Note: The following sentence was removed from the text because it appears there was an error in the recording of the document where the preceeding and succeeding sentences were partially combined into an extra sentence: "In the event of a disagreement between the commissioners, one appointed by each party, to examine and decide upon their respective claims." This change does not alter the meaning of this passage. 
+APP Note: There was a small spelling error in the document that has been corrected.
+APP Note: The phrase "and important members of the Union, which, having risen into existence" was omitted from this version of the document, but is present in other versions. We have added the phrase because its absence makes the sentence nonsensical.
+We thank Dr. Daniel W. Stowell, Independent Researcher, for his assistance identifying these errors. </t>
+  </si>
+  <si>
+    <t>John Quincy Adams, Third Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/206800</t>
+  </si>
+  <si>
+    <t>John Quincy Adams, Fourth Annual Message Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/206803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signed "JOHN QUINCY ADAMS" (omitted from file) APP Note: There is a small error in the original document. The word "department" has been changed to "kept" which makes the statement clear. We thank Dr. Daniel W. Stowell, Independent Researcher, for his assistance identifying this error. </t>
   </si>
 </sst>
 </file>
@@ -476,7 +588,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +611,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -542,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -556,12 +676,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2427,6 +2566,42 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3367</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4432</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4376</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4709</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3462</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5856</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4760</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6426</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8433</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9089</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7836</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7056</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3815,33 +3990,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:Q234" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:Q234" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="3">
       <calculatedColumnFormula>(A2&amp;"-"&amp;B2&amp;"-"&amp;C2&amp;"-"&amp;LOWER(D2)&amp;".md")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2165DEDF-1AB7-4B84-9632-A614CDA07411}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:R46" xr:uid="{AE285793-CB7D-40A8-B930-00C5755BFACC}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{6244E28B-E0F1-47FA-8860-B6D17C3A5B62}" name="#"/>
+    <tableColumn id="2" xr3:uid="{FABE08F0-72DA-4959-98B9-7525462FEC60}" name="last name"/>
+    <tableColumn id="3" xr3:uid="{C15C58D8-E330-476F-BD7A-155EB1C4E2EF}" name="given names"/>
+    <tableColumn id="4" xr3:uid="{86B85A05-0CEA-4EE9-A990-70FE2A90F713}" name="year elected"/>
+    <tableColumn id="5" xr3:uid="{00C697A9-D213-4D34-9D8C-E755A624A319}" name="date inaugurated"/>
+    <tableColumn id="6" xr3:uid="{011C3095-0446-4782-ABA5-2D53E5961EB4}" name="date left office"/>
+    <tableColumn id="7" xr3:uid="{EEBBFEE8-8990-4C15-89AA-54868E4C814C}" name="Column1"/>
+    <tableColumn id="8" xr3:uid="{F2B68088-AF52-4782-BC1A-539A073F4DD7}" name="Column2"/>
+    <tableColumn id="9" xr3:uid="{4C020256-BCCF-42C0-89BB-0490AFF73CAE}" name="Column3"/>
+    <tableColumn id="10" xr3:uid="{A08AC827-E66E-41F8-B0ED-94440D47DA83}" name="Column4"/>
+    <tableColumn id="11" xr3:uid="{763544E1-E26C-4B65-A771-AB9DBFFE9478}" name="Column5"/>
+    <tableColumn id="12" xr3:uid="{05815270-DA49-4622-9726-B3A5CB965CC8}" name="Column6"/>
+    <tableColumn id="13" xr3:uid="{696327AA-3518-4994-BA3D-7515992A7641}" name="Column7"/>
+    <tableColumn id="14" xr3:uid="{6AD54146-B960-4C5E-9DB6-F3DB0CAAACE0}" name="Column8"/>
+    <tableColumn id="15" xr3:uid="{EE85D83F-2929-4A97-8B4F-75B321FDB4B6}" name="Column9"/>
+    <tableColumn id="16" xr3:uid="{3627664F-E9C0-43AB-BC24-6AF783A92BC5}" name="Column10"/>
+    <tableColumn id="17" xr3:uid="{56B8B592-AFAD-48CC-AC4C-C80F721B7D2E}" name="Column11"/>
+    <tableColumn id="18" xr3:uid="{615E7A3E-B05F-451E-A040-ABFCF15E4DBD}" name="Column12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F55CC327-E15B-49FD-A8D0-48E8DCA2E202}" name="Table2" displayName="Table2" ref="A1:A4" totalsRowShown="0">
   <autoFilter ref="A1:A4" xr:uid="{625CE25E-F4B4-47AF-9545-5E2E3B732498}"/>
   <tableColumns count="1">
@@ -3851,7 +4053,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{24B1097F-8F17-4E54-BDCB-4F293E4CE46B}" name="Table4" displayName="Table4" ref="C1:C8" totalsRowShown="0">
   <autoFilter ref="C1:C8" xr:uid="{6AB3AE65-9DB5-4DA4-B383-8CFF7153F508}"/>
   <tableColumns count="1">
@@ -3861,7 +4063,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8592B5D5-0084-48A4-8C72-0FDE42B50915}" name="Table5" displayName="Table5" ref="E1:E13" totalsRowShown="0">
   <autoFilter ref="E1:E13" xr:uid="{5E0E19EC-E787-4E95-B2A0-DA3101E4B9CA}"/>
   <tableColumns count="1">
@@ -3871,7 +4073,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E0C97C5F-B132-4DCF-A62A-D236753529D9}" name="Table6" displayName="Table6" ref="G1:G32" totalsRowShown="0">
   <autoFilter ref="G1:G32" xr:uid="{CB8F412D-685E-443A-B695-BC1012C614D8}"/>
   <tableColumns count="1">
@@ -4146,8 +4348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A15899E-558C-4C63-B86C-F370C964819B}">
   <dimension ref="A1:Q234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5456,6 +5658,12 @@
       <c r="A30" s="1">
         <v>1817</v>
       </c>
+      <c r="B30" s="10">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
@@ -5473,7 +5681,9 @@
         <v>105</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="1">
+        <v>4432</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
         <v>1</v>
@@ -5481,15 +5691,25 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1817---monroe.md</v>
-      </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="7"/>
+        <v>1817-12-2-monroe.md</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1818</v>
       </c>
+      <c r="B31" s="10">
+        <v>11</v>
+      </c>
+      <c r="C31" s="5">
+        <v>16</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -5507,7 +5727,9 @@
         <v>105</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1">
+        <v>4376</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
         <v>1</v>
@@ -5515,15 +5737,25 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1818---monroe.md</v>
-      </c>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="7"/>
+        <v>1818-11-16-monroe.md</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1819</v>
       </c>
+      <c r="B32" s="10">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5">
+        <v>7</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>27</v>
       </c>
@@ -5541,7 +5773,9 @@
         <v>105</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="1">
+        <v>4709</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
         <v>1</v>
@@ -5549,15 +5783,25 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1819---monroe.md</v>
-      </c>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="7"/>
+        <v>1819-12-7-monroe.md</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1820</v>
       </c>
+      <c r="B33" s="10">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5">
+        <v>14</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>27</v>
       </c>
@@ -5575,7 +5819,9 @@
         <v>105</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1">
+        <v>3462</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
         <v>1</v>
@@ -5583,15 +5829,25 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1820---monroe.md</v>
-      </c>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="7"/>
+        <v>1820-11-14-monroe.md</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1821</v>
       </c>
+      <c r="B34" s="10">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
@@ -5609,7 +5865,9 @@
         <v>105</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="1">
+        <v>5856</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
         <v>2</v>
@@ -5617,15 +5875,25 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1821---monroe.md</v>
-      </c>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="7"/>
+        <v>1821-12-3-monroe.md</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1822</v>
       </c>
+      <c r="B35" s="10">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
@@ -5643,7 +5911,9 @@
         <v>105</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1">
+        <v>4760</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
         <v>2</v>
@@ -5651,15 +5921,25 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1822---monroe.md</v>
-      </c>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="7"/>
+        <v>1822-12-3-monroe.md</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1823</v>
       </c>
+      <c r="B36" s="10">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>27</v>
       </c>
@@ -5677,7 +5957,9 @@
         <v>105</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="1">
+        <v>6426</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
         <v>2</v>
@@ -5685,15 +5967,25 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1823---monroe.md</v>
-      </c>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="7"/>
+        <v>1823-12-2-monroe.md</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1824</v>
       </c>
+      <c r="B37" s="10">
+        <v>12</v>
+      </c>
+      <c r="C37" s="5">
+        <v>7</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>27</v>
       </c>
@@ -5711,7 +6003,9 @@
         <v>105</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="1">
+        <v>8433</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
         <v>2</v>
@@ -5719,15 +6013,25 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1824---monroe.md</v>
-      </c>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="7"/>
+        <v>1824-12-7-monroe.md</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1825</v>
       </c>
+      <c r="B38" s="10">
+        <v>12</v>
+      </c>
+      <c r="C38" s="5">
+        <v>6</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>21</v>
       </c>
@@ -5745,21 +6049,35 @@
         <v>105</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="1">
+        <v>9089</v>
+      </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1825---adams.md</v>
-      </c>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="7"/>
+        <f>(A38&amp;"-"&amp;B38&amp;"-"&amp;C38&amp;"-"&amp;LOWER(D38)&amp;".md")</f>
+        <v>1825-12-6-adams.md</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1826</v>
       </c>
+      <c r="B39" s="10">
+        <v>12</v>
+      </c>
+      <c r="C39" s="5">
+        <v>5</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>21</v>
       </c>
@@ -5777,21 +6095,35 @@
         <v>105</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="K39" s="1">
+        <v>7836</v>
+      </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1826---adams.md</v>
-      </c>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="7"/>
+        <v>1826-12-5-adams.md</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1827</v>
       </c>
+      <c r="B40" s="10">
+        <v>12</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4</v>
+      </c>
       <c r="D40" s="1" t="s">
         <v>21</v>
       </c>
@@ -5809,21 +6141,35 @@
         <v>105</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="1">
+        <v>7056</v>
+      </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1827---adams.md</v>
-      </c>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="7"/>
+        <v>1827-12-4-adams.md</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1828</v>
       </c>
+      <c r="B41" s="10">
+        <v>12</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
       <c r="D41" s="1" t="s">
         <v>21</v>
       </c>
@@ -5841,16 +6187,24 @@
         <v>105</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="1">
+        <v>7397</v>
+      </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1828---adams.md</v>
-      </c>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="7"/>
+        <v>1828-12-2-adams.md</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -12099,6 +12453,371 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204DACE3-D984-409C-96B6-E9135BF03C4B}">
+  <dimension ref="A1:R46"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EBFBCF-E6C2-4EF0-9842-2DFDC52BE682}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -12133,7 +12852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DDDDA2-CD65-4F05-8376-3F7C0FDAE546}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -12198,7 +12917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887AFE17-B40D-4762-857E-C576C1EBAB51}">
   <dimension ref="A1:G32"/>
   <sheetViews>

--- a/master-index.xlsx
+++ b/master-index.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16848D0A-5B4D-4BA2-9A15-7DC8150540FD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4535C22-0ADA-44CC-9A7F-C746F622996D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="198">
   <si>
     <t>potusLastName</t>
   </si>
@@ -578,6 +578,55 @@
   </si>
   <si>
     <t xml:space="preserve">signed "JOHN QUINCY ADAMS" (omitted from file) APP Note: There is a small error in the original document. The word "department" has been changed to "kept" which makes the statement clear. We thank Dr. Daniel W. Stowell, Independent Researcher, for his assistance identifying this error. </t>
+  </si>
+  <si>
+    <t>Begins with the words "The President." in italics, omitted from .md file.  NOTE: The President spoke at 9:15 p.m. in the House Chamber of the U.S. Capitol. In his remarks, he referred to Jill T. Biden, wife of Vice President Joe Biden; Mary T. Barra, chief executive officer, General Motors Company; Andra M. Rush, president and chief executive officer, Detroit Manufacturing Systems; Oak Park, IL, resident Misty DeMars and her husband, Leighton Taylor; Estiven Rodriguez, student, Washington Heights Expeditionary Learning School in New York City; Gilbert, AZ, resident Amanda Shelley; former White House Counsel Robert F. Bauer and Benjamin L. Ginsberg, partner, Patton Boggs LLP, in their capacity as Cochairs of the Presidential Commission on Election Administration; and 2012 Republican Presidential nominee W. Mitt Romney.</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:15 p.m. in the House Chamber of the U.S. Capitol. In his remarks, he referred to Erskine B. Bowles and Alan K. Simpson, Cochairs, National Commission on Fiscal Responsibility and Reform; former Sen. Joseph I. Lieberman; Eric A. Spiegel, president and chief executive officer, Siemens Corporation; W. Mitt Romney, 2012 Republican Presidential nominee; Member of Parliament and Leader of the National League for Democracy Party Aung San Suu Kyi of Burma; Jill T. Biden, wife of Vice President Joe Biden; former White House Counsel Robert Bauer and Benjamin L. Ginsberg, partner, Patton Boggs LLP, in their capacity as Cochairs of the Presidential Commission on Election Administration; former Rep. Gabrielle D. Giffords; Menchu de Luna Sanchez, registered nurse, New York University Langone Medical Center; and Lt. Brian Murphy, Oak Creek Police Department in Oak Creek, WI. He also referred to H.R. 11.</t>
+  </si>
+  <si>
+    <t>Barack Obama, Address Before a Joint Session of Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/303424</t>
+  </si>
+  <si>
+    <t>Barack Obama, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/305034</t>
+  </si>
+  <si>
+    <t>Barack Obama, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/289120</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9:12 p.m. in the House Chamber of the U.S. Capitol. In his remarks, he referred to Robert and Gary Allen, cofounders, Luma Resources in Rochester Hills, MI; Kristin Waters, principal, Bruce Randolph High School in Denver, CO; and Tom Foy, employee, Center Rock Inc. in Berlin, PA.
+* White House correction.</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9:11 p.m. in the House Chamber of the U.S. Capitol. The Office of the Press Secretary also released a Spanish language transcript of this address.</t>
+  </si>
+  <si>
+    <t>Barack Obama, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/287936</t>
+  </si>
+  <si>
+    <t>Barack Obama, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/299426</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9:10 p.m. in the House Chamber of the U.S. Capitol. In his remarks, he referred to John Heppner, president and chief executive officer, Master Lock Co.; former President George W. Bush; Richard A. Cordray, Director, Consumer Financial Protection Bureau; Warren E. Buffett, chief executive officer and chairman, and Debbie Bosanek, assistant, Berkshire Hathaway Inc.; President Bashar al-Asad of Syria; and Jill T. Biden, wife of Vice President Joe Biden.</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9:16 p.m. in the House Chamber of the U.S. Capitol. In his remarks, he referred to Interior Department Inspector General Earl E. Devaney, Chair, Recovery Accountability and Transparency Board; and U.S. Special Envoy for Middle East Peace George J. Mitchell. The Office of the Press Secretary also released a Spanish language transcript of these remarks.</t>
+  </si>
+  <si>
+    <t>Barack Obama, Address Before a Joint Session of the Congress Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/286218</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:10 p.m. in the House Chamber of the U.S. Capitol. In his remarks, he referred to Speaker of the House of Representatives Paul D. Ryan; Katherine G. Johnson, former physicist and research mathematician, National Aeronautics and Space Administration; and Ahmed Abu Khattala, suspected perpetrator of the terrorist attacks on the U.S. mission in Benghazi, Libya, on September 11, 2012. He also referred to the Islamic State of Iraq and the Levant (ISIL) terrorist organization. The Office of the Press Secretary also released a Spanish language transcript of these remarks.</t>
+  </si>
+  <si>
+    <t>Barack Obama, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/313186</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:09 p.m. in the House Chamber of the U.S. Capitol. In his remarks, he referred to Speaker of the House of Representatives Paul D. Ryan; Vice President Michael R. Pence; Acting Director of National Intelligence Michael P. Dempsey; Pedro Espinoza, who was convicted in the March 2, 2008, shooting death of Jamiel A. Shaw, Jr. in Los Angeles, CA; Luis Enrique Monroy Bracamontes, suspected gunman in the October 24, 2014, shooting deaths of Deputy Sheriff Danny P. Oliver and Detective Michael D. Davis, Jr. in Sacramento, CA; and Secretary of Defense James N. Mattis. He also referred to the Islamic State of Iraq and Syria (ISIS) terrorist organization.</t>
+  </si>
+  <si>
+    <t>Donald J. Trump, Address Before a Joint Session of the Congress Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/323680</t>
   </si>
 </sst>
 </file>
@@ -588,7 +637,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +673,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -662,14 +718,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -677,6 +730,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -685,7 +740,7 @@
   <dxfs count="21">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -700,6 +755,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -756,7 +820,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -771,16 +835,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2602,6 +2656,33 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>7397</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6199</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>7486</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>7113</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>7270</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>7013</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>7263</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>7004</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>6282</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>5089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4006,10 +4087,10 @@
     <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="6"/>
     <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="5"/>
     <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="3">
+    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="2">
       <calculatedColumnFormula>(A2&amp;"-"&amp;B2&amp;"-"&amp;C2&amp;"-"&amp;LOWER(D2)&amp;".md")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="0"/>
     <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4017,7 +4098,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2165DEDF-1AB7-4B84-9632-A614CDA07411}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2165DEDF-1AB7-4B84-9632-A614CDA07411}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:R46" xr:uid="{AE285793-CB7D-40A8-B930-00C5755BFACC}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6244E28B-E0F1-47FA-8860-B6D17C3A5B62}" name="#"/>
@@ -4348,15 +4429,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A15899E-558C-4C63-B86C-F370C964819B}">
   <dimension ref="A1:Q234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="Q236" sqref="Q236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="7.140625" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" customWidth="1"/>
@@ -4370,17 +4451,17 @@
     <col min="14" max="14" width="4.85546875" customWidth="1"/>
     <col min="15" max="15" width="26.28515625" customWidth="1"/>
     <col min="16" max="16" width="25.28515625" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4422,7 +4503,7 @@
       <c r="P1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4430,10 +4511,10 @@
       <c r="A2" s="1">
         <v>1790</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4465,17 +4546,17 @@
         <f>(A2&amp;"-"&amp;B2&amp;"-"&amp;C2&amp;"-"&amp;LOWER(D2)&amp;".md")</f>
         <v>1790-1-8-washington.md</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="7"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1790</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>12</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4507,17 +4588,17 @@
         <f t="shared" ref="O3:O66" si="0">(A3&amp;"-"&amp;B3&amp;"-"&amp;C3&amp;"-"&amp;LOWER(D3)&amp;".md")</f>
         <v>1790-12-8-washington.md</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="7"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1791</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>10</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -4549,17 +4630,17 @@
         <f t="shared" si="0"/>
         <v>1791-10-25-washington.md</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="7"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1792</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -4591,17 +4672,17 @@
         <f t="shared" si="0"/>
         <v>1792-11-6-washington.md</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="7"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1793</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>12</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -4633,17 +4714,17 @@
         <f t="shared" si="0"/>
         <v>1793-12-3-washington.md</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="7"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1794</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>11</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -4675,17 +4756,17 @@
         <f t="shared" si="0"/>
         <v>1794-11-19-washington.md</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="7"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1795</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -4717,17 +4798,17 @@
         <f t="shared" si="0"/>
         <v>1795-12-8-washington.md</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="7"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1796</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>12</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -4759,17 +4840,17 @@
         <f t="shared" si="0"/>
         <v>1796-12-7-washington.md</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="7"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1797</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>11</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -4801,17 +4882,17 @@
         <f t="shared" si="0"/>
         <v>1797-11-22-adams.md</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="7"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1798</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>12</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -4843,17 +4924,17 @@
         <f t="shared" si="0"/>
         <v>1798-12-8-adams.md</v>
       </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="7"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1799</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>12</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -4885,17 +4966,17 @@
         <f t="shared" si="0"/>
         <v>1799-12-3-adams.md</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="7"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1800</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -4927,17 +5008,17 @@
         <f t="shared" si="0"/>
         <v>1800-11-22-adams.md</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="7"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1801</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -4969,17 +5050,17 @@
         <f t="shared" si="0"/>
         <v>1801-12-8-jefferson.md</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="7"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1802</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>12</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -5011,17 +5092,17 @@
         <f t="shared" si="0"/>
         <v>1802-12-15-jefferson.md</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="7"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1803</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>10</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -5053,17 +5134,17 @@
         <f t="shared" si="0"/>
         <v>1803-10-17-jefferson.md</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="7"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1804</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>11</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -5095,10 +5176,10 @@
         <f t="shared" si="0"/>
         <v>1804-11-8-jefferson.md</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="7" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5106,10 +5187,10 @@
       <c r="A18" s="1">
         <v>1805</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>12</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -5141,10 +5222,10 @@
         <f t="shared" si="0"/>
         <v>1805-12-3-jefferson.md</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5152,10 +5233,10 @@
       <c r="A19" s="1">
         <v>1806</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>12</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -5187,10 +5268,10 @@
         <f t="shared" si="0"/>
         <v>1806-12-2-jefferson.md</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5198,10 +5279,10 @@
       <c r="A20" s="1">
         <v>1807</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>10</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -5233,10 +5314,10 @@
         <f t="shared" si="0"/>
         <v>1807-10-27-jefferson.md</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5244,10 +5325,10 @@
       <c r="A21" s="1">
         <v>1808</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>11</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -5279,10 +5360,10 @@
         <f t="shared" si="0"/>
         <v>1808-11-8-jefferson.md</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q21" s="7" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5290,10 +5371,10 @@
       <c r="A22" s="1">
         <v>1809</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>11</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -5325,10 +5406,10 @@
         <f t="shared" si="0"/>
         <v>1809-11-29-madison.md</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5336,10 +5417,10 @@
       <c r="A23" s="1">
         <v>1810</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>12</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -5371,10 +5452,10 @@
         <f t="shared" si="0"/>
         <v>1810-12-5-madison.md</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="7" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5382,10 +5463,10 @@
       <c r="A24" s="1">
         <v>1811</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -5417,10 +5498,10 @@
         <f t="shared" si="0"/>
         <v>1811-11-5-madison.md</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="7" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5428,10 +5509,10 @@
       <c r="A25" s="1">
         <v>1812</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>11</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -5463,10 +5544,10 @@
         <f t="shared" si="0"/>
         <v>1812-11-4-madison.md</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="P25" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="Q25" s="7" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5474,10 +5555,10 @@
       <c r="A26" s="1">
         <v>1813</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>12</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -5509,7 +5590,7 @@
         <f t="shared" si="0"/>
         <v>1813-12-7-madison.md</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="P26" s="6" t="s">
         <v>136</v>
       </c>
       <c r="Q26" s="3" t="s">
@@ -5520,10 +5601,10 @@
       <c r="A27" s="1">
         <v>1814</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>9</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -5555,7 +5636,7 @@
         <f t="shared" si="0"/>
         <v>1814-9-20-madison.md</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="P27" s="6" t="s">
         <v>136</v>
       </c>
       <c r="Q27" s="3" t="s">
@@ -5566,10 +5647,10 @@
       <c r="A28" s="1">
         <v>1815</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>12</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -5601,7 +5682,7 @@
         <f t="shared" si="0"/>
         <v>1815-12-5-madison.md</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" s="6" t="s">
         <v>136</v>
       </c>
       <c r="Q28" s="3" t="s">
@@ -5612,10 +5693,10 @@
       <c r="A29" s="1">
         <v>1816</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>12</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -5647,7 +5728,7 @@
         <f t="shared" si="0"/>
         <v>1816-12-3-madison.md</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" s="6" t="s">
         <v>136</v>
       </c>
       <c r="Q29" s="3" t="s">
@@ -5658,10 +5739,10 @@
       <c r="A30" s="1">
         <v>1817</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>12</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -5693,7 +5774,7 @@
         <f t="shared" si="0"/>
         <v>1817-12-2-monroe.md</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P30" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q30" s="3" t="s">
@@ -5704,10 +5785,10 @@
       <c r="A31" s="1">
         <v>1818</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -5739,7 +5820,7 @@
         <f t="shared" si="0"/>
         <v>1818-11-16-monroe.md</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P31" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q31" s="3" t="s">
@@ -5750,10 +5831,10 @@
       <c r="A32" s="1">
         <v>1819</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>12</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -5785,7 +5866,7 @@
         <f t="shared" si="0"/>
         <v>1819-12-7-monroe.md</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="P32" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q32" s="3" t="s">
@@ -5796,10 +5877,10 @@
       <c r="A33" s="1">
         <v>1820</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>11</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -5831,7 +5912,7 @@
         <f t="shared" si="0"/>
         <v>1820-11-14-monroe.md</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P33" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q33" s="3" t="s">
@@ -5842,10 +5923,10 @@
       <c r="A34" s="1">
         <v>1821</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>12</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -5877,7 +5958,7 @@
         <f t="shared" si="0"/>
         <v>1821-12-3-monroe.md</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="P34" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q34" s="3" t="s">
@@ -5888,10 +5969,10 @@
       <c r="A35" s="1">
         <v>1822</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>12</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -5923,7 +6004,7 @@
         <f t="shared" si="0"/>
         <v>1822-12-3-monroe.md</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="P35" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q35" s="3" t="s">
@@ -5934,10 +6015,10 @@
       <c r="A36" s="1">
         <v>1823</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>12</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -5969,7 +6050,7 @@
         <f t="shared" si="0"/>
         <v>1823-12-2-monroe.md</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q36" s="3" t="s">
@@ -5980,10 +6061,10 @@
       <c r="A37" s="1">
         <v>1824</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>12</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -6015,7 +6096,7 @@
         <f t="shared" si="0"/>
         <v>1824-12-7-monroe.md</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="P37" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q37" s="3" t="s">
@@ -6026,10 +6107,10 @@
       <c r="A38" s="1">
         <v>1825</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>12</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -6061,7 +6142,7 @@
         <f>(A38&amp;"-"&amp;B38&amp;"-"&amp;C38&amp;"-"&amp;LOWER(D38)&amp;".md")</f>
         <v>1825-12-6-adams.md</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="P38" s="6" t="s">
         <v>147</v>
       </c>
       <c r="Q38" s="3" t="s">
@@ -6072,10 +6153,10 @@
       <c r="A39" s="1">
         <v>1826</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>12</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -6107,7 +6188,7 @@
         <f t="shared" si="0"/>
         <v>1826-12-5-adams.md</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="P39" s="6" t="s">
         <v>147</v>
       </c>
       <c r="Q39" s="3" t="s">
@@ -6118,10 +6199,10 @@
       <c r="A40" s="1">
         <v>1827</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>12</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -6153,7 +6234,7 @@
         <f t="shared" si="0"/>
         <v>1827-12-4-adams.md</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="P40" s="6" t="s">
         <v>178</v>
       </c>
       <c r="Q40" s="3" t="s">
@@ -6164,10 +6245,10 @@
       <c r="A41" s="1">
         <v>1828</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>12</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -6199,7 +6280,7 @@
         <f t="shared" si="0"/>
         <v>1828-12-2-adams.md</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="P41" s="6" t="s">
         <v>181</v>
       </c>
       <c r="Q41" s="3" t="s">
@@ -6235,8 +6316,8 @@
         <f t="shared" si="0"/>
         <v>1829---jackson.md</v>
       </c>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="7"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -6267,8 +6348,8 @@
         <f t="shared" si="0"/>
         <v>1830---jackson.md</v>
       </c>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="7"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -6299,8 +6380,8 @@
         <f t="shared" si="0"/>
         <v>1831---jackson.md</v>
       </c>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="7"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -6331,8 +6412,8 @@
         <f t="shared" si="0"/>
         <v>1832---jackson.md</v>
       </c>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="7"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -6363,8 +6444,8 @@
         <f t="shared" si="0"/>
         <v>1833---jackson.md</v>
       </c>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="7"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -6395,8 +6476,8 @@
         <f t="shared" si="0"/>
         <v>1834---jackson.md</v>
       </c>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="7"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -6427,8 +6508,8 @@
         <f t="shared" si="0"/>
         <v>1835---jackson.md</v>
       </c>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="7"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -6459,8 +6540,8 @@
         <f t="shared" si="0"/>
         <v>1836---jackson.md</v>
       </c>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="7"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -6491,8 +6572,8 @@
         <f t="shared" si="0"/>
         <v>1837---van buren.md</v>
       </c>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="7"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -6523,8 +6604,8 @@
         <f t="shared" si="0"/>
         <v>1838---van buren.md</v>
       </c>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="7"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
@@ -6555,8 +6636,8 @@
         <f t="shared" si="0"/>
         <v>1839---van buren.md</v>
       </c>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="7"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -6587,8 +6668,8 @@
         <f t="shared" si="0"/>
         <v>1840---van buren.md</v>
       </c>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="7"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -6621,8 +6702,8 @@
         <f t="shared" si="0"/>
         <v>1841---tyler.md</v>
       </c>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="7"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -6655,8 +6736,8 @@
         <f t="shared" si="0"/>
         <v>1842---tyler.md</v>
       </c>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="7"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -6689,8 +6770,8 @@
         <f t="shared" si="0"/>
         <v>1843---tyler.md</v>
       </c>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="7"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -6723,8 +6804,8 @@
         <f t="shared" si="0"/>
         <v>1844---tyler.md</v>
       </c>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="7"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -6755,8 +6836,8 @@
         <f t="shared" si="0"/>
         <v>1845---polk.md</v>
       </c>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="7"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -6787,8 +6868,8 @@
         <f t="shared" si="0"/>
         <v>1846---polk.md</v>
       </c>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="7"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
@@ -6819,8 +6900,8 @@
         <f t="shared" si="0"/>
         <v>1847---polk.md</v>
       </c>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="7"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -6851,8 +6932,8 @@
         <f t="shared" si="0"/>
         <v>1848---polk.md</v>
       </c>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="7"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -6883,8 +6964,8 @@
         <f t="shared" si="0"/>
         <v>1849---taylor.md</v>
       </c>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="7"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -6915,8 +6996,8 @@
         <f t="shared" si="0"/>
         <v>1850---fillmore.md</v>
       </c>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="7"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -6947,8 +7028,8 @@
         <f t="shared" si="0"/>
         <v>1851---fillmore.md</v>
       </c>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="7"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -6979,8 +7060,8 @@
         <f t="shared" si="0"/>
         <v>1852---fillmore.md</v>
       </c>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="7"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -7011,8 +7092,8 @@
         <f t="shared" si="0"/>
         <v>1853---pierce.md</v>
       </c>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="7"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -7043,8 +7124,8 @@
         <f t="shared" ref="O67:O130" si="1">(A67&amp;"-"&amp;B67&amp;"-"&amp;C67&amp;"-"&amp;LOWER(D67)&amp;".md")</f>
         <v>1854---pierce.md</v>
       </c>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="7"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -7075,8 +7156,8 @@
         <f t="shared" si="1"/>
         <v>1855---pierce.md</v>
       </c>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="7"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -7107,8 +7188,8 @@
         <f t="shared" si="1"/>
         <v>1856---pierce.md</v>
       </c>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="7"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
@@ -7139,8 +7220,8 @@
         <f t="shared" si="1"/>
         <v>1857---buchanan.md</v>
       </c>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="7"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -7171,8 +7252,8 @@
         <f t="shared" si="1"/>
         <v>1858---buchanan.md</v>
       </c>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="7"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -7203,8 +7284,8 @@
         <f t="shared" si="1"/>
         <v>1859---buchanan.md</v>
       </c>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="7"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -7235,8 +7316,8 @@
         <f t="shared" si="1"/>
         <v>1860---buchanan.md</v>
       </c>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="7"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -7269,8 +7350,8 @@
         <f t="shared" si="1"/>
         <v>1861---lincoln.md</v>
       </c>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="7"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -7303,8 +7384,8 @@
         <f t="shared" si="1"/>
         <v>1862---lincoln.md</v>
       </c>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="7"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -7337,8 +7418,8 @@
         <f t="shared" si="1"/>
         <v>1863---lincoln.md</v>
       </c>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="7"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -7371,8 +7452,8 @@
         <f t="shared" si="1"/>
         <v>1864---lincoln.md</v>
       </c>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="7"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -7405,8 +7486,8 @@
         <f t="shared" si="1"/>
         <v>1865---johnson.md</v>
       </c>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="7"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -7439,8 +7520,8 @@
         <f t="shared" si="1"/>
         <v>1866---johnson.md</v>
       </c>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="7"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
@@ -7473,8 +7554,8 @@
         <f t="shared" si="1"/>
         <v>1867---johnson.md</v>
       </c>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="7"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
@@ -7507,8 +7588,8 @@
         <f t="shared" si="1"/>
         <v>1868---johnson.md</v>
       </c>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="7"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
@@ -7539,8 +7620,8 @@
         <f t="shared" si="1"/>
         <v>1869---grant.md</v>
       </c>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="7"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -7571,8 +7652,8 @@
         <f t="shared" si="1"/>
         <v>1870---grant.md</v>
       </c>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="7"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -7603,8 +7684,8 @@
         <f t="shared" si="1"/>
         <v>1871---grant.md</v>
       </c>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="7"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
@@ -7635,8 +7716,8 @@
         <f t="shared" si="1"/>
         <v>1872---grant.md</v>
       </c>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="7"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
@@ -7667,8 +7748,8 @@
         <f t="shared" si="1"/>
         <v>1873---grant.md</v>
       </c>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="7"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
@@ -7699,8 +7780,8 @@
         <f t="shared" si="1"/>
         <v>1874---grant.md</v>
       </c>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="7"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
@@ -7731,8 +7812,8 @@
         <f t="shared" si="1"/>
         <v>1875---grant.md</v>
       </c>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="7"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
@@ -7763,8 +7844,8 @@
         <f t="shared" si="1"/>
         <v>1876---grant.md</v>
       </c>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="7"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -7795,8 +7876,8 @@
         <f t="shared" si="1"/>
         <v>1877---hayes.md</v>
       </c>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="7"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
@@ -7827,8 +7908,8 @@
         <f t="shared" si="1"/>
         <v>1878---hayes.md</v>
       </c>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="7"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
@@ -7859,8 +7940,8 @@
         <f t="shared" si="1"/>
         <v>1879---hayes.md</v>
       </c>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="7"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
@@ -7891,8 +7972,8 @@
         <f t="shared" si="1"/>
         <v>1880---hayes.md</v>
       </c>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="7"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
@@ -7923,8 +8004,8 @@
         <f t="shared" si="1"/>
         <v>1881---arthur.md</v>
       </c>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="7"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
@@ -7955,8 +8036,8 @@
         <f t="shared" si="1"/>
         <v>1882---arthur.md</v>
       </c>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="7"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
@@ -7987,8 +8068,8 @@
         <f t="shared" si="1"/>
         <v>1883---arthur.md</v>
       </c>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="7"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
@@ -8019,8 +8100,8 @@
         <f t="shared" si="1"/>
         <v>1884---arthur.md</v>
       </c>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="7"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
@@ -8051,8 +8132,8 @@
         <f t="shared" si="1"/>
         <v>1885---cleveland.md</v>
       </c>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="7"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
@@ -8083,8 +8164,8 @@
         <f t="shared" si="1"/>
         <v>1886---cleveland.md</v>
       </c>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="7"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
@@ -8115,8 +8196,8 @@
         <f t="shared" si="1"/>
         <v>1887---cleveland.md</v>
       </c>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="7"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
@@ -8147,8 +8228,8 @@
         <f t="shared" si="1"/>
         <v>1888---cleveland.md</v>
       </c>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="7"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
@@ -8179,8 +8260,8 @@
         <f t="shared" si="1"/>
         <v>1889---harrison.md</v>
       </c>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="7"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
@@ -8211,8 +8292,8 @@
         <f t="shared" si="1"/>
         <v>1890---harrison.md</v>
       </c>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="7"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -8243,8 +8324,8 @@
         <f t="shared" si="1"/>
         <v>1891---harrison.md</v>
       </c>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="7"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -8275,8 +8356,8 @@
         <f t="shared" si="1"/>
         <v>1892---harrison.md</v>
       </c>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="7"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
@@ -8307,8 +8388,8 @@
         <f t="shared" si="1"/>
         <v>1893---cleveland.md</v>
       </c>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="7"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
@@ -8339,8 +8420,8 @@
         <f t="shared" si="1"/>
         <v>1894---cleveland.md</v>
       </c>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="7"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
@@ -8371,8 +8452,8 @@
         <f t="shared" si="1"/>
         <v>1895---cleveland.md</v>
       </c>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="7"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
@@ -8403,8 +8484,8 @@
         <f t="shared" si="1"/>
         <v>1896---cleveland.md</v>
       </c>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="7"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
@@ -8435,8 +8516,8 @@
         <f t="shared" si="1"/>
         <v>1897---mckinley.md</v>
       </c>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="7"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
@@ -8467,8 +8548,8 @@
         <f t="shared" si="1"/>
         <v>1898---mckinley.md</v>
       </c>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="7"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
@@ -8499,8 +8580,8 @@
         <f t="shared" si="1"/>
         <v>1899---mckinley.md</v>
       </c>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="7"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -8531,8 +8612,8 @@
         <f t="shared" si="1"/>
         <v>1900---mckinley.md</v>
       </c>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="7"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -8563,8 +8644,8 @@
         <f t="shared" si="1"/>
         <v>1901---roosevelt.md</v>
       </c>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="7"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
@@ -8595,8 +8676,8 @@
         <f t="shared" si="1"/>
         <v>1902---roosevelt.md</v>
       </c>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="7"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -8627,8 +8708,8 @@
         <f t="shared" si="1"/>
         <v>1903---roosevelt.md</v>
       </c>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="7"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
@@ -8659,8 +8740,8 @@
         <f t="shared" si="1"/>
         <v>1904---roosevelt.md</v>
       </c>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="7"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
@@ -8691,8 +8772,8 @@
         <f t="shared" si="1"/>
         <v>1905---roosevelt.md</v>
       </c>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="7"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
@@ -8723,8 +8804,8 @@
         <f t="shared" si="1"/>
         <v>1906---roosevelt.md</v>
       </c>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="7"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -8755,8 +8836,8 @@
         <f t="shared" si="1"/>
         <v>1907---roosevelt.md</v>
       </c>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="7"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -8787,8 +8868,8 @@
         <f t="shared" si="1"/>
         <v>1908---roosevelt.md</v>
       </c>
-      <c r="P121" s="1"/>
-      <c r="Q121" s="7"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -8819,8 +8900,8 @@
         <f t="shared" si="1"/>
         <v>1909---taft.md</v>
       </c>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="7"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
@@ -8851,8 +8932,8 @@
         <f t="shared" si="1"/>
         <v>1910---taft.md</v>
       </c>
-      <c r="P123" s="1"/>
-      <c r="Q123" s="7"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
@@ -8883,8 +8964,8 @@
         <f t="shared" si="1"/>
         <v>1911---taft.md</v>
       </c>
-      <c r="P124" s="1"/>
-      <c r="Q124" s="7"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
@@ -8915,8 +8996,8 @@
         <f t="shared" si="1"/>
         <v>1912---taft.md</v>
       </c>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="7"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -8947,8 +9028,8 @@
         <f t="shared" si="1"/>
         <v>1913---wilson.md</v>
       </c>
-      <c r="P126" s="1"/>
-      <c r="Q126" s="7"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="6"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
@@ -8979,8 +9060,8 @@
         <f t="shared" si="1"/>
         <v>1914---wilson.md</v>
       </c>
-      <c r="P127" s="1"/>
-      <c r="Q127" s="7"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
@@ -9011,8 +9092,8 @@
         <f t="shared" si="1"/>
         <v>1915---wilson.md</v>
       </c>
-      <c r="P128" s="1"/>
-      <c r="Q128" s="7"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
@@ -9043,8 +9124,8 @@
         <f t="shared" si="1"/>
         <v>1916---wilson.md</v>
       </c>
-      <c r="P129" s="1"/>
-      <c r="Q129" s="7"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
@@ -9075,8 +9156,8 @@
         <f t="shared" si="1"/>
         <v>1917---wilson.md</v>
       </c>
-      <c r="P130" s="1"/>
-      <c r="Q130" s="7"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
@@ -9107,8 +9188,8 @@
         <f t="shared" ref="O131:O194" si="2">(A131&amp;"-"&amp;B131&amp;"-"&amp;C131&amp;"-"&amp;LOWER(D131)&amp;".md")</f>
         <v>1918---wilson.md</v>
       </c>
-      <c r="P131" s="1"/>
-      <c r="Q131" s="7"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
@@ -9139,8 +9220,8 @@
         <f t="shared" si="2"/>
         <v>1919---wilson.md</v>
       </c>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="7"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
@@ -9171,8 +9252,8 @@
         <f t="shared" si="2"/>
         <v>1920---wilson.md</v>
       </c>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="7"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
@@ -9203,8 +9284,8 @@
         <f t="shared" si="2"/>
         <v>1921---harding.md</v>
       </c>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="7"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
@@ -9235,8 +9316,8 @@
         <f t="shared" si="2"/>
         <v>1922---harding.md</v>
       </c>
-      <c r="P135" s="1"/>
-      <c r="Q135" s="7"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
@@ -9267,8 +9348,8 @@
         <f t="shared" si="2"/>
         <v>1923---coolidge.md</v>
       </c>
-      <c r="P136" s="1"/>
-      <c r="Q136" s="7"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -9299,8 +9380,8 @@
         <f t="shared" si="2"/>
         <v>1924---coolidge.md</v>
       </c>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="7"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
@@ -9331,8 +9412,8 @@
         <f t="shared" si="2"/>
         <v>1925---coolidge.md</v>
       </c>
-      <c r="P138" s="1"/>
-      <c r="Q138" s="7"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
@@ -9363,8 +9444,8 @@
         <f t="shared" si="2"/>
         <v>1926---coolidge.md</v>
       </c>
-      <c r="P139" s="1"/>
-      <c r="Q139" s="7"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
@@ -9395,8 +9476,8 @@
         <f t="shared" si="2"/>
         <v>1927---coolidge.md</v>
       </c>
-      <c r="P140" s="1"/>
-      <c r="Q140" s="7"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -9427,8 +9508,8 @@
         <f t="shared" si="2"/>
         <v>1928---coolidge.md</v>
       </c>
-      <c r="P141" s="1"/>
-      <c r="Q141" s="7"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
@@ -9459,8 +9540,8 @@
         <f t="shared" si="2"/>
         <v>1929---hoover.md</v>
       </c>
-      <c r="P142" s="1"/>
-      <c r="Q142" s="7"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -9491,8 +9572,8 @@
         <f t="shared" si="2"/>
         <v>1930---hoover.md</v>
       </c>
-      <c r="P143" s="1"/>
-      <c r="Q143" s="7"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -9523,8 +9604,8 @@
         <f t="shared" si="2"/>
         <v>1931---hoover.md</v>
       </c>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="7"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
@@ -9555,8 +9636,8 @@
         <f t="shared" si="2"/>
         <v>1932---hoover.md</v>
       </c>
-      <c r="P145" s="1"/>
-      <c r="Q145" s="7"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -9587,8 +9668,8 @@
         <f t="shared" si="2"/>
         <v>1934---roosevelt.md</v>
       </c>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="7"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
@@ -9619,8 +9700,8 @@
         <f t="shared" si="2"/>
         <v>1935---roosevelt.md</v>
       </c>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="7"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
@@ -9651,8 +9732,8 @@
         <f t="shared" si="2"/>
         <v>1936---roosevelt.md</v>
       </c>
-      <c r="P148" s="1"/>
-      <c r="Q148" s="7"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
@@ -9683,8 +9764,8 @@
         <f t="shared" si="2"/>
         <v>1937---roosevelt.md</v>
       </c>
-      <c r="P149" s="1"/>
-      <c r="Q149" s="7"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
@@ -9715,8 +9796,8 @@
         <f t="shared" si="2"/>
         <v>1938---roosevelt.md</v>
       </c>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="7"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
@@ -9747,8 +9828,8 @@
         <f t="shared" si="2"/>
         <v>1939---roosevelt.md</v>
       </c>
-      <c r="P151" s="1"/>
-      <c r="Q151" s="7"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -9779,8 +9860,8 @@
         <f t="shared" si="2"/>
         <v>1940---roosevelt.md</v>
       </c>
-      <c r="P152" s="1"/>
-      <c r="Q152" s="7"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="6"/>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -9811,8 +9892,8 @@
         <f t="shared" si="2"/>
         <v>1941---roosevelt.md</v>
       </c>
-      <c r="P153" s="1"/>
-      <c r="Q153" s="7"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
@@ -9843,8 +9924,8 @@
         <f t="shared" si="2"/>
         <v>1942---roosevelt.md</v>
       </c>
-      <c r="P154" s="1"/>
-      <c r="Q154" s="7"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
@@ -9875,8 +9956,8 @@
         <f t="shared" si="2"/>
         <v>1943---roosevelt.md</v>
       </c>
-      <c r="P155" s="1"/>
-      <c r="Q155" s="7"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
@@ -9907,8 +9988,8 @@
         <f t="shared" si="2"/>
         <v>1944---roosevelt.md</v>
       </c>
-      <c r="P156" s="1"/>
-      <c r="Q156" s="7"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
@@ -9941,8 +10022,8 @@
         <f t="shared" si="2"/>
         <v>1945---roosevelt.md</v>
       </c>
-      <c r="P157" s="1"/>
-      <c r="Q157" s="7"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
@@ -9973,8 +10054,8 @@
         <f t="shared" si="2"/>
         <v>1946---truman.md</v>
       </c>
-      <c r="P158" s="1"/>
-      <c r="Q158" s="7"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -10005,8 +10086,8 @@
         <f t="shared" si="2"/>
         <v>1947---truman.md</v>
       </c>
-      <c r="P159" s="1"/>
-      <c r="Q159" s="7"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -10037,8 +10118,8 @@
         <f t="shared" si="2"/>
         <v>1948---truman.md</v>
       </c>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="7"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
@@ -10069,8 +10150,8 @@
         <f t="shared" si="2"/>
         <v>1949---truman.md</v>
       </c>
-      <c r="P161" s="1"/>
-      <c r="Q161" s="7"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
@@ -10101,8 +10182,8 @@
         <f t="shared" si="2"/>
         <v>1950---truman.md</v>
       </c>
-      <c r="P162" s="1"/>
-      <c r="Q162" s="7"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
@@ -10133,8 +10214,8 @@
         <f t="shared" si="2"/>
         <v>1951---truman.md</v>
       </c>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="7"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
@@ -10165,8 +10246,8 @@
         <f t="shared" si="2"/>
         <v>1952---truman.md</v>
       </c>
-      <c r="P164" s="1"/>
-      <c r="Q164" s="7"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
@@ -10197,8 +10278,8 @@
         <f t="shared" si="2"/>
         <v>1953---truman.md</v>
       </c>
-      <c r="P165" s="1"/>
-      <c r="Q165" s="7"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
@@ -10227,8 +10308,8 @@
         <f t="shared" si="2"/>
         <v>1953---eisenhower.md</v>
       </c>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="7"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
@@ -10259,8 +10340,8 @@
         <f t="shared" si="2"/>
         <v>1954---eisenhower.md</v>
       </c>
-      <c r="P167" s="1"/>
-      <c r="Q167" s="7"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
@@ -10291,8 +10372,8 @@
         <f t="shared" si="2"/>
         <v>1955---eisenhower.md</v>
       </c>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="7"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="6"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
@@ -10325,8 +10406,8 @@
         <f t="shared" si="2"/>
         <v>1956---eisenhower.md</v>
       </c>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="7"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
@@ -10357,8 +10438,8 @@
         <f t="shared" si="2"/>
         <v>1957---eisenhower.md</v>
       </c>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="7"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="6"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
@@ -10389,8 +10470,8 @@
         <f t="shared" si="2"/>
         <v>1958---eisenhower.md</v>
       </c>
-      <c r="P171" s="1"/>
-      <c r="Q171" s="7"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" s="6"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
@@ -10421,8 +10502,8 @@
         <f t="shared" si="2"/>
         <v>1959---eisenhower.md</v>
       </c>
-      <c r="P172" s="1"/>
-      <c r="Q172" s="7"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="6"/>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -10453,8 +10534,8 @@
         <f t="shared" si="2"/>
         <v>1960---eisenhower.md</v>
       </c>
-      <c r="P173" s="1"/>
-      <c r="Q173" s="7"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="6"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
@@ -10485,8 +10566,8 @@
         <f t="shared" si="2"/>
         <v>1961---eisenhower.md</v>
       </c>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="7"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
@@ -10515,8 +10596,8 @@
         <f t="shared" si="2"/>
         <v>1961---kennedy.md</v>
       </c>
-      <c r="P175" s="1"/>
-      <c r="Q175" s="7"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" s="6"/>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
@@ -10547,8 +10628,8 @@
         <f t="shared" si="2"/>
         <v>1962---kennedy.md</v>
       </c>
-      <c r="P176" s="1"/>
-      <c r="Q176" s="7"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="6"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
@@ -10579,8 +10660,8 @@
         <f t="shared" si="2"/>
         <v>1963---kennedy.md</v>
       </c>
-      <c r="P177" s="1"/>
-      <c r="Q177" s="7"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="6"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
@@ -10611,8 +10692,8 @@
         <f t="shared" si="2"/>
         <v>1964---johnson.md</v>
       </c>
-      <c r="P178" s="1"/>
-      <c r="Q178" s="7"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="6"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
@@ -10643,8 +10724,8 @@
         <f t="shared" si="2"/>
         <v>1965---johnson.md</v>
       </c>
-      <c r="P179" s="1"/>
-      <c r="Q179" s="7"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
@@ -10675,8 +10756,8 @@
         <f t="shared" si="2"/>
         <v>1966---johnson.md</v>
       </c>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="7"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="6"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
@@ -10707,8 +10788,8 @@
         <f t="shared" si="2"/>
         <v>1967---johnson.md</v>
       </c>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="7"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" s="6"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
@@ -10739,8 +10820,8 @@
         <f t="shared" si="2"/>
         <v>1968---johnson.md</v>
       </c>
-      <c r="P182" s="1"/>
-      <c r="Q182" s="7"/>
+      <c r="P182" s="6"/>
+      <c r="Q182" s="6"/>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
@@ -10771,8 +10852,8 @@
         <f t="shared" si="2"/>
         <v>1969---johnson.md</v>
       </c>
-      <c r="P183" s="1"/>
-      <c r="Q183" s="7"/>
+      <c r="P183" s="6"/>
+      <c r="Q183" s="6"/>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
@@ -10803,8 +10884,8 @@
         <f t="shared" si="2"/>
         <v>1970---nixon.md</v>
       </c>
-      <c r="P184" s="1"/>
-      <c r="Q184" s="7"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
@@ -10835,8 +10916,8 @@
         <f t="shared" si="2"/>
         <v>1971---nixon.md</v>
       </c>
-      <c r="P185" s="1"/>
-      <c r="Q185" s="7"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" s="6"/>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
@@ -10867,8 +10948,8 @@
         <f t="shared" si="2"/>
         <v>1972---nixon.md</v>
       </c>
-      <c r="P186" s="1"/>
-      <c r="Q186" s="7"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
@@ -10899,8 +10980,8 @@
         <f t="shared" si="2"/>
         <v>1972---nixon.md</v>
       </c>
-      <c r="P187" s="1"/>
-      <c r="Q187" s="7"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" s="6"/>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
@@ -10933,8 +11014,8 @@
         <f t="shared" si="2"/>
         <v>1973---nixon.md</v>
       </c>
-      <c r="P188" s="1"/>
-      <c r="Q188" s="7"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
@@ -10965,8 +11046,8 @@
         <f t="shared" si="2"/>
         <v>1974---nixon.md</v>
       </c>
-      <c r="P189" s="1"/>
-      <c r="Q189" s="7"/>
+      <c r="P189" s="6"/>
+      <c r="Q189" s="6"/>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
@@ -10997,8 +11078,8 @@
         <f t="shared" si="2"/>
         <v>1975---ford.md</v>
       </c>
-      <c r="P190" s="1"/>
-      <c r="Q190" s="7"/>
+      <c r="P190" s="6"/>
+      <c r="Q190" s="6"/>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
@@ -11029,8 +11110,8 @@
         <f t="shared" si="2"/>
         <v>1976---ford.md</v>
       </c>
-      <c r="P191" s="1"/>
-      <c r="Q191" s="7"/>
+      <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
@@ -11061,8 +11142,8 @@
         <f t="shared" si="2"/>
         <v>1977---ford.md</v>
       </c>
-      <c r="P192" s="1"/>
-      <c r="Q192" s="7"/>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="6"/>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
@@ -11093,8 +11174,8 @@
         <f t="shared" si="2"/>
         <v>1978---carter.md</v>
       </c>
-      <c r="P193" s="1"/>
-      <c r="Q193" s="7"/>
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
@@ -11125,8 +11206,8 @@
         <f t="shared" si="2"/>
         <v>1979---carter.md</v>
       </c>
-      <c r="P194" s="1"/>
-      <c r="Q194" s="7"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
@@ -11157,8 +11238,8 @@
         <f t="shared" ref="O195:O234" si="3">(A195&amp;"-"&amp;B195&amp;"-"&amp;C195&amp;"-"&amp;LOWER(D195)&amp;".md")</f>
         <v>1980---carter.md</v>
       </c>
-      <c r="P195" s="1"/>
-      <c r="Q195" s="7"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
@@ -11189,8 +11270,8 @@
         <f t="shared" si="3"/>
         <v>1981---carter.md</v>
       </c>
-      <c r="P196" s="1"/>
-      <c r="Q196" s="7"/>
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
@@ -11221,8 +11302,8 @@
         <f t="shared" si="3"/>
         <v>1981---reagan.md</v>
       </c>
-      <c r="P197" s="1"/>
-      <c r="Q197" s="7"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="6"/>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
@@ -11253,8 +11334,8 @@
         <f t="shared" si="3"/>
         <v>1982---reagan.md</v>
       </c>
-      <c r="P198" s="1"/>
-      <c r="Q198" s="7"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
@@ -11285,8 +11366,8 @@
         <f t="shared" si="3"/>
         <v>1983---reagan.md</v>
       </c>
-      <c r="P199" s="1"/>
-      <c r="Q199" s="7"/>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
@@ -11317,8 +11398,8 @@
         <f t="shared" si="3"/>
         <v>1984---reagan.md</v>
       </c>
-      <c r="P200" s="1"/>
-      <c r="Q200" s="7"/>
+      <c r="P200" s="6"/>
+      <c r="Q200" s="6"/>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
@@ -11349,8 +11430,8 @@
         <f t="shared" si="3"/>
         <v>1985---reagan.md</v>
       </c>
-      <c r="P201" s="1"/>
-      <c r="Q201" s="7"/>
+      <c r="P201" s="6"/>
+      <c r="Q201" s="6"/>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
@@ -11381,8 +11462,8 @@
         <f t="shared" si="3"/>
         <v>1986---reagan.md</v>
       </c>
-      <c r="P202" s="1"/>
-      <c r="Q202" s="7"/>
+      <c r="P202" s="6"/>
+      <c r="Q202" s="6"/>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
@@ -11413,8 +11494,8 @@
         <f t="shared" si="3"/>
         <v>1987---reagan.md</v>
       </c>
-      <c r="P203" s="1"/>
-      <c r="Q203" s="7"/>
+      <c r="P203" s="6"/>
+      <c r="Q203" s="6"/>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
@@ -11445,8 +11526,8 @@
         <f t="shared" si="3"/>
         <v>1988---reagan.md</v>
       </c>
-      <c r="P204" s="1"/>
-      <c r="Q204" s="7"/>
+      <c r="P204" s="6"/>
+      <c r="Q204" s="6"/>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
@@ -11477,8 +11558,8 @@
         <f t="shared" si="3"/>
         <v>1989---bush.md</v>
       </c>
-      <c r="P205" s="1"/>
-      <c r="Q205" s="7"/>
+      <c r="P205" s="6"/>
+      <c r="Q205" s="6"/>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
@@ -11509,8 +11590,8 @@
         <f t="shared" si="3"/>
         <v>1990---bush.md</v>
       </c>
-      <c r="P206" s="1"/>
-      <c r="Q206" s="7"/>
+      <c r="P206" s="6"/>
+      <c r="Q206" s="6"/>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
@@ -11539,8 +11620,8 @@
         <f t="shared" si="3"/>
         <v>1991---bush.md</v>
       </c>
-      <c r="P207" s="1"/>
-      <c r="Q207" s="7"/>
+      <c r="P207" s="6"/>
+      <c r="Q207" s="6"/>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
@@ -11571,8 +11652,8 @@
         <f t="shared" si="3"/>
         <v>1992---bush.md</v>
       </c>
-      <c r="P208" s="1"/>
-      <c r="Q208" s="7"/>
+      <c r="P208" s="6"/>
+      <c r="Q208" s="6"/>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
@@ -11603,8 +11684,8 @@
         <f t="shared" si="3"/>
         <v>1993---clinton.md</v>
       </c>
-      <c r="P209" s="1"/>
-      <c r="Q209" s="7"/>
+      <c r="P209" s="6"/>
+      <c r="Q209" s="6"/>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
@@ -11635,8 +11716,8 @@
         <f t="shared" si="3"/>
         <v>1994---clinton.md</v>
       </c>
-      <c r="P210" s="1"/>
-      <c r="Q210" s="7"/>
+      <c r="P210" s="6"/>
+      <c r="Q210" s="6"/>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
@@ -11667,8 +11748,8 @@
         <f t="shared" si="3"/>
         <v>1995---clinton.md</v>
       </c>
-      <c r="P211" s="1"/>
-      <c r="Q211" s="7"/>
+      <c r="P211" s="6"/>
+      <c r="Q211" s="6"/>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
@@ -11699,8 +11780,8 @@
         <f t="shared" si="3"/>
         <v>1996---clinton.md</v>
       </c>
-      <c r="P212" s="1"/>
-      <c r="Q212" s="7"/>
+      <c r="P212" s="6"/>
+      <c r="Q212" s="6"/>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
@@ -11731,8 +11812,8 @@
         <f t="shared" si="3"/>
         <v>1997---clinton.md</v>
       </c>
-      <c r="P213" s="1"/>
-      <c r="Q213" s="7"/>
+      <c r="P213" s="6"/>
+      <c r="Q213" s="6"/>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
@@ -11763,8 +11844,8 @@
         <f t="shared" si="3"/>
         <v>1998---clinton.md</v>
       </c>
-      <c r="P214" s="1"/>
-      <c r="Q214" s="7"/>
+      <c r="P214" s="6"/>
+      <c r="Q214" s="6"/>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
@@ -11795,8 +11876,8 @@
         <f t="shared" si="3"/>
         <v>1999---clinton.md</v>
       </c>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="7"/>
+      <c r="P215" s="6"/>
+      <c r="Q215" s="6"/>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
@@ -11827,8 +11908,8 @@
         <f t="shared" si="3"/>
         <v>2000---clinton.md</v>
       </c>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="7"/>
+      <c r="P216" s="6"/>
+      <c r="Q216" s="6"/>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
@@ -11859,8 +11940,8 @@
         <f t="shared" si="3"/>
         <v>2001---bush.md</v>
       </c>
-      <c r="P217" s="1"/>
-      <c r="Q217" s="7"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
@@ -11891,8 +11972,8 @@
         <f t="shared" si="3"/>
         <v>2002---bush.md</v>
       </c>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="7"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
@@ -11923,8 +12004,8 @@
         <f t="shared" si="3"/>
         <v>2003---bush.md</v>
       </c>
-      <c r="P219" s="1"/>
-      <c r="Q219" s="7"/>
+      <c r="P219" s="6"/>
+      <c r="Q219" s="6"/>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
@@ -11955,8 +12036,8 @@
         <f t="shared" si="3"/>
         <v>2004---bush.md</v>
       </c>
-      <c r="P220" s="1"/>
-      <c r="Q220" s="7"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="6"/>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
@@ -11987,8 +12068,8 @@
         <f t="shared" si="3"/>
         <v>2005---bush.md</v>
       </c>
-      <c r="P221" s="1"/>
-      <c r="Q221" s="7"/>
+      <c r="P221" s="6"/>
+      <c r="Q221" s="6"/>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
@@ -12019,8 +12100,8 @@
         <f t="shared" si="3"/>
         <v>2006---bush.md</v>
       </c>
-      <c r="P222" s="1"/>
-      <c r="Q222" s="7"/>
+      <c r="P222" s="6"/>
+      <c r="Q222" s="6"/>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
@@ -12051,8 +12132,8 @@
         <f t="shared" si="3"/>
         <v>2007---bush.md</v>
       </c>
-      <c r="P223" s="1"/>
-      <c r="Q223" s="7"/>
+      <c r="P223" s="6"/>
+      <c r="Q223" s="6"/>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
@@ -12083,13 +12164,19 @@
         <f t="shared" si="3"/>
         <v>2008---bush.md</v>
       </c>
-      <c r="P224" s="1"/>
-      <c r="Q224" s="7"/>
+      <c r="P224" s="6"/>
+      <c r="Q224" s="6"/>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2009</v>
       </c>
+      <c r="B225" s="9">
+        <v>2</v>
+      </c>
+      <c r="C225" s="4">
+        <v>24</v>
+      </c>
       <c r="D225" s="1" t="s">
         <v>10</v>
       </c>
@@ -12107,21 +12194,33 @@
         <v>106</v>
       </c>
       <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
+      <c r="K225" s="1">
+        <v>6199</v>
+      </c>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
       <c r="O225" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2009---obama.md</v>
-      </c>
-      <c r="P225" s="1"/>
-      <c r="Q225" s="7"/>
+        <v>2009-2-24-obama.md</v>
+      </c>
+      <c r="P225" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q225" s="3" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2010</v>
       </c>
+      <c r="B226" s="9">
+        <v>1</v>
+      </c>
+      <c r="C226" s="4">
+        <v>27</v>
+      </c>
       <c r="D226" s="1" t="s">
         <v>10</v>
       </c>
@@ -12139,21 +12238,33 @@
         <v>106</v>
       </c>
       <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
+      <c r="K226" s="1">
+        <v>7486</v>
+      </c>
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
       <c r="O226" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2010---obama.md</v>
-      </c>
-      <c r="P226" s="1"/>
-      <c r="Q226" s="7"/>
+        <v>2010-1-27-obama.md</v>
+      </c>
+      <c r="P226" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q226" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2011</v>
       </c>
+      <c r="B227" s="9">
+        <v>1</v>
+      </c>
+      <c r="C227" s="4">
+        <v>25</v>
+      </c>
       <c r="D227" s="1" t="s">
         <v>10</v>
       </c>
@@ -12171,21 +12282,33 @@
         <v>106</v>
       </c>
       <c r="J227" s="1"/>
-      <c r="K227" s="1"/>
+      <c r="K227" s="1">
+        <v>7113</v>
+      </c>
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
       <c r="O227" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2011---obama.md</v>
-      </c>
-      <c r="P227" s="1"/>
-      <c r="Q227" s="7"/>
+        <v>2011-1-25-obama.md</v>
+      </c>
+      <c r="P227" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q227" s="3" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2012</v>
       </c>
+      <c r="B228" s="9">
+        <v>1</v>
+      </c>
+      <c r="C228" s="4">
+        <v>24</v>
+      </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
       </c>
@@ -12203,21 +12326,33 @@
         <v>106</v>
       </c>
       <c r="J228" s="1"/>
-      <c r="K228" s="1"/>
+      <c r="K228" s="1">
+        <v>7270</v>
+      </c>
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
       <c r="O228" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2012---obama.md</v>
-      </c>
-      <c r="P228" s="1"/>
-      <c r="Q228" s="7"/>
+        <v>2012-1-24-obama.md</v>
+      </c>
+      <c r="P228" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q228" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2013</v>
       </c>
+      <c r="B229" s="9">
+        <v>2</v>
+      </c>
+      <c r="C229" s="4">
+        <v>12</v>
+      </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
       </c>
@@ -12235,21 +12370,33 @@
         <v>106</v>
       </c>
       <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
+      <c r="K229" s="1">
+        <v>7013</v>
+      </c>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
       <c r="O229" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2013---obama.md</v>
-      </c>
-      <c r="P229" s="1"/>
-      <c r="Q229" s="7"/>
+        <v>2013-2-12-obama.md</v>
+      </c>
+      <c r="P229" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q229" s="3" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2014</v>
       </c>
+      <c r="B230" s="9">
+        <v>1</v>
+      </c>
+      <c r="C230" s="4">
+        <v>28</v>
+      </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
       </c>
@@ -12267,21 +12414,33 @@
         <v>106</v>
       </c>
       <c r="J230" s="1"/>
-      <c r="K230" s="1"/>
+      <c r="K230" s="1">
+        <v>7263</v>
+      </c>
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2014---obama.md</v>
-      </c>
-      <c r="P230" s="1"/>
-      <c r="Q230" s="7"/>
-    </row>
-    <row r="231" spans="1:17" ht="270" x14ac:dyDescent="0.25">
+        <v>2014-1-28-obama.md</v>
+      </c>
+      <c r="P230" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q230" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2015</v>
       </c>
+      <c r="B231" s="9">
+        <v>1</v>
+      </c>
+      <c r="C231" s="4">
+        <v>20</v>
+      </c>
       <c r="D231" s="1" t="s">
         <v>10</v>
       </c>
@@ -12299,18 +12458,20 @@
         <v>106</v>
       </c>
       <c r="J231" s="1"/>
-      <c r="K231" s="1"/>
+      <c r="K231" s="1">
+        <v>7004</v>
+      </c>
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2015---obama.md</v>
-      </c>
-      <c r="P231" s="4" t="s">
+        <v>2015-1-20-obama.md</v>
+      </c>
+      <c r="P231" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Q231" s="8" t="s">
+      <c r="Q231" s="7" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12318,6 +12479,12 @@
       <c r="A232" s="1">
         <v>2016</v>
       </c>
+      <c r="B232" s="9">
+        <v>1</v>
+      </c>
+      <c r="C232" s="4">
+        <v>12</v>
+      </c>
       <c r="D232" s="1" t="s">
         <v>10</v>
       </c>
@@ -12335,21 +12502,33 @@
         <v>106</v>
       </c>
       <c r="J232" s="1"/>
-      <c r="K232" s="1"/>
+      <c r="K232" s="1">
+        <v>6282</v>
+      </c>
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
       <c r="O232" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2016---obama.md</v>
-      </c>
-      <c r="P232" s="1"/>
-      <c r="Q232" s="7"/>
+        <v>2016-1-12-obama.md</v>
+      </c>
+      <c r="P232" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q232" s="3" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>2017</v>
       </c>
+      <c r="B233" s="9">
+        <v>2</v>
+      </c>
+      <c r="C233" s="4">
+        <v>28</v>
+      </c>
       <c r="D233" s="1" t="s">
         <v>9</v>
       </c>
@@ -12367,16 +12546,22 @@
         <v>108</v>
       </c>
       <c r="J233" s="1"/>
-      <c r="K233" s="1"/>
+      <c r="K233" s="1">
+        <v>5089</v>
+      </c>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
       <c r="O233" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2017---trump.md</v>
-      </c>
-      <c r="P233" s="1"/>
-      <c r="Q233" s="7"/>
+        <v>2017-2-28-trump.md</v>
+      </c>
+      <c r="P233" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q233" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
@@ -12407,8 +12592,8 @@
         <f t="shared" si="3"/>
         <v>2018---trump.md</v>
       </c>
-      <c r="P234" s="1"/>
-      <c r="Q234" s="7"/>
+      <c r="P234" s="6"/>
+      <c r="Q234" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -12474,59 +12659,59 @@
     <col min="18" max="18" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>173</v>
       </c>
     </row>

--- a/master-index.xlsx
+++ b/master-index.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4535C22-0ADA-44CC-9A7F-C746F622996D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2C05C4-B563-49F1-B9BE-6A18A7F15022}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="215">
   <si>
     <t>potusLastName</t>
   </si>
@@ -627,6 +627,57 @@
   </si>
   <si>
     <t>Donald J. Trump, Address Before a Joint Session of the Congress Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/323680</t>
+  </si>
+  <si>
+    <t>1964*</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:10 p.m. in the House Chamber of the Capitol. In his remarks, he referred to Major League Baseball Hall of Fame member Yogi Berra.</t>
+  </si>
+  <si>
+    <t>George W. Bush, Address Before a Joint Session of the Congress on Administration Goals Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/211834</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:15 p.m. in the House Chamber of the Capitol. In his remarks, he referred to Corona, CA, resident Guillermo Sobero, who was kidnaped May 27, 2001, and later killed by the Abu Sayyaf terrorist group operating in the southern Philippines; President Pervez Musharraf of Pakistan; and alleged terrorist Richard C. Reid. The Office of the Press Secretary also released a Spanish language transcript of this address. The Executive order of January 29 establishing the USA Freedom Corps is listed in Appendix D at the end of this volume.</t>
+  </si>
+  <si>
+    <t>George W. Bush, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/211864</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:01 p.m. in the House Chamber of the Capitol. In his remarks, he referred to President Saddam Hussein of Iraq. The Office of the Press Secretary also released a Spanish language transcript of this address.</t>
+  </si>
+  <si>
+    <t>George W. Bush, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/211931</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:12 p.m. in the House Chamber of the Capitol. In his remarks, he referred to Khalid Sheik Mohammed, senior Al Qaida leader responsible for planning the September 11 attack, who was captured in Pakistan on March 1, 2003; Nurjaman Riduan Isamuddin (known as Hambali), Al Qaida's chief operational planner in Southeast Asia; former President Sad-dam Hussein of Iraq; and Col. Muammar Abu Minyar al-Qadhafi, leader of Libya. The Office of the Press Secretary also released a Spanish language transcript of this address.</t>
+  </si>
+  <si>
+    <t>George W. Bush, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/211969</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:10 p.m. in the House Chamber of the Capitol. In his remarks, he referred to senior Al Qaida associate Abu Musab Al Zarqawi; Prime Minister Ariel Sharon of Israel; President Mahmoud Abbas (Abu Mazen) of the Palestinian Authority; former President Saddam Hussein of Iraq; and Prime Minister Ayad Allawi of the Iraqi Interim Government. The Office of the Press Secretary also released a Spanish language transcript of this address.</t>
+  </si>
+  <si>
+    <t>George W. Bush, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/211758</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:12 p.m. in the House Chamber of the Capitol. In his remarks, he referred to Usama bin Laden, leader of the Al Qaida terrorist organization; senior Al Qaida associate Abu Musab Al Zarqawi; and President Hamid Karzai of Afghanistan. The Office of the Press Secretary also released a Spanish language transcript of this address.</t>
+  </si>
+  <si>
+    <t>George W. Bush, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/214381</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:13 p.m. in the House Chamber of the Capitol. In his remarks, he referred to John Thompson, Jr., former Georgetown University head men's basketball coach. The Office of the Press Secretary also released a Spanish language transcript of these remarks.</t>
+  </si>
+  <si>
+    <t>George W. Bush, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/269307</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:09 p.m. in the House Chamber of the U.S. Capitol. In his remarks, he referred to President Hamid Karzai of Afghanistan; Usama bin Laden, leader of the Al Qaida terrorist organization; Gen. David H. Petraeus, USA, commanding general, Multi-National Force—Iraq; President Mahmoud Abbas of the Palestinian Authority; and former Sen. Robert J. Dole and former Secretary of Health and Human Services Donna E. Shalala, Cochairs, President's Commission on Care for America's Returning Wounded Warriors. The Office of the Press Secretary also released a Spanish language transcript of this address.</t>
+  </si>
+  <si>
+    <t>George W. Bush, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/277182</t>
   </si>
 </sst>
 </file>
@@ -740,6 +791,24 @@
   <dxfs count="21">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -817,24 +886,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1599,7 +1650,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>128</c:v>
@@ -1825,10 +1876,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>master!$A$2:$A$234</c:f>
+              <c:f>master!$A$2:$A$233</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="233"/>
+                <c:ptCount val="232"/>
                 <c:pt idx="0">
                   <c:v>1790</c:v>
                 </c:pt>
@@ -2524,19 +2575,16 @@
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>master!$K$2:$K$234</c:f>
+              <c:f>master!$K$2:$K$233</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="233"/>
+                <c:ptCount val="232"/>
                 <c:pt idx="0">
                   <c:v>1089</c:v>
                 </c:pt>
@@ -2656,6 +2704,30 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>7397</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4449</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3876</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>5242</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>5114</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>5367</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>5649</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>5794</c:v>
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>6199</c:v>
@@ -4071,7 +4143,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:Q234" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:Q233" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="16"/>
@@ -4087,10 +4159,10 @@
     <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="6"/>
     <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="5"/>
     <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="2">
+    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="3">
       <calculatedColumnFormula>(A2&amp;"-"&amp;B2&amp;"-"&amp;C2&amp;"-"&amp;LOWER(D2)&amp;".md")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="2"/>
     <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4098,7 +4170,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2165DEDF-1AB7-4B84-9632-A614CDA07411}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2165DEDF-1AB7-4B84-9632-A614CDA07411}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:R46" xr:uid="{AE285793-CB7D-40A8-B930-00C5755BFACC}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6244E28B-E0F1-47FA-8860-B6D17C3A5B62}" name="#"/>
@@ -4427,10 +4499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A15899E-558C-4C63-B86C-F370C964819B}">
-  <dimension ref="A1:Q234"/>
+  <dimension ref="A1:Q233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="Q236" sqref="Q236"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="Q235" sqref="Q235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11235,7 +11307,7 @@
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
       <c r="O195" s="1" t="str">
-        <f t="shared" ref="O195:O234" si="3">(A195&amp;"-"&amp;B195&amp;"-"&amp;C195&amp;"-"&amp;LOWER(D195)&amp;".md")</f>
+        <f t="shared" ref="O195:O233" si="3">(A195&amp;"-"&amp;B195&amp;"-"&amp;C195&amp;"-"&amp;LOWER(D195)&amp;".md")</f>
         <v>1980---carter.md</v>
       </c>
       <c r="P195" s="6"/>
@@ -11915,6 +11987,12 @@
       <c r="A217" s="1">
         <v>2001</v>
       </c>
+      <c r="B217" s="9">
+        <v>2</v>
+      </c>
+      <c r="C217" s="4">
+        <v>27</v>
+      </c>
       <c r="D217" s="1" t="s">
         <v>11</v>
       </c>
@@ -11932,21 +12010,35 @@
         <v>108</v>
       </c>
       <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
+      <c r="K217" s="1">
+        <v>4449</v>
+      </c>
       <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
+      <c r="M217" s="1">
+        <v>1</v>
+      </c>
       <c r="N217" s="1"/>
       <c r="O217" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2001---bush.md</v>
-      </c>
-      <c r="P217" s="6"/>
-      <c r="Q217" s="6"/>
+        <v>2001-2-27-bush.md</v>
+      </c>
+      <c r="P217" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q217" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2002</v>
       </c>
+      <c r="B218" s="9">
+        <v>1</v>
+      </c>
+      <c r="C218" s="4">
+        <v>29</v>
+      </c>
       <c r="D218" s="1" t="s">
         <v>11</v>
       </c>
@@ -11964,21 +12056,35 @@
         <v>108</v>
       </c>
       <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
+      <c r="K218" s="1">
+        <v>3876</v>
+      </c>
       <c r="L218" s="1"/>
-      <c r="M218" s="1"/>
+      <c r="M218" s="1">
+        <v>1</v>
+      </c>
       <c r="N218" s="1"/>
       <c r="O218" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2002---bush.md</v>
-      </c>
-      <c r="P218" s="6"/>
-      <c r="Q218" s="6"/>
+        <v>2002-1-29-bush.md</v>
+      </c>
+      <c r="P218" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q218" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2003</v>
       </c>
+      <c r="B219" s="9">
+        <v>1</v>
+      </c>
+      <c r="C219" s="4">
+        <v>28</v>
+      </c>
       <c r="D219" s="1" t="s">
         <v>11</v>
       </c>
@@ -11996,21 +12102,35 @@
         <v>108</v>
       </c>
       <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
+      <c r="K219" s="1">
+        <v>5450</v>
+      </c>
       <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
+      <c r="M219" s="1">
+        <v>1</v>
+      </c>
       <c r="N219" s="1"/>
       <c r="O219" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2003---bush.md</v>
-      </c>
-      <c r="P219" s="6"/>
-      <c r="Q219" s="6"/>
+        <v>2003-1-28-bush.md</v>
+      </c>
+      <c r="P219" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q219" s="3" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2004</v>
       </c>
+      <c r="B220" s="9">
+        <v>1</v>
+      </c>
+      <c r="C220" s="4">
+        <v>20</v>
+      </c>
       <c r="D220" s="1" t="s">
         <v>11</v>
       </c>
@@ -12028,21 +12148,35 @@
         <v>108</v>
       </c>
       <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
+      <c r="K220" s="1">
+        <v>5242</v>
+      </c>
       <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
+      <c r="M220" s="1">
+        <v>1</v>
+      </c>
       <c r="N220" s="1"/>
       <c r="O220" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2004---bush.md</v>
-      </c>
-      <c r="P220" s="6"/>
-      <c r="Q220" s="6"/>
+        <v>2004-1-20-bush.md</v>
+      </c>
+      <c r="P220" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q220" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2005</v>
       </c>
+      <c r="B221" s="9">
+        <v>2</v>
+      </c>
+      <c r="C221" s="4">
+        <v>2</v>
+      </c>
       <c r="D221" s="1" t="s">
         <v>11</v>
       </c>
@@ -12060,21 +12194,35 @@
         <v>108</v>
       </c>
       <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
+      <c r="K221" s="1">
+        <v>5114</v>
+      </c>
       <c r="L221" s="1"/>
-      <c r="M221" s="1"/>
+      <c r="M221" s="1">
+        <v>2</v>
+      </c>
       <c r="N221" s="1"/>
       <c r="O221" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2005---bush.md</v>
-      </c>
-      <c r="P221" s="6"/>
-      <c r="Q221" s="6"/>
+        <v>2005-2-2-bush.md</v>
+      </c>
+      <c r="P221" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q221" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2006</v>
       </c>
+      <c r="B222" s="9">
+        <v>1</v>
+      </c>
+      <c r="C222" s="4">
+        <v>31</v>
+      </c>
       <c r="D222" s="1" t="s">
         <v>11</v>
       </c>
@@ -12092,21 +12240,35 @@
         <v>108</v>
       </c>
       <c r="J222" s="1"/>
-      <c r="K222" s="1"/>
+      <c r="K222" s="1">
+        <v>5367</v>
+      </c>
       <c r="L222" s="1"/>
-      <c r="M222" s="1"/>
+      <c r="M222" s="1">
+        <v>2</v>
+      </c>
       <c r="N222" s="1"/>
       <c r="O222" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2006---bush.md</v>
-      </c>
-      <c r="P222" s="6"/>
-      <c r="Q222" s="6"/>
+        <v>2006-1-31-bush.md</v>
+      </c>
+      <c r="P222" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q222" s="3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2007</v>
       </c>
+      <c r="B223" s="9">
+        <v>1</v>
+      </c>
+      <c r="C223" s="4">
+        <v>23</v>
+      </c>
       <c r="D223" s="1" t="s">
         <v>11</v>
       </c>
@@ -12124,21 +12286,35 @@
         <v>108</v>
       </c>
       <c r="J223" s="1"/>
-      <c r="K223" s="1"/>
+      <c r="K223" s="1">
+        <v>5649</v>
+      </c>
       <c r="L223" s="1"/>
-      <c r="M223" s="1"/>
+      <c r="M223" s="1">
+        <v>2</v>
+      </c>
       <c r="N223" s="1"/>
       <c r="O223" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2007---bush.md</v>
-      </c>
-      <c r="P223" s="6"/>
-      <c r="Q223" s="6"/>
+        <v>2007-1-23-bush.md</v>
+      </c>
+      <c r="P223" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q223" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2008</v>
       </c>
+      <c r="B224" s="9">
+        <v>1</v>
+      </c>
+      <c r="C224" s="4">
+        <v>28</v>
+      </c>
       <c r="D224" s="1" t="s">
         <v>11</v>
       </c>
@@ -12156,16 +12332,24 @@
         <v>108</v>
       </c>
       <c r="J224" s="1"/>
-      <c r="K224" s="1"/>
+      <c r="K224" s="1">
+        <v>5794</v>
+      </c>
       <c r="L224" s="1"/>
-      <c r="M224" s="1"/>
+      <c r="M224" s="1">
+        <v>2</v>
+      </c>
       <c r="N224" s="1"/>
       <c r="O224" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2008---bush.md</v>
-      </c>
-      <c r="P224" s="6"/>
-      <c r="Q224" s="6"/>
+        <v>2008-1-28-bush.md</v>
+      </c>
+      <c r="P224" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q224" s="3" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
@@ -12198,7 +12382,9 @@
         <v>6199</v>
       </c>
       <c r="L225" s="1"/>
-      <c r="M225" s="1"/>
+      <c r="M225" s="1">
+        <v>1</v>
+      </c>
       <c r="N225" s="1"/>
       <c r="O225" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12242,7 +12428,9 @@
         <v>7486</v>
       </c>
       <c r="L226" s="1"/>
-      <c r="M226" s="1"/>
+      <c r="M226" s="1">
+        <v>1</v>
+      </c>
       <c r="N226" s="1"/>
       <c r="O226" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12286,7 +12474,9 @@
         <v>7113</v>
       </c>
       <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
+      <c r="M227" s="1">
+        <v>1</v>
+      </c>
       <c r="N227" s="1"/>
       <c r="O227" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12330,7 +12520,9 @@
         <v>7270</v>
       </c>
       <c r="L228" s="1"/>
-      <c r="M228" s="1"/>
+      <c r="M228" s="1">
+        <v>1</v>
+      </c>
       <c r="N228" s="1"/>
       <c r="O228" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12374,7 +12566,9 @@
         <v>7013</v>
       </c>
       <c r="L229" s="1"/>
-      <c r="M229" s="1"/>
+      <c r="M229" s="1">
+        <v>2</v>
+      </c>
       <c r="N229" s="1"/>
       <c r="O229" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12418,7 +12612,9 @@
         <v>7263</v>
       </c>
       <c r="L230" s="1"/>
-      <c r="M230" s="1"/>
+      <c r="M230" s="1">
+        <v>2</v>
+      </c>
       <c r="N230" s="1"/>
       <c r="O230" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12462,7 +12658,9 @@
         <v>7004</v>
       </c>
       <c r="L231" s="1"/>
-      <c r="M231" s="1"/>
+      <c r="M231" s="1">
+        <v>2</v>
+      </c>
       <c r="N231" s="1"/>
       <c r="O231" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12506,7 +12704,9 @@
         <v>6282</v>
       </c>
       <c r="L232" s="1"/>
-      <c r="M232" s="1"/>
+      <c r="M232" s="1">
+        <v>2</v>
+      </c>
       <c r="N232" s="1"/>
       <c r="O232" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12550,7 +12750,9 @@
         <v>5089</v>
       </c>
       <c r="L233" s="1"/>
-      <c r="M233" s="1"/>
+      <c r="M233" s="1">
+        <v>1</v>
+      </c>
       <c r="N233" s="1"/>
       <c r="O233" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12562,38 +12764,6 @@
       <c r="Q233" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1">
-        <v>1</v>
-      </c>
-      <c r="I234" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J234" s="1"/>
-      <c r="K234" s="1"/>
-      <c r="L234" s="1"/>
-      <c r="M234" s="1"/>
-      <c r="N234" s="1"/>
-      <c r="O234" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>2018---trump.md</v>
-      </c>
-      <c r="P234" s="6"/>
-      <c r="Q234" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -12617,13 +12787,13 @@
           <x14:formula1>
             <xm:f>vocabulary!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F234</xm:sqref>
+          <xm:sqref>F2:F233</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF5FC0A3-8F38-4D54-BB5D-B7B2956A0A1B}">
           <x14:formula1>
             <xm:f>vocabulary!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:J234</xm:sqref>
+          <xm:sqref>I1:J233</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{863E898A-9393-44B1-82F7-419B3770C50E}">
           <x14:formula1>
@@ -12642,7 +12812,7 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12844,154 +13014,241 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
@@ -13056,7 +13313,7 @@
       </c>
       <c r="B1">
         <f>COUNTA(Table3[deliveredYear])</f>
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13069,8 +13326,8 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(master!F2:F234,vocabulary!A3)</f>
-        <v>98</v>
+        <f>COUNTIF(master!F2:F233,vocabulary!A3)</f>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13078,7 +13335,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(master!F2:F234,vocabulary!A2)</f>
+        <f>COUNTIF(master!F2:F233,vocabulary!A2)</f>
         <v>128</v>
       </c>
     </row>

--- a/master-index.xlsx
+++ b/master-index.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2C05C4-B563-49F1-B9BE-6A18A7F15022}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52885C4-AB74-42BE-BE64-82DB2801E962}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="stats" sheetId="4" r:id="rId4"/>
     <sheet name="vocabulary" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="259">
   <si>
     <t>potusLastName</t>
   </si>
@@ -515,9 +515,6 @@
   </si>
   <si>
     <t>date left office</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>Column2</t>
@@ -678,6 +675,141 @@
   </si>
   <si>
     <t>George W. Bush, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/277182</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:10 p.m. in the House Chamber of the Capitol.</t>
+  </si>
+  <si>
+    <t>William J. Clinton, Address Before a Joint Session of Congress on Administration Goals Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/218852</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:15 p.m. in the House Chamber of the Capitol.</t>
+  </si>
+  <si>
+    <t>William J. Clinton, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/219941</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:14 p.m. in the House Chamber of the Capitol.</t>
+  </si>
+  <si>
+    <t>William J. Clinton, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/221902</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:14 p.m. in the House Chamber of the Capitol. The Executive order of February 13 on economy and efficiency in Government procurement through compliance with certain Immigration and Naturalization Act provisions is listed in Appendix D at the end of his volume.</t>
+  </si>
+  <si>
+    <t>William J. Clinton, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/223046</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:15 p.m. in the House Chamber of the Capitol. The Executive order of September 11, 1997, establishing the American Heritage Rivers initiative was published in the Federal Register at 62 FR 48445.</t>
+  </si>
+  <si>
+    <t>William J. Clinton, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/223396</t>
+  </si>
+  <si>
+    <t>Begins with the words "The President." in italics, omitted from .md file. NOTE: The President spoke at 9:12 p.m. in the House Chamber of the Capitol. In his remarks, he referred to former Senator Bob Dole and his wife, Elizabeth; and President Saddam Hussein of Iraq.</t>
+  </si>
+  <si>
+    <t>William J. Clinton, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/226032</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:10 p.m. in the House Chamber of the Capitol. In his remarks, he referred to Jean Hastert, wife of Speaker J. Dennis Hastert; Evelyn M. (Lyn) Gibson, widow of Detective John M. Gibson, and Wenling Chestnut, widow of Officer Jacob J. Chestnut, whose husbands died as a result of gunshot wounds suffered during an attack at the Capitol on July 24, 1998; terrorist Usama bin Ladin, who allegedly sponsored bombing attacks on the U.S. Embassies in Kenya and Tanzania on August 7, 1998; President Saddam Hussein of Iraq; Capt. Jeffrey B. Taliaferro, USAF, Chief, Wing Weapons, 28th Operations Support Squadron, 28th Bomb Wing; and Sammy Sosa, National League Most Valuable Player in 1998.</t>
+  </si>
+  <si>
+    <t>William J. Clinton, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/230240</t>
+  </si>
+  <si>
+    <t>William J. Clinton, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/227524</t>
+  </si>
+  <si>
+    <t>NOTE: The President spoke at 9:18 p.m. in the House Chamber of the Capitol. In his remarks, he referred to Rev. Jesse Jackson, founder and president, Rainbow/PUSH Coalition; President Slobodan Milosevic of the Federal Republic of Yugoslavia (Serbia and Montenegro); President Andres Pastrana of Colombia; Pope John Paul II; and Eric Lander, director, Whitehead Institute/MIT Center for Genome Research, who spoke at the eighth White House Millennium Evening. * White House correction.</t>
+  </si>
+  <si>
+    <t>George H W</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>Harry S.</t>
+  </si>
+  <si>
+    <t>Franklin D.</t>
+  </si>
+  <si>
+    <t>avg word count</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9:07 p.m. in the House Chamber of the Capitol. The address was broadcast live on nationwide radio and television. The Executive order of March 12 establishing the National Commission on America's Urban Families is listed in Appendix E at the end of this volume.</t>
+  </si>
+  <si>
+    <t>George Bush, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/266921</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9:09 p.m. in the House Chamber of the Capitol. He was introduced by Thomas S. Foley, Speaker of the House of Representatives. In his remarks, the President referred to Dan Quayle, President of the Senate; President Saddam Hussein of Iraq; Alan Greenspan, Chairman of the Board of Governors of the Federal Reserve System; Attorney General Dick Thornburgh; United Nations Secretary-General Javier Perez de Cuellar de la Guerra; President Mikhail Gorbachev of the Soviet Union; President Francois Mitterrand of France; President Turgut Ozal of Turkey; President Mohammed Hosni Mubarak of Egypt; President Chadli Bendjedid of Algeria; King Fahd bin Abd al-`Aziz Al Sa`ud of Saudi Arabia; King Hassan II of Morocco; Prime Minister John Major of the United Kingdom; Prime Minister Giulio Andreotti of Italy; Gen. H. Norman Schwarzkopf, commander of the U.S. forces in the Persian Gulf, and his wife, Renda; and Gen. Colin L. Powell, Chairman of the Joint Chiefs of Staff, and his wife, Alma. The address was broadcast live nationwide on radio and television. Prior to his address, the President attended a reception in the Speaker's Conference Room hosted by the congressional leadership. Parts of this address could not be verified because the tape was incomplete.</t>
+  </si>
+  <si>
+    <t>George Bush, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/265956</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9:05 p.m. in the House Chamber of the Capitol. He was introduced by Thomas S. Foley, Speaker of the House of Representatives. The address was broadcast live on nationwide radio and television. Prior to his address, the President attended a reception in the Speaker's Conference Room hosted by the congressional leadership.</t>
+  </si>
+  <si>
+    <t>George Bush, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/263819</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9:07 p.m. in the House Chamber of the Capitol. The address was broadcast live on nationwide radio and television.</t>
+  </si>
+  <si>
+    <t>George Bush, Address on Administration Goals Before a Joint Session of Congress Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/247737</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9 p.m. in the House Chamber at the Capitol. He was introduced by Thomas P. O'Neill, Jr., Speaker of the House of Representatives. The address was broadcast live on radio and television.</t>
+  </si>
+  <si>
+    <t>Ronald Reagan, Address Before a Joint Session of the Congress on the Program for Economic Recovery Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/246567</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9 p.m. in the House Chamber at the Capitol. He was introduced by Thomas P. O'Neill, Jr., Speaker of the House of Representatives. The address was broadcast live on nationwide radio and television.</t>
+  </si>
+  <si>
+    <t>Ronald Reagan, Address Before a Joint Session of the Congress Reporting on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/245636</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9:03 p.m. in the House Chamber of the Capitol. He was introduced by Thomas P. O'Neill, Jr., Speaker of the House of Representatives. The address was broadcast live on nationwide radio and television.</t>
+  </si>
+  <si>
+    <t>Ronald Reagan, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/263103</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9:02 p.m. in the House Chamber of the Capitol He was introduced by Thomas P. O'Neill, Jr., Speaker of the House of Representatives. The address was broadcast live on nationwide radio and television.</t>
+  </si>
+  <si>
+    <t>Ronald Reagan, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/261634</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9:05 p.m. in the House Chamber of the Capitol. He was introduced by Thomas P. O'Neill, Jr., Speaker of the House of Representatives. The address was broadcast live on nationwide radio and television.</t>
+  </si>
+  <si>
+    <t>Ronald Reagan, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/258923</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 8:04 p.m. in the House Chamber of the Capitol. He was introduced by Thomas P. O'Neill, Jr., Speaker of the House of Representatives. The address was broadcast live on nationwide radio and television.</t>
+  </si>
+  <si>
+    <t>Ronald Reagan, Address Before a Joint Session of Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/254269</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9:03 p.m. in the House Chamber of the Capitol. He was introduced by Jim Wright, Speaker of the House of Representatives. The address was broadcast live on nationwide radio and television.</t>
+  </si>
+  <si>
+    <t>Ronald Reagan, Address Before a Joint Session of Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/252758</t>
+  </si>
+  <si>
+    <t>Note: The President spoke at 9:07 p.m. in the House Chamber of the Capitol. He was introduced by Jim Wright, Speaker of the House of Representatives. The address was broadcast live on nationwide radio and television.</t>
+  </si>
+  <si>
+    <t>Ronald Reagan, Address Before a Joint Session of Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/255154</t>
   </si>
 </sst>
 </file>
@@ -769,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -783,6 +915,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -790,22 +923,7 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="00"/>
     </dxf>
     <dxf>
       <font>
@@ -824,7 +942,60 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -878,6 +1049,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -886,6 +1058,24 @@
         </top>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -904,16 +1094,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1192,66 +1380,6 @@
           <color theme="4"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2704,6 +2832,66 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>7397</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4571</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5290</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5681</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5061</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4310</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3561</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3893</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4976</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4917</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3879</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4020</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5224</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>7127</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>7547</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>9403</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>6438</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>6854</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>7436</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>7628</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>9275</c:v>
                 </c:pt>
                 <c:pt idx="215">
                   <c:v>4449</c:v>
@@ -4145,32 +4333,32 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:Q233" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="5"/>
     <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="3">
       <calculatedColumnFormula>(A2&amp;"-"&amp;B2&amp;"-"&amp;C2&amp;"-"&amp;LOWER(D2)&amp;".md")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2165DEDF-1AB7-4B84-9632-A614CDA07411}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2165DEDF-1AB7-4B84-9632-A614CDA07411}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:R46" xr:uid="{AE285793-CB7D-40A8-B930-00C5755BFACC}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6244E28B-E0F1-47FA-8860-B6D17C3A5B62}" name="#"/>
@@ -4179,7 +4367,7 @@
     <tableColumn id="4" xr3:uid="{86B85A05-0CEA-4EE9-A990-70FE2A90F713}" name="year elected"/>
     <tableColumn id="5" xr3:uid="{00C697A9-D213-4D34-9D8C-E755A624A319}" name="date inaugurated"/>
     <tableColumn id="6" xr3:uid="{011C3095-0446-4782-ABA5-2D53E5961EB4}" name="date left office"/>
-    <tableColumn id="7" xr3:uid="{EEBBFEE8-8990-4C15-89AA-54868E4C814C}" name="Column1"/>
+    <tableColumn id="7" xr3:uid="{EEBBFEE8-8990-4C15-89AA-54868E4C814C}" name="avg word count"/>
     <tableColumn id="8" xr3:uid="{F2B68088-AF52-4782-BC1A-539A073F4DD7}" name="Column2"/>
     <tableColumn id="9" xr3:uid="{4C020256-BCCF-42C0-89BB-0490AFF73CAE}" name="Column3"/>
     <tableColumn id="10" xr3:uid="{A08AC827-E66E-41F8-B0ED-94440D47DA83}" name="Column4"/>
@@ -4501,8 +4689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A15899E-558C-4C63-B86C-F370C964819B}">
   <dimension ref="A1:Q233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="Q235" sqref="Q235"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="M197" sqref="M197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4614,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="1"/>
-      <c r="O2" s="1" t="str">
+      <c r="O2" s="13" t="str">
         <f>(A2&amp;"-"&amp;B2&amp;"-"&amp;C2&amp;"-"&amp;LOWER(D2)&amp;".md")</f>
         <v>1790-1-8-washington.md</v>
       </c>
@@ -4656,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="1"/>
-      <c r="O3" s="1" t="str">
+      <c r="O3" s="13" t="str">
         <f t="shared" ref="O3:O66" si="0">(A3&amp;"-"&amp;B3&amp;"-"&amp;C3&amp;"-"&amp;LOWER(D3)&amp;".md")</f>
         <v>1790-12-8-washington.md</v>
       </c>
@@ -4698,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="1"/>
-      <c r="O4" s="1" t="str">
+      <c r="O4" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1791-10-25-washington.md</v>
       </c>
@@ -4740,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="1" t="str">
+      <c r="O5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1792-11-6-washington.md</v>
       </c>
@@ -4782,7 +4970,7 @@
         <v>2</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1" t="str">
+      <c r="O6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1793-12-3-washington.md</v>
       </c>
@@ -4824,7 +5012,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1" t="str">
+      <c r="O7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1794-11-19-washington.md</v>
       </c>
@@ -4866,7 +5054,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1" t="str">
+      <c r="O8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1795-12-8-washington.md</v>
       </c>
@@ -4908,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1" t="str">
+      <c r="O9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1796-12-7-washington.md</v>
       </c>
@@ -4950,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1" t="str">
+      <c r="O10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1797-11-22-adams.md</v>
       </c>
@@ -4992,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1" t="str">
+      <c r="O11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1798-12-8-adams.md</v>
       </c>
@@ -5034,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1" t="str">
+      <c r="O12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1799-12-3-adams.md</v>
       </c>
@@ -5076,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1" t="str">
+      <c r="O13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1800-11-22-adams.md</v>
       </c>
@@ -5118,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1" t="str">
+      <c r="O14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1801-12-8-jefferson.md</v>
       </c>
@@ -5160,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1" t="str">
+      <c r="O15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1802-12-15-jefferson.md</v>
       </c>
@@ -5202,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1" t="str">
+      <c r="O16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1803-10-17-jefferson.md</v>
       </c>
@@ -5244,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="1" t="str">
+      <c r="O17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1804-11-8-jefferson.md</v>
       </c>
@@ -5290,7 +5478,7 @@
         <v>2</v>
       </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="1" t="str">
+      <c r="O18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1805-12-3-jefferson.md</v>
       </c>
@@ -5336,7 +5524,7 @@
         <v>2</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1" t="str">
+      <c r="O19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1806-12-2-jefferson.md</v>
       </c>
@@ -5382,7 +5570,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1" t="str">
+      <c r="O20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1807-10-27-jefferson.md</v>
       </c>
@@ -5428,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="1" t="str">
+      <c r="O21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1808-11-8-jefferson.md</v>
       </c>
@@ -5474,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="1" t="str">
+      <c r="O22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1809-11-29-madison.md</v>
       </c>
@@ -5520,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="1"/>
-      <c r="O23" s="1" t="str">
+      <c r="O23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1810-12-5-madison.md</v>
       </c>
@@ -5566,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="1"/>
-      <c r="O24" s="1" t="str">
+      <c r="O24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1811-11-5-madison.md</v>
       </c>
@@ -5612,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="1"/>
-      <c r="O25" s="1" t="str">
+      <c r="O25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1812-11-4-madison.md</v>
       </c>
@@ -5658,7 +5846,7 @@
         <v>2</v>
       </c>
       <c r="N26" s="1"/>
-      <c r="O26" s="1" t="str">
+      <c r="O26" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1813-12-7-madison.md</v>
       </c>
@@ -5704,7 +5892,7 @@
         <v>2</v>
       </c>
       <c r="N27" s="1"/>
-      <c r="O27" s="1" t="str">
+      <c r="O27" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1814-9-20-madison.md</v>
       </c>
@@ -5750,7 +5938,7 @@
         <v>2</v>
       </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="1" t="str">
+      <c r="O28" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1815-12-5-madison.md</v>
       </c>
@@ -5796,7 +5984,7 @@
         <v>2</v>
       </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="1" t="str">
+      <c r="O29" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1816-12-3-madison.md</v>
       </c>
@@ -5842,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="1" t="str">
+      <c r="O30" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1817-12-2-monroe.md</v>
       </c>
@@ -5888,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="1" t="str">
+      <c r="O31" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1818-11-16-monroe.md</v>
       </c>
@@ -5934,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1" t="str">
+      <c r="O32" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1819-12-7-monroe.md</v>
       </c>
@@ -5980,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="1"/>
-      <c r="O33" s="1" t="str">
+      <c r="O33" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1820-11-14-monroe.md</v>
       </c>
@@ -6026,7 +6214,7 @@
         <v>2</v>
       </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="1" t="str">
+      <c r="O34" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1821-12-3-monroe.md</v>
       </c>
@@ -6072,7 +6260,7 @@
         <v>2</v>
       </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="1" t="str">
+      <c r="O35" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1822-12-3-monroe.md</v>
       </c>
@@ -6118,7 +6306,7 @@
         <v>2</v>
       </c>
       <c r="N36" s="1"/>
-      <c r="O36" s="1" t="str">
+      <c r="O36" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1823-12-2-monroe.md</v>
       </c>
@@ -6164,7 +6352,7 @@
         <v>2</v>
       </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="1" t="str">
+      <c r="O37" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1824-12-7-monroe.md</v>
       </c>
@@ -6210,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="1" t="str">
+      <c r="O38" s="13" t="str">
         <f>(A38&amp;"-"&amp;B38&amp;"-"&amp;C38&amp;"-"&amp;LOWER(D38)&amp;".md")</f>
         <v>1825-12-6-adams.md</v>
       </c>
@@ -6218,7 +6406,7 @@
         <v>147</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -6256,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="1" t="str">
+      <c r="O39" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1826-12-5-adams.md</v>
       </c>
@@ -6264,7 +6452,7 @@
         <v>147</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -6302,15 +6490,15 @@
         <v>1</v>
       </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="1" t="str">
+      <c r="O40" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1827-12-4-adams.md</v>
       </c>
       <c r="P40" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q40" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -6348,15 +6536,15 @@
         <v>1</v>
       </c>
       <c r="N41" s="1"/>
-      <c r="O41" s="1" t="str">
+      <c r="O41" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1828-12-2-adams.md</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -6384,7 +6572,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1" t="str">
+      <c r="O42" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1829---jackson.md</v>
       </c>
@@ -6416,7 +6604,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="1" t="str">
+      <c r="O43" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1830---jackson.md</v>
       </c>
@@ -6448,7 +6636,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="1" t="str">
+      <c r="O44" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1831---jackson.md</v>
       </c>
@@ -6480,7 +6668,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="1" t="str">
+      <c r="O45" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1832---jackson.md</v>
       </c>
@@ -6512,7 +6700,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="1" t="str">
+      <c r="O46" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1833---jackson.md</v>
       </c>
@@ -6544,7 +6732,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="1" t="str">
+      <c r="O47" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1834---jackson.md</v>
       </c>
@@ -6576,7 +6764,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="1" t="str">
+      <c r="O48" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1835---jackson.md</v>
       </c>
@@ -6608,7 +6796,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="1" t="str">
+      <c r="O49" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1836---jackson.md</v>
       </c>
@@ -6640,7 +6828,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="1" t="str">
+      <c r="O50" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1837---van buren.md</v>
       </c>
@@ -6672,7 +6860,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="1" t="str">
+      <c r="O51" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1838---van buren.md</v>
       </c>
@@ -6704,7 +6892,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-      <c r="O52" s="1" t="str">
+      <c r="O52" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1839---van buren.md</v>
       </c>
@@ -6736,7 +6924,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="1" t="str">
+      <c r="O53" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1840---van buren.md</v>
       </c>
@@ -6770,7 +6958,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="1" t="str">
+      <c r="O54" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1841---tyler.md</v>
       </c>
@@ -6804,7 +6992,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="1" t="str">
+      <c r="O55" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1842---tyler.md</v>
       </c>
@@ -6838,7 +7026,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="1" t="str">
+      <c r="O56" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1843---tyler.md</v>
       </c>
@@ -6872,7 +7060,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="1" t="str">
+      <c r="O57" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1844---tyler.md</v>
       </c>
@@ -6904,7 +7092,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="1" t="str">
+      <c r="O58" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1845---polk.md</v>
       </c>
@@ -6936,7 +7124,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="1" t="str">
+      <c r="O59" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1846---polk.md</v>
       </c>
@@ -6968,7 +7156,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="1" t="str">
+      <c r="O60" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1847---polk.md</v>
       </c>
@@ -7000,7 +7188,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="1" t="str">
+      <c r="O61" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1848---polk.md</v>
       </c>
@@ -7032,7 +7220,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="1" t="str">
+      <c r="O62" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1849---taylor.md</v>
       </c>
@@ -7064,7 +7252,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="1" t="str">
+      <c r="O63" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1850---fillmore.md</v>
       </c>
@@ -7096,7 +7284,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="1" t="str">
+      <c r="O64" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1851---fillmore.md</v>
       </c>
@@ -7128,7 +7316,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="1" t="str">
+      <c r="O65" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1852---fillmore.md</v>
       </c>
@@ -7160,7 +7348,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="1" t="str">
+      <c r="O66" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1853---pierce.md</v>
       </c>
@@ -7192,7 +7380,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="1" t="str">
+      <c r="O67" s="13" t="str">
         <f t="shared" ref="O67:O130" si="1">(A67&amp;"-"&amp;B67&amp;"-"&amp;C67&amp;"-"&amp;LOWER(D67)&amp;".md")</f>
         <v>1854---pierce.md</v>
       </c>
@@ -7224,7 +7412,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="1" t="str">
+      <c r="O68" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1855---pierce.md</v>
       </c>
@@ -7256,7 +7444,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="1" t="str">
+      <c r="O69" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1856---pierce.md</v>
       </c>
@@ -7288,7 +7476,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="1" t="str">
+      <c r="O70" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1857---buchanan.md</v>
       </c>
@@ -7320,7 +7508,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="1" t="str">
+      <c r="O71" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1858---buchanan.md</v>
       </c>
@@ -7352,7 +7540,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="1" t="str">
+      <c r="O72" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1859---buchanan.md</v>
       </c>
@@ -7384,7 +7572,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="1" t="str">
+      <c r="O73" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1860---buchanan.md</v>
       </c>
@@ -7418,7 +7606,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="1" t="str">
+      <c r="O74" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1861---lincoln.md</v>
       </c>
@@ -7452,7 +7640,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="1" t="str">
+      <c r="O75" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1862---lincoln.md</v>
       </c>
@@ -7486,7 +7674,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-      <c r="O76" s="1" t="str">
+      <c r="O76" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1863---lincoln.md</v>
       </c>
@@ -7520,7 +7708,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
-      <c r="O77" s="1" t="str">
+      <c r="O77" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1864---lincoln.md</v>
       </c>
@@ -7554,7 +7742,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78" s="1" t="str">
+      <c r="O78" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1865---johnson.md</v>
       </c>
@@ -7588,7 +7776,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
-      <c r="O79" s="1" t="str">
+      <c r="O79" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1866---johnson.md</v>
       </c>
@@ -7622,7 +7810,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="1" t="str">
+      <c r="O80" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1867---johnson.md</v>
       </c>
@@ -7656,7 +7844,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
-      <c r="O81" s="1" t="str">
+      <c r="O81" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1868---johnson.md</v>
       </c>
@@ -7688,7 +7876,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-      <c r="O82" s="1" t="str">
+      <c r="O82" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1869---grant.md</v>
       </c>
@@ -7720,7 +7908,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="O83" s="1" t="str">
+      <c r="O83" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1870---grant.md</v>
       </c>
@@ -7752,7 +7940,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="O84" s="1" t="str">
+      <c r="O84" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1871---grant.md</v>
       </c>
@@ -7784,7 +7972,7 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
-      <c r="O85" s="1" t="str">
+      <c r="O85" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1872---grant.md</v>
       </c>
@@ -7816,7 +8004,7 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-      <c r="O86" s="1" t="str">
+      <c r="O86" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1873---grant.md</v>
       </c>
@@ -7848,7 +8036,7 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="1" t="str">
+      <c r="O87" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1874---grant.md</v>
       </c>
@@ -7880,7 +8068,7 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" s="1" t="str">
+      <c r="O88" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1875---grant.md</v>
       </c>
@@ -7912,7 +8100,7 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
-      <c r="O89" s="1" t="str">
+      <c r="O89" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1876---grant.md</v>
       </c>
@@ -7944,7 +8132,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-      <c r="O90" s="1" t="str">
+      <c r="O90" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1877---hayes.md</v>
       </c>
@@ -7976,7 +8164,7 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
-      <c r="O91" s="1" t="str">
+      <c r="O91" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1878---hayes.md</v>
       </c>
@@ -8008,7 +8196,7 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="1" t="str">
+      <c r="O92" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1879---hayes.md</v>
       </c>
@@ -8040,7 +8228,7 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
-      <c r="O93" s="1" t="str">
+      <c r="O93" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1880---hayes.md</v>
       </c>
@@ -8072,7 +8260,7 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
-      <c r="O94" s="1" t="str">
+      <c r="O94" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1881---arthur.md</v>
       </c>
@@ -8104,7 +8292,7 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
-      <c r="O95" s="1" t="str">
+      <c r="O95" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1882---arthur.md</v>
       </c>
@@ -8136,7 +8324,7 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-      <c r="O96" s="1" t="str">
+      <c r="O96" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1883---arthur.md</v>
       </c>
@@ -8168,7 +8356,7 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-      <c r="O97" s="1" t="str">
+      <c r="O97" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1884---arthur.md</v>
       </c>
@@ -8200,7 +8388,7 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="O98" s="1" t="str">
+      <c r="O98" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1885---cleveland.md</v>
       </c>
@@ -8232,7 +8420,7 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
-      <c r="O99" s="1" t="str">
+      <c r="O99" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1886---cleveland.md</v>
       </c>
@@ -8264,7 +8452,7 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
-      <c r="O100" s="1" t="str">
+      <c r="O100" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1887---cleveland.md</v>
       </c>
@@ -8296,7 +8484,7 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
-      <c r="O101" s="1" t="str">
+      <c r="O101" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1888---cleveland.md</v>
       </c>
@@ -8328,7 +8516,7 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
-      <c r="O102" s="1" t="str">
+      <c r="O102" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1889---harrison.md</v>
       </c>
@@ -8360,7 +8548,7 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
-      <c r="O103" s="1" t="str">
+      <c r="O103" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1890---harrison.md</v>
       </c>
@@ -8392,7 +8580,7 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
-      <c r="O104" s="1" t="str">
+      <c r="O104" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1891---harrison.md</v>
       </c>
@@ -8424,7 +8612,7 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
-      <c r="O105" s="1" t="str">
+      <c r="O105" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1892---harrison.md</v>
       </c>
@@ -8456,7 +8644,7 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
-      <c r="O106" s="1" t="str">
+      <c r="O106" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1893---cleveland.md</v>
       </c>
@@ -8488,7 +8676,7 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
-      <c r="O107" s="1" t="str">
+      <c r="O107" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1894---cleveland.md</v>
       </c>
@@ -8520,7 +8708,7 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
-      <c r="O108" s="1" t="str">
+      <c r="O108" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1895---cleveland.md</v>
       </c>
@@ -8552,7 +8740,7 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
-      <c r="O109" s="1" t="str">
+      <c r="O109" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1896---cleveland.md</v>
       </c>
@@ -8584,7 +8772,7 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
-      <c r="O110" s="1" t="str">
+      <c r="O110" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1897---mckinley.md</v>
       </c>
@@ -8616,7 +8804,7 @@
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
-      <c r="O111" s="1" t="str">
+      <c r="O111" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1898---mckinley.md</v>
       </c>
@@ -8648,7 +8836,7 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
-      <c r="O112" s="1" t="str">
+      <c r="O112" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1899---mckinley.md</v>
       </c>
@@ -8680,7 +8868,7 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
-      <c r="O113" s="1" t="str">
+      <c r="O113" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1900---mckinley.md</v>
       </c>
@@ -8712,7 +8900,7 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
-      <c r="O114" s="1" t="str">
+      <c r="O114" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1901---roosevelt.md</v>
       </c>
@@ -8744,7 +8932,7 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
-      <c r="O115" s="1" t="str">
+      <c r="O115" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1902---roosevelt.md</v>
       </c>
@@ -8776,7 +8964,7 @@
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
-      <c r="O116" s="1" t="str">
+      <c r="O116" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1903---roosevelt.md</v>
       </c>
@@ -8808,7 +8996,7 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
-      <c r="O117" s="1" t="str">
+      <c r="O117" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1904---roosevelt.md</v>
       </c>
@@ -8840,7 +9028,7 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
-      <c r="O118" s="1" t="str">
+      <c r="O118" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1905---roosevelt.md</v>
       </c>
@@ -8872,7 +9060,7 @@
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
-      <c r="O119" s="1" t="str">
+      <c r="O119" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1906---roosevelt.md</v>
       </c>
@@ -8904,7 +9092,7 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
-      <c r="O120" s="1" t="str">
+      <c r="O120" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1907---roosevelt.md</v>
       </c>
@@ -8936,7 +9124,7 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
-      <c r="O121" s="1" t="str">
+      <c r="O121" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1908---roosevelt.md</v>
       </c>
@@ -8968,7 +9156,7 @@
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
-      <c r="O122" s="1" t="str">
+      <c r="O122" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1909---taft.md</v>
       </c>
@@ -9000,7 +9188,7 @@
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
-      <c r="O123" s="1" t="str">
+      <c r="O123" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1910---taft.md</v>
       </c>
@@ -9032,7 +9220,7 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
-      <c r="O124" s="1" t="str">
+      <c r="O124" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1911---taft.md</v>
       </c>
@@ -9064,7 +9252,7 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
-      <c r="O125" s="1" t="str">
+      <c r="O125" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1912---taft.md</v>
       </c>
@@ -9096,7 +9284,7 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
-      <c r="O126" s="1" t="str">
+      <c r="O126" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1913---wilson.md</v>
       </c>
@@ -9128,7 +9316,7 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
-      <c r="O127" s="1" t="str">
+      <c r="O127" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1914---wilson.md</v>
       </c>
@@ -9160,7 +9348,7 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
-      <c r="O128" s="1" t="str">
+      <c r="O128" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1915---wilson.md</v>
       </c>
@@ -9192,7 +9380,7 @@
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
-      <c r="O129" s="1" t="str">
+      <c r="O129" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1916---wilson.md</v>
       </c>
@@ -9224,7 +9412,7 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
-      <c r="O130" s="1" t="str">
+      <c r="O130" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1917---wilson.md</v>
       </c>
@@ -9256,7 +9444,7 @@
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
-      <c r="O131" s="1" t="str">
+      <c r="O131" s="13" t="str">
         <f t="shared" ref="O131:O194" si="2">(A131&amp;"-"&amp;B131&amp;"-"&amp;C131&amp;"-"&amp;LOWER(D131)&amp;".md")</f>
         <v>1918---wilson.md</v>
       </c>
@@ -9288,7 +9476,7 @@
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
-      <c r="O132" s="1" t="str">
+      <c r="O132" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1919---wilson.md</v>
       </c>
@@ -9320,7 +9508,7 @@
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
-      <c r="O133" s="1" t="str">
+      <c r="O133" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1920---wilson.md</v>
       </c>
@@ -9352,7 +9540,7 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
-      <c r="O134" s="1" t="str">
+      <c r="O134" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1921---harding.md</v>
       </c>
@@ -9384,7 +9572,7 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
-      <c r="O135" s="1" t="str">
+      <c r="O135" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1922---harding.md</v>
       </c>
@@ -9416,7 +9604,7 @@
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
-      <c r="O136" s="1" t="str">
+      <c r="O136" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1923---coolidge.md</v>
       </c>
@@ -9448,7 +9636,7 @@
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
-      <c r="O137" s="1" t="str">
+      <c r="O137" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1924---coolidge.md</v>
       </c>
@@ -9480,7 +9668,7 @@
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
-      <c r="O138" s="1" t="str">
+      <c r="O138" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1925---coolidge.md</v>
       </c>
@@ -9512,7 +9700,7 @@
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
-      <c r="O139" s="1" t="str">
+      <c r="O139" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1926---coolidge.md</v>
       </c>
@@ -9544,7 +9732,7 @@
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
-      <c r="O140" s="1" t="str">
+      <c r="O140" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1927---coolidge.md</v>
       </c>
@@ -9576,7 +9764,7 @@
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
-      <c r="O141" s="1" t="str">
+      <c r="O141" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1928---coolidge.md</v>
       </c>
@@ -9608,7 +9796,7 @@
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
-      <c r="O142" s="1" t="str">
+      <c r="O142" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1929---hoover.md</v>
       </c>
@@ -9640,7 +9828,7 @@
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
-      <c r="O143" s="1" t="str">
+      <c r="O143" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1930---hoover.md</v>
       </c>
@@ -9672,7 +9860,7 @@
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
-      <c r="O144" s="1" t="str">
+      <c r="O144" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1931---hoover.md</v>
       </c>
@@ -9704,7 +9892,7 @@
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
-      <c r="O145" s="1" t="str">
+      <c r="O145" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1932---hoover.md</v>
       </c>
@@ -9736,7 +9924,7 @@
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
-      <c r="O146" s="1" t="str">
+      <c r="O146" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1934---roosevelt.md</v>
       </c>
@@ -9768,7 +9956,7 @@
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
-      <c r="O147" s="1" t="str">
+      <c r="O147" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1935---roosevelt.md</v>
       </c>
@@ -9800,7 +9988,7 @@
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
-      <c r="O148" s="1" t="str">
+      <c r="O148" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1936---roosevelt.md</v>
       </c>
@@ -9832,7 +10020,7 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
-      <c r="O149" s="1" t="str">
+      <c r="O149" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1937---roosevelt.md</v>
       </c>
@@ -9864,7 +10052,7 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
-      <c r="O150" s="1" t="str">
+      <c r="O150" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1938---roosevelt.md</v>
       </c>
@@ -9896,7 +10084,7 @@
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
-      <c r="O151" s="1" t="str">
+      <c r="O151" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1939---roosevelt.md</v>
       </c>
@@ -9928,7 +10116,7 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
-      <c r="O152" s="1" t="str">
+      <c r="O152" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1940---roosevelt.md</v>
       </c>
@@ -9960,7 +10148,7 @@
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
-      <c r="O153" s="1" t="str">
+      <c r="O153" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1941---roosevelt.md</v>
       </c>
@@ -9992,7 +10180,7 @@
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
-      <c r="O154" s="1" t="str">
+      <c r="O154" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1942---roosevelt.md</v>
       </c>
@@ -10024,7 +10212,7 @@
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
-      <c r="O155" s="1" t="str">
+      <c r="O155" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1943---roosevelt.md</v>
       </c>
@@ -10056,7 +10244,7 @@
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
-      <c r="O156" s="1" t="str">
+      <c r="O156" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1944---roosevelt.md</v>
       </c>
@@ -10090,7 +10278,7 @@
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
-      <c r="O157" s="1" t="str">
+      <c r="O157" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1945---roosevelt.md</v>
       </c>
@@ -10122,7 +10310,7 @@
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
-      <c r="O158" s="1" t="str">
+      <c r="O158" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1946---truman.md</v>
       </c>
@@ -10154,7 +10342,7 @@
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
-      <c r="O159" s="1" t="str">
+      <c r="O159" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1947---truman.md</v>
       </c>
@@ -10186,7 +10374,7 @@
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
-      <c r="O160" s="1" t="str">
+      <c r="O160" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1948---truman.md</v>
       </c>
@@ -10218,7 +10406,7 @@
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
-      <c r="O161" s="1" t="str">
+      <c r="O161" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1949---truman.md</v>
       </c>
@@ -10250,7 +10438,7 @@
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
-      <c r="O162" s="1" t="str">
+      <c r="O162" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1950---truman.md</v>
       </c>
@@ -10282,7 +10470,7 @@
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
-      <c r="O163" s="1" t="str">
+      <c r="O163" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1951---truman.md</v>
       </c>
@@ -10314,7 +10502,7 @@
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
-      <c r="O164" s="1" t="str">
+      <c r="O164" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1952---truman.md</v>
       </c>
@@ -10346,7 +10534,7 @@
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
-      <c r="O165" s="1" t="str">
+      <c r="O165" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1953---truman.md</v>
       </c>
@@ -10376,7 +10564,7 @@
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
-      <c r="O166" s="1" t="str">
+      <c r="O166" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1953---eisenhower.md</v>
       </c>
@@ -10408,7 +10596,7 @@
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
-      <c r="O167" s="1" t="str">
+      <c r="O167" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1954---eisenhower.md</v>
       </c>
@@ -10440,7 +10628,7 @@
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
-      <c r="O168" s="1" t="str">
+      <c r="O168" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1955---eisenhower.md</v>
       </c>
@@ -10474,7 +10662,7 @@
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
-      <c r="O169" s="1" t="str">
+      <c r="O169" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1956---eisenhower.md</v>
       </c>
@@ -10506,7 +10694,7 @@
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
-      <c r="O170" s="1" t="str">
+      <c r="O170" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1957---eisenhower.md</v>
       </c>
@@ -10538,7 +10726,7 @@
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
-      <c r="O171" s="1" t="str">
+      <c r="O171" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1958---eisenhower.md</v>
       </c>
@@ -10570,7 +10758,7 @@
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
-      <c r="O172" s="1" t="str">
+      <c r="O172" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1959---eisenhower.md</v>
       </c>
@@ -10602,7 +10790,7 @@
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
-      <c r="O173" s="1" t="str">
+      <c r="O173" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1960---eisenhower.md</v>
       </c>
@@ -10634,7 +10822,7 @@
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
-      <c r="O174" s="1" t="str">
+      <c r="O174" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1961---eisenhower.md</v>
       </c>
@@ -10664,7 +10852,7 @@
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
-      <c r="O175" s="1" t="str">
+      <c r="O175" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1961---kennedy.md</v>
       </c>
@@ -10696,7 +10884,7 @@
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
-      <c r="O176" s="1" t="str">
+      <c r="O176" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1962---kennedy.md</v>
       </c>
@@ -10728,7 +10916,7 @@
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
-      <c r="O177" s="1" t="str">
+      <c r="O177" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1963---kennedy.md</v>
       </c>
@@ -10760,7 +10948,7 @@
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
-      <c r="O178" s="1" t="str">
+      <c r="O178" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1964---johnson.md</v>
       </c>
@@ -10792,7 +10980,7 @@
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
-      <c r="O179" s="1" t="str">
+      <c r="O179" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1965---johnson.md</v>
       </c>
@@ -10824,7 +11012,7 @@
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
-      <c r="O180" s="1" t="str">
+      <c r="O180" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1966---johnson.md</v>
       </c>
@@ -10856,7 +11044,7 @@
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
-      <c r="O181" s="1" t="str">
+      <c r="O181" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1967---johnson.md</v>
       </c>
@@ -10888,7 +11076,7 @@
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
-      <c r="O182" s="1" t="str">
+      <c r="O182" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1968---johnson.md</v>
       </c>
@@ -10920,7 +11108,7 @@
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
-      <c r="O183" s="1" t="str">
+      <c r="O183" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1969---johnson.md</v>
       </c>
@@ -10952,7 +11140,7 @@
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
-      <c r="O184" s="1" t="str">
+      <c r="O184" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1970---nixon.md</v>
       </c>
@@ -10984,7 +11172,7 @@
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
-      <c r="O185" s="1" t="str">
+      <c r="O185" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1971---nixon.md</v>
       </c>
@@ -11016,7 +11204,7 @@
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
-      <c r="O186" s="1" t="str">
+      <c r="O186" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1972---nixon.md</v>
       </c>
@@ -11048,7 +11236,7 @@
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
-      <c r="O187" s="1" t="str">
+      <c r="O187" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1972---nixon.md</v>
       </c>
@@ -11082,7 +11270,7 @@
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
-      <c r="O188" s="1" t="str">
+      <c r="O188" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1973---nixon.md</v>
       </c>
@@ -11114,7 +11302,7 @@
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
-      <c r="O189" s="1" t="str">
+      <c r="O189" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1974---nixon.md</v>
       </c>
@@ -11146,7 +11334,7 @@
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
-      <c r="O190" s="1" t="str">
+      <c r="O190" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1975---ford.md</v>
       </c>
@@ -11178,7 +11366,7 @@
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
-      <c r="O191" s="1" t="str">
+      <c r="O191" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1976---ford.md</v>
       </c>
@@ -11210,7 +11398,7 @@
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
-      <c r="O192" s="1" t="str">
+      <c r="O192" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1977---ford.md</v>
       </c>
@@ -11242,7 +11430,7 @@
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
-      <c r="O193" s="1" t="str">
+      <c r="O193" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1978---carter.md</v>
       </c>
@@ -11274,7 +11462,7 @@
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
-      <c r="O194" s="1" t="str">
+      <c r="O194" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1979---carter.md</v>
       </c>
@@ -11306,7 +11494,7 @@
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
-      <c r="O195" s="1" t="str">
+      <c r="O195" s="13" t="str">
         <f t="shared" ref="O195:O233" si="3">(A195&amp;"-"&amp;B195&amp;"-"&amp;C195&amp;"-"&amp;LOWER(D195)&amp;".md")</f>
         <v>1980---carter.md</v>
       </c>
@@ -11338,7 +11526,7 @@
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
-      <c r="O196" s="1" t="str">
+      <c r="O196" s="13" t="str">
         <f t="shared" si="3"/>
         <v>1981---carter.md</v>
       </c>
@@ -11349,6 +11537,12 @@
       <c r="A197" s="1">
         <v>1981</v>
       </c>
+      <c r="B197" s="9">
+        <v>2</v>
+      </c>
+      <c r="C197" s="4">
+        <v>18</v>
+      </c>
       <c r="D197" s="1" t="s">
         <v>15</v>
       </c>
@@ -11366,21 +11560,35 @@
         <v>108</v>
       </c>
       <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
+      <c r="K197" s="1">
+        <v>4571</v>
+      </c>
       <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
+      <c r="M197" s="1">
+        <v>1</v>
+      </c>
       <c r="N197" s="1"/>
-      <c r="O197" s="1" t="str">
+      <c r="O197" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1981---reagan.md</v>
-      </c>
-      <c r="P197" s="6"/>
-      <c r="Q197" s="6"/>
+        <v>1981-2-18-reagan.md</v>
+      </c>
+      <c r="P197" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q197" s="3" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>1982</v>
       </c>
+      <c r="B198" s="9">
+        <v>1</v>
+      </c>
+      <c r="C198" s="4">
+        <v>26</v>
+      </c>
       <c r="D198" s="1" t="s">
         <v>15</v>
       </c>
@@ -11398,21 +11606,35 @@
         <v>108</v>
       </c>
       <c r="J198" s="1"/>
-      <c r="K198" s="1"/>
+      <c r="K198" s="1">
+        <v>5290</v>
+      </c>
       <c r="L198" s="1"/>
-      <c r="M198" s="1"/>
+      <c r="M198" s="1">
+        <v>1</v>
+      </c>
       <c r="N198" s="1"/>
-      <c r="O198" s="1" t="str">
+      <c r="O198" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1982---reagan.md</v>
-      </c>
-      <c r="P198" s="6"/>
-      <c r="Q198" s="6"/>
+        <v>1982-1-26-reagan.md</v>
+      </c>
+      <c r="P198" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q198" s="3" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1983</v>
       </c>
+      <c r="B199" s="9">
+        <v>1</v>
+      </c>
+      <c r="C199" s="4">
+        <v>25</v>
+      </c>
       <c r="D199" s="1" t="s">
         <v>15</v>
       </c>
@@ -11430,21 +11652,35 @@
         <v>108</v>
       </c>
       <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
+      <c r="K199" s="1">
+        <v>5681</v>
+      </c>
       <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
+      <c r="M199" s="1">
+        <v>1</v>
+      </c>
       <c r="N199" s="1"/>
-      <c r="O199" s="1" t="str">
+      <c r="O199" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1983---reagan.md</v>
-      </c>
-      <c r="P199" s="6"/>
-      <c r="Q199" s="6"/>
+        <v>1983-1-25-reagan.md</v>
+      </c>
+      <c r="P199" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q199" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>1984</v>
       </c>
+      <c r="B200" s="9">
+        <v>1</v>
+      </c>
+      <c r="C200" s="4">
+        <v>25</v>
+      </c>
       <c r="D200" s="1" t="s">
         <v>15</v>
       </c>
@@ -11462,21 +11698,35 @@
         <v>108</v>
       </c>
       <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
+      <c r="K200" s="1">
+        <v>5061</v>
+      </c>
       <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
+      <c r="M200" s="1">
+        <v>1</v>
+      </c>
       <c r="N200" s="1"/>
-      <c r="O200" s="1" t="str">
+      <c r="O200" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1984---reagan.md</v>
-      </c>
-      <c r="P200" s="6"/>
-      <c r="Q200" s="6"/>
+        <v>1984-1-25-reagan.md</v>
+      </c>
+      <c r="P200" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q200" s="3" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1985</v>
       </c>
+      <c r="B201" s="9">
+        <v>2</v>
+      </c>
+      <c r="C201" s="4">
+        <v>6</v>
+      </c>
       <c r="D201" s="1" t="s">
         <v>15</v>
       </c>
@@ -11494,21 +11744,35 @@
         <v>108</v>
       </c>
       <c r="J201" s="1"/>
-      <c r="K201" s="1"/>
+      <c r="K201" s="1">
+        <v>4310</v>
+      </c>
       <c r="L201" s="1"/>
-      <c r="M201" s="1"/>
+      <c r="M201" s="1">
+        <v>2</v>
+      </c>
       <c r="N201" s="1"/>
-      <c r="O201" s="1" t="str">
+      <c r="O201" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1985---reagan.md</v>
-      </c>
-      <c r="P201" s="6"/>
-      <c r="Q201" s="6"/>
+        <v>1985-2-6-reagan.md</v>
+      </c>
+      <c r="P201" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q201" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>1986</v>
       </c>
+      <c r="B202" s="9">
+        <v>2</v>
+      </c>
+      <c r="C202" s="4">
+        <v>4</v>
+      </c>
       <c r="D202" s="1" t="s">
         <v>15</v>
       </c>
@@ -11526,21 +11790,35 @@
         <v>108</v>
       </c>
       <c r="J202" s="1"/>
-      <c r="K202" s="1"/>
+      <c r="K202" s="1">
+        <v>3561</v>
+      </c>
       <c r="L202" s="1"/>
-      <c r="M202" s="1"/>
+      <c r="M202" s="1">
+        <v>2</v>
+      </c>
       <c r="N202" s="1"/>
-      <c r="O202" s="1" t="str">
+      <c r="O202" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1986---reagan.md</v>
-      </c>
-      <c r="P202" s="6"/>
-      <c r="Q202" s="6"/>
+        <v>1986-2-4-reagan.md</v>
+      </c>
+      <c r="P202" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q202" s="3" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>1987</v>
       </c>
+      <c r="B203" s="9">
+        <v>1</v>
+      </c>
+      <c r="C203" s="4">
+        <v>27</v>
+      </c>
       <c r="D203" s="1" t="s">
         <v>15</v>
       </c>
@@ -11558,21 +11836,35 @@
         <v>108</v>
       </c>
       <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
+      <c r="K203" s="1">
+        <v>3893</v>
+      </c>
       <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
+      <c r="M203" s="1">
+        <v>2</v>
+      </c>
       <c r="N203" s="1"/>
-      <c r="O203" s="1" t="str">
+      <c r="O203" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1987---reagan.md</v>
-      </c>
-      <c r="P203" s="6"/>
-      <c r="Q203" s="6"/>
+        <v>1987-1-27-reagan.md</v>
+      </c>
+      <c r="P203" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q203" s="3" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>1988</v>
       </c>
+      <c r="B204" s="9">
+        <v>1</v>
+      </c>
+      <c r="C204" s="4">
+        <v>25</v>
+      </c>
       <c r="D204" s="1" t="s">
         <v>15</v>
       </c>
@@ -11590,21 +11882,35 @@
         <v>108</v>
       </c>
       <c r="J204" s="1"/>
-      <c r="K204" s="1"/>
+      <c r="K204" s="1">
+        <v>4976</v>
+      </c>
       <c r="L204" s="1"/>
-      <c r="M204" s="1"/>
+      <c r="M204" s="1">
+        <v>2</v>
+      </c>
       <c r="N204" s="1"/>
-      <c r="O204" s="1" t="str">
+      <c r="O204" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1988---reagan.md</v>
-      </c>
-      <c r="P204" s="6"/>
-      <c r="Q204" s="6"/>
+        <v>1988-1-25-reagan.md</v>
+      </c>
+      <c r="P204" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q204" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>1989</v>
       </c>
+      <c r="B205" s="9">
+        <v>2</v>
+      </c>
+      <c r="C205" s="4">
+        <v>9</v>
+      </c>
       <c r="D205" s="1" t="s">
         <v>11</v>
       </c>
@@ -11622,21 +11928,35 @@
         <v>108</v>
       </c>
       <c r="J205" s="1"/>
-      <c r="K205" s="1"/>
+      <c r="K205" s="1">
+        <v>4917</v>
+      </c>
       <c r="L205" s="1"/>
-      <c r="M205" s="1"/>
+      <c r="M205" s="1">
+        <v>1</v>
+      </c>
       <c r="N205" s="1"/>
-      <c r="O205" s="1" t="str">
+      <c r="O205" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1989---bush.md</v>
-      </c>
-      <c r="P205" s="6"/>
-      <c r="Q205" s="6"/>
+        <v>1989-2-9-bush.md</v>
+      </c>
+      <c r="P205" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q205" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>1990</v>
       </c>
+      <c r="B206" s="9">
+        <v>1</v>
+      </c>
+      <c r="C206" s="4">
+        <v>31</v>
+      </c>
       <c r="D206" s="1" t="s">
         <v>11</v>
       </c>
@@ -11654,21 +11974,35 @@
         <v>108</v>
       </c>
       <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
+      <c r="K206" s="1">
+        <v>3879</v>
+      </c>
       <c r="L206" s="1"/>
-      <c r="M206" s="1"/>
+      <c r="M206" s="1">
+        <v>1</v>
+      </c>
       <c r="N206" s="1"/>
-      <c r="O206" s="1" t="str">
+      <c r="O206" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1990---bush.md</v>
-      </c>
-      <c r="P206" s="6"/>
-      <c r="Q206" s="6"/>
+        <v>1990-1-31-bush.md</v>
+      </c>
+      <c r="P206" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q206" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>1991</v>
       </c>
+      <c r="B207" s="9">
+        <v>1</v>
+      </c>
+      <c r="C207" s="4">
+        <v>29</v>
+      </c>
       <c r="D207" s="1" t="s">
         <v>11</v>
       </c>
@@ -11679,26 +12013,42 @@
         <v>17</v>
       </c>
       <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
+      <c r="H207" s="1">
+        <v>1</v>
+      </c>
       <c r="I207" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J207" s="1"/>
-      <c r="K207" s="1"/>
+      <c r="K207" s="1">
+        <v>4020</v>
+      </c>
       <c r="L207" s="1"/>
-      <c r="M207" s="1"/>
+      <c r="M207" s="1">
+        <v>1</v>
+      </c>
       <c r="N207" s="1"/>
-      <c r="O207" s="1" t="str">
+      <c r="O207" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1991---bush.md</v>
-      </c>
-      <c r="P207" s="6"/>
-      <c r="Q207" s="6"/>
+        <v>1991-1-29-bush.md</v>
+      </c>
+      <c r="P207" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q207" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>1992</v>
       </c>
+      <c r="B208" s="9">
+        <v>1</v>
+      </c>
+      <c r="C208" s="4">
+        <v>28</v>
+      </c>
       <c r="D208" s="1" t="s">
         <v>11</v>
       </c>
@@ -11716,21 +12066,35 @@
         <v>108</v>
       </c>
       <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
+      <c r="K208" s="1">
+        <v>5224</v>
+      </c>
       <c r="L208" s="1"/>
-      <c r="M208" s="1"/>
+      <c r="M208" s="1">
+        <v>1</v>
+      </c>
       <c r="N208" s="1"/>
-      <c r="O208" s="1" t="str">
+      <c r="O208" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1992---bush.md</v>
-      </c>
-      <c r="P208" s="6"/>
-      <c r="Q208" s="6"/>
+        <v>1992-1-28-bush.md</v>
+      </c>
+      <c r="P208" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q208" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>1993</v>
       </c>
+      <c r="B209" s="9">
+        <v>2</v>
+      </c>
+      <c r="C209" s="4">
+        <v>17</v>
+      </c>
       <c r="D209" s="1" t="s">
         <v>13</v>
       </c>
@@ -11748,21 +12112,35 @@
         <v>106</v>
       </c>
       <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
+      <c r="K209" s="1">
+        <v>7127</v>
+      </c>
       <c r="L209" s="1"/>
-      <c r="M209" s="1"/>
+      <c r="M209" s="1">
+        <v>1</v>
+      </c>
       <c r="N209" s="1"/>
-      <c r="O209" s="1" t="str">
+      <c r="O209" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1993---clinton.md</v>
-      </c>
-      <c r="P209" s="6"/>
-      <c r="Q209" s="6"/>
+        <v>1993-2-17-clinton.md</v>
+      </c>
+      <c r="P209" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q209" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>1994</v>
       </c>
+      <c r="B210" s="9">
+        <v>1</v>
+      </c>
+      <c r="C210" s="4">
+        <v>25</v>
+      </c>
       <c r="D210" s="1" t="s">
         <v>13</v>
       </c>
@@ -11780,21 +12158,35 @@
         <v>106</v>
       </c>
       <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
+      <c r="K210" s="1">
+        <v>7547</v>
+      </c>
       <c r="L210" s="1"/>
-      <c r="M210" s="1"/>
+      <c r="M210" s="1">
+        <v>1</v>
+      </c>
       <c r="N210" s="1"/>
-      <c r="O210" s="1" t="str">
+      <c r="O210" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1994---clinton.md</v>
-      </c>
-      <c r="P210" s="6"/>
-      <c r="Q210" s="6"/>
+        <v>1994-1-25-clinton.md</v>
+      </c>
+      <c r="P210" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q210" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>1995</v>
       </c>
+      <c r="B211" s="9">
+        <v>1</v>
+      </c>
+      <c r="C211" s="4">
+        <v>24</v>
+      </c>
       <c r="D211" s="1" t="s">
         <v>13</v>
       </c>
@@ -11812,21 +12204,35 @@
         <v>106</v>
       </c>
       <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
+      <c r="K211" s="1">
+        <v>9403</v>
+      </c>
       <c r="L211" s="1"/>
-      <c r="M211" s="1"/>
+      <c r="M211" s="1">
+        <v>1</v>
+      </c>
       <c r="N211" s="1"/>
-      <c r="O211" s="1" t="str">
+      <c r="O211" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1995---clinton.md</v>
-      </c>
-      <c r="P211" s="6"/>
-      <c r="Q211" s="6"/>
+        <v>1995-1-24-clinton.md</v>
+      </c>
+      <c r="P211" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q211" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>1996</v>
       </c>
+      <c r="B212" s="9">
+        <v>1</v>
+      </c>
+      <c r="C212" s="4">
+        <v>23</v>
+      </c>
       <c r="D212" s="1" t="s">
         <v>13</v>
       </c>
@@ -11844,21 +12250,35 @@
         <v>106</v>
       </c>
       <c r="J212" s="1"/>
-      <c r="K212" s="1"/>
+      <c r="K212" s="1">
+        <v>6438</v>
+      </c>
       <c r="L212" s="1"/>
-      <c r="M212" s="1"/>
+      <c r="M212" s="1">
+        <v>1</v>
+      </c>
       <c r="N212" s="1"/>
-      <c r="O212" s="1" t="str">
+      <c r="O212" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1996---clinton.md</v>
-      </c>
-      <c r="P212" s="6"/>
-      <c r="Q212" s="6"/>
+        <v>1996-1-23-clinton.md</v>
+      </c>
+      <c r="P212" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q212" s="3" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>1997</v>
       </c>
+      <c r="B213" s="9">
+        <v>2</v>
+      </c>
+      <c r="C213" s="4">
+        <v>4</v>
+      </c>
       <c r="D213" s="1" t="s">
         <v>13</v>
       </c>
@@ -11876,21 +12296,35 @@
         <v>106</v>
       </c>
       <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
+      <c r="K213" s="1">
+        <v>6854</v>
+      </c>
       <c r="L213" s="1"/>
-      <c r="M213" s="1"/>
+      <c r="M213" s="1">
+        <v>2</v>
+      </c>
       <c r="N213" s="1"/>
-      <c r="O213" s="1" t="str">
+      <c r="O213" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1997---clinton.md</v>
-      </c>
-      <c r="P213" s="6"/>
-      <c r="Q213" s="6"/>
+        <v>1997-2-4-clinton.md</v>
+      </c>
+      <c r="P213" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q213" s="3" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>1998</v>
       </c>
+      <c r="B214" s="9">
+        <v>1</v>
+      </c>
+      <c r="C214" s="4">
+        <v>27</v>
+      </c>
       <c r="D214" s="1" t="s">
         <v>13</v>
       </c>
@@ -11908,21 +12342,35 @@
         <v>106</v>
       </c>
       <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
+      <c r="K214" s="1">
+        <v>7436</v>
+      </c>
       <c r="L214" s="1"/>
-      <c r="M214" s="1"/>
+      <c r="M214" s="1">
+        <v>2</v>
+      </c>
       <c r="N214" s="1"/>
-      <c r="O214" s="1" t="str">
+      <c r="O214" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1998---clinton.md</v>
-      </c>
-      <c r="P214" s="6"/>
-      <c r="Q214" s="6"/>
+        <v>1998-1-27-clinton.md</v>
+      </c>
+      <c r="P214" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q214" s="3" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>1999</v>
       </c>
+      <c r="B215" s="9">
+        <v>1</v>
+      </c>
+      <c r="C215" s="4">
+        <v>19</v>
+      </c>
       <c r="D215" s="1" t="s">
         <v>13</v>
       </c>
@@ -11940,21 +12388,35 @@
         <v>106</v>
       </c>
       <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
+      <c r="K215" s="1">
+        <v>7628</v>
+      </c>
       <c r="L215" s="1"/>
-      <c r="M215" s="1"/>
+      <c r="M215" s="1">
+        <v>2</v>
+      </c>
       <c r="N215" s="1"/>
-      <c r="O215" s="1" t="str">
+      <c r="O215" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1999---clinton.md</v>
-      </c>
-      <c r="P215" s="6"/>
-      <c r="Q215" s="6"/>
+        <v>1999-1-19-clinton.md</v>
+      </c>
+      <c r="P215" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q215" s="3" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>2000</v>
       </c>
+      <c r="B216" s="9">
+        <v>1</v>
+      </c>
+      <c r="C216" s="4">
+        <v>27</v>
+      </c>
       <c r="D216" s="1" t="s">
         <v>13</v>
       </c>
@@ -11972,16 +12434,24 @@
         <v>106</v>
       </c>
       <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
+      <c r="K216" s="1">
+        <v>9275</v>
+      </c>
       <c r="L216" s="1"/>
-      <c r="M216" s="1"/>
+      <c r="M216" s="1">
+        <v>2</v>
+      </c>
       <c r="N216" s="1"/>
-      <c r="O216" s="1" t="str">
+      <c r="O216" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>2000---clinton.md</v>
-      </c>
-      <c r="P216" s="6"/>
-      <c r="Q216" s="6"/>
+        <v>2000-1-27-clinton.md</v>
+      </c>
+      <c r="P216" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q216" s="6" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
@@ -12018,15 +12488,15 @@
         <v>1</v>
       </c>
       <c r="N217" s="1"/>
-      <c r="O217" s="1" t="str">
+      <c r="O217" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2001-2-27-bush.md</v>
       </c>
       <c r="P217" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q217" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="Q217" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
@@ -12064,15 +12534,15 @@
         <v>1</v>
       </c>
       <c r="N218" s="1"/>
-      <c r="O218" s="1" t="str">
+      <c r="O218" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2002-1-29-bush.md</v>
       </c>
       <c r="P218" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q218" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="Q218" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.25">
@@ -12110,15 +12580,15 @@
         <v>1</v>
       </c>
       <c r="N219" s="1"/>
-      <c r="O219" s="1" t="str">
+      <c r="O219" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2003-1-28-bush.md</v>
       </c>
       <c r="P219" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q219" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="Q219" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
@@ -12156,15 +12626,15 @@
         <v>1</v>
       </c>
       <c r="N220" s="1"/>
-      <c r="O220" s="1" t="str">
+      <c r="O220" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2004-1-20-bush.md</v>
       </c>
       <c r="P220" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q220" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="Q220" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
@@ -12202,15 +12672,15 @@
         <v>2</v>
       </c>
       <c r="N221" s="1"/>
-      <c r="O221" s="1" t="str">
+      <c r="O221" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2005-2-2-bush.md</v>
       </c>
       <c r="P221" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q221" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="Q221" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
@@ -12248,15 +12718,15 @@
         <v>2</v>
       </c>
       <c r="N222" s="1"/>
-      <c r="O222" s="1" t="str">
+      <c r="O222" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2006-1-31-bush.md</v>
       </c>
       <c r="P222" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q222" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="Q222" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
@@ -12294,15 +12764,15 @@
         <v>2</v>
       </c>
       <c r="N223" s="1"/>
-      <c r="O223" s="1" t="str">
+      <c r="O223" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2007-1-23-bush.md</v>
       </c>
       <c r="P223" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q223" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="Q223" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
@@ -12340,15 +12810,15 @@
         <v>2</v>
       </c>
       <c r="N224" s="1"/>
-      <c r="O224" s="1" t="str">
+      <c r="O224" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2008-1-28-bush.md</v>
       </c>
       <c r="P224" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q224" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="Q224" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
@@ -12386,15 +12856,15 @@
         <v>1</v>
       </c>
       <c r="N225" s="1"/>
-      <c r="O225" s="1" t="str">
+      <c r="O225" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2009-2-24-obama.md</v>
       </c>
       <c r="P225" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q225" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="Q225" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.25">
@@ -12432,15 +12902,15 @@
         <v>1</v>
       </c>
       <c r="N226" s="1"/>
-      <c r="O226" s="1" t="str">
+      <c r="O226" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2010-1-27-obama.md</v>
       </c>
       <c r="P226" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q226" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="Q226" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.25">
@@ -12478,15 +12948,15 @@
         <v>1</v>
       </c>
       <c r="N227" s="1"/>
-      <c r="O227" s="1" t="str">
+      <c r="O227" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2011-1-25-obama.md</v>
       </c>
       <c r="P227" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q227" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.25">
@@ -12524,15 +12994,15 @@
         <v>1</v>
       </c>
       <c r="N228" s="1"/>
-      <c r="O228" s="1" t="str">
+      <c r="O228" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2012-1-24-obama.md</v>
       </c>
       <c r="P228" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q228" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.25">
@@ -12570,15 +13040,15 @@
         <v>2</v>
       </c>
       <c r="N229" s="1"/>
-      <c r="O229" s="1" t="str">
+      <c r="O229" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2013-2-12-obama.md</v>
       </c>
       <c r="P229" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q229" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="Q229" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.25">
@@ -12616,15 +13086,15 @@
         <v>2</v>
       </c>
       <c r="N230" s="1"/>
-      <c r="O230" s="1" t="str">
+      <c r="O230" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2014-1-28-obama.md</v>
       </c>
       <c r="P230" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q230" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.25">
@@ -12662,7 +13132,7 @@
         <v>2</v>
       </c>
       <c r="N231" s="1"/>
-      <c r="O231" s="1" t="str">
+      <c r="O231" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2015-1-20-obama.md</v>
       </c>
@@ -12708,15 +13178,15 @@
         <v>2</v>
       </c>
       <c r="N232" s="1"/>
-      <c r="O232" s="1" t="str">
+      <c r="O232" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2016-1-12-obama.md</v>
       </c>
       <c r="P232" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q232" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="Q232" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.25">
@@ -12754,15 +13224,15 @@
         <v>1</v>
       </c>
       <c r="N233" s="1"/>
-      <c r="O233" s="1" t="str">
+      <c r="O233" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2017-2-28-trump.md</v>
       </c>
       <c r="P233" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q233" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="Q233" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -12812,7 +13282,7 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12849,40 +13319,40 @@
         <v>161</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -12967,7 +13437,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -12981,7 +13451,7 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -13014,216 +13484,263 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
       </c>
+      <c r="C33" t="s">
+        <v>233</v>
+      </c>
       <c r="D33">
         <v>1932</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>79</v>
       </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
       <c r="D35">
         <v>1952</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>82</v>
       </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
       <c r="D36">
         <v>1960</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>49</v>
       </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
       <c r="D37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>85</v>
       </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
       <c r="D38">
         <v>1968</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>90</v>
       </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
       <c r="D40">
         <v>1976</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
       <c r="D41">
         <v>1980</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
+      <c r="C42" t="s">
+        <v>230</v>
+      </c>
       <c r="D42">
         <v>1988</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
       <c r="D43">
         <v>1992</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <f>AVERAGE(master!K209:K216)</f>
+        <v>7713.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
       <c r="D44">
         <v>2000</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f>AVERAGE(master!K217:K224)</f>
+        <v>5117.625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13236,8 +13753,12 @@
       <c r="D45">
         <v>2008</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f>AVERAGE(master!K225:K232)</f>
+        <v>6953.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>

--- a/master-index.xlsx
+++ b/master-index.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52885C4-AB74-42BE-BE64-82DB2801E962}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB15FF9-D544-4AFA-AFEA-E0978054F011}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="3" r:id="rId1"/>
@@ -28,8 +28,426 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="N217" authorId="0" shapeId="0" xr:uid="{9B81F6C1-FABB-416C-85EB-8838CA21B262}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d32</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N218" authorId="0" shapeId="0" xr:uid="{2E0ABCD4-C746-4BD7-8F09-64D5AA2F65EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d372</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N219" authorId="0" shapeId="0" xr:uid="{DF47013E-20F9-40A4-963E-DC8D51768234}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d735</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N220" authorId="0" shapeId="0" xr:uid="{2189D527-021F-4860-9018-2DA830B09FDF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d1090</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N221" authorId="0" shapeId="0" xr:uid="{A683E6D6-6861-4CAD-8AE0-81A115CE566C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d1457</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N222" authorId="0" shapeId="0" xr:uid="{6AF86912-8B42-4AB1-BFB9-6A922A0D4FDC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d1828</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N223" authorId="0" shapeId="0" xr:uid="{89DAC9E4-6083-4AC8-A9CD-86FD9B61EF56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d2189</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N224" authorId="0" shapeId="0" xr:uid="{5F997944-3F06-41FA-AA8C-4CCA5E662FDC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d2549</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N225" authorId="0" shapeId="0" xr:uid="{0FC1F798-4B1F-4BEB-A445-B1AEADB33A2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d33</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N226" authorId="0" shapeId="0" xr:uid="{30CE7D3A-6ABD-4191-A76C-ED359C78EA0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d369</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N227" authorId="0" shapeId="0" xr:uid="{19336D61-F983-47A8-92B7-EB28D0827E9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d733</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N228" authorId="0" shapeId="0" xr:uid="{889BBB48-C8FD-4943-AB9B-BBEBC697D809}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d1097</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N229" authorId="0" shapeId="0" xr:uid="{129E6B8E-85B1-4133-8518-E3D5F71BF09B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d1482</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N230" authorId="0" shapeId="0" xr:uid="{0CA86425-9AA6-4060-BA06-8CFA3575F168}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d1832</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N231" authorId="0" shapeId="0" xr:uid="{021F3ECE-5051-4FD7-902F-040D54940CED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d2189</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N232" authorId="0" shapeId="0" xr:uid="{88CF4AA1-B470-489C-8082-CB11DC2A4FD3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d2546</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N233" authorId="0" shapeId="0" xr:uid="{8646A2AB-20FC-439F-8F0D-01EDFB46D06F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+d37</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="267">
   <si>
     <t>potusLastName</t>
   </si>
@@ -810,6 +1228,30 @@
   </si>
   <si>
     <t>Ronald Reagan, Address Before a Joint Session of Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/255154</t>
+  </si>
+  <si>
+    <t>POTUS approval ratings</t>
+  </si>
+  <si>
+    <t>https://news.gallup.com/interactives/185273/presidential-job-approval-center.aspx</t>
+  </si>
+  <si>
+    <t>calculate days between inauguration and SOTU. Find the nearest data point before this number of "days in office" on the Gallup chart.</t>
+  </si>
+  <si>
+    <t>word counts</t>
+  </si>
+  <si>
+    <t>https://atom.io/packages/wordcount</t>
+  </si>
+  <si>
+    <t>run as package in Atom</t>
+  </si>
+  <si>
+    <t>https://www.timeanddate.com/date/durationresult.html</t>
+  </si>
+  <si>
+    <t>to calculate days duration into term for approval ratings</t>
   </si>
 </sst>
 </file>
@@ -820,7 +1262,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,6 +1306,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -897,11 +1360,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -916,14 +1380,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="164" formatCode="00"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -942,7 +1424,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -969,6 +1451,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1022,79 +1505,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1355,6 +1766,62 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="00"/>
     </dxf>
     <dxf>
       <font>
@@ -4333,32 +4800,32 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:Q233" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="4"/>
     <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="3">
       <calculatedColumnFormula>(A2&amp;"-"&amp;B2&amp;"-"&amp;C2&amp;"-"&amp;LOWER(D2)&amp;".md")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2165DEDF-1AB7-4B84-9632-A614CDA07411}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2165DEDF-1AB7-4B84-9632-A614CDA07411}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:R46" xr:uid="{AE285793-CB7D-40A8-B930-00C5755BFACC}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6244E28B-E0F1-47FA-8860-B6D17C3A5B62}" name="#"/>
@@ -4686,11 +5153,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A15899E-558C-4C63-B86C-F370C964819B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A15899E-558C-4C63-B86C-F370C964819B}">
   <dimension ref="A1:Q233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="M197" sqref="M197"/>
+    <sheetView topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="M196" sqref="M196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12487,7 +12954,9 @@
       <c r="M217" s="1">
         <v>1</v>
       </c>
-      <c r="N217" s="1"/>
+      <c r="N217" s="1">
+        <v>62</v>
+      </c>
       <c r="O217" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2001-2-27-bush.md</v>
@@ -12533,7 +13002,9 @@
       <c r="M218" s="1">
         <v>1</v>
       </c>
-      <c r="N218" s="1"/>
+      <c r="N218" s="1">
+        <v>84</v>
+      </c>
       <c r="O218" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2002-1-29-bush.md</v>
@@ -12579,7 +13050,9 @@
       <c r="M219" s="1">
         <v>1</v>
       </c>
-      <c r="N219" s="1"/>
+      <c r="N219" s="1">
+        <v>60</v>
+      </c>
       <c r="O219" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2003-1-28-bush.md</v>
@@ -12625,7 +13098,9 @@
       <c r="M220" s="1">
         <v>1</v>
       </c>
-      <c r="N220" s="1"/>
+      <c r="N220" s="1">
+        <v>53</v>
+      </c>
       <c r="O220" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2004-1-20-bush.md</v>
@@ -12671,7 +13146,9 @@
       <c r="M221" s="1">
         <v>2</v>
       </c>
-      <c r="N221" s="1"/>
+      <c r="N221" s="1">
+        <v>51</v>
+      </c>
       <c r="O221" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2005-2-2-bush.md</v>
@@ -12717,7 +13194,9 @@
       <c r="M222" s="1">
         <v>2</v>
       </c>
-      <c r="N222" s="1"/>
+      <c r="N222" s="1">
+        <v>43</v>
+      </c>
       <c r="O222" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2006-1-31-bush.md</v>
@@ -12763,7 +13242,9 @@
       <c r="M223" s="1">
         <v>2</v>
       </c>
-      <c r="N223" s="1"/>
+      <c r="N223" s="1">
+        <v>36</v>
+      </c>
       <c r="O223" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2007-1-23-bush.md</v>
@@ -12809,7 +13290,9 @@
       <c r="M224" s="1">
         <v>2</v>
       </c>
-      <c r="N224" s="1"/>
+      <c r="N224" s="1">
+        <v>34</v>
+      </c>
       <c r="O224" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2008-1-28-bush.md</v>
@@ -12855,7 +13338,9 @@
       <c r="M225" s="1">
         <v>1</v>
       </c>
-      <c r="N225" s="1"/>
+      <c r="N225" s="1">
+        <v>62</v>
+      </c>
       <c r="O225" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2009-2-24-obama.md</v>
@@ -12901,7 +13386,9 @@
       <c r="M226" s="1">
         <v>1</v>
       </c>
-      <c r="N226" s="1"/>
+      <c r="N226" s="1">
+        <v>49</v>
+      </c>
       <c r="O226" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2010-1-27-obama.md</v>
@@ -12947,7 +13434,9 @@
       <c r="M227" s="1">
         <v>1</v>
       </c>
-      <c r="N227" s="1"/>
+      <c r="N227" s="1">
+        <v>50</v>
+      </c>
       <c r="O227" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2011-1-25-obama.md</v>
@@ -12993,7 +13482,9 @@
       <c r="M228" s="1">
         <v>1</v>
       </c>
-      <c r="N228" s="1"/>
+      <c r="N228" s="1">
+        <v>45</v>
+      </c>
       <c r="O228" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2012-1-24-obama.md</v>
@@ -13039,7 +13530,9 @@
       <c r="M229" s="1">
         <v>2</v>
       </c>
-      <c r="N229" s="1"/>
+      <c r="N229" s="1">
+        <v>52</v>
+      </c>
       <c r="O229" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2013-2-12-obama.md</v>
@@ -13085,7 +13578,9 @@
       <c r="M230" s="1">
         <v>2</v>
       </c>
-      <c r="N230" s="1"/>
+      <c r="N230" s="1">
+        <v>42</v>
+      </c>
       <c r="O230" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2014-1-28-obama.md</v>
@@ -13131,7 +13626,9 @@
       <c r="M231" s="1">
         <v>2</v>
       </c>
-      <c r="N231" s="1"/>
+      <c r="N231" s="1">
+        <v>46</v>
+      </c>
       <c r="O231" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2015-1-20-obama.md</v>
@@ -13177,7 +13674,9 @@
       <c r="M232" s="1">
         <v>2</v>
       </c>
-      <c r="N232" s="1"/>
+      <c r="N232" s="1">
+        <v>47</v>
+      </c>
       <c r="O232" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2016-1-12-obama.md</v>
@@ -13223,7 +13722,9 @@
       <c r="M233" s="1">
         <v>1</v>
       </c>
-      <c r="N233" s="1"/>
+      <c r="N233" s="1">
+        <v>42</v>
+      </c>
       <c r="O233" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2017-2-28-trump.md</v>
@@ -13247,8 +13748,9 @@
   <ignoredErrors>
     <ignoredError sqref="B1:C1" listDataValidation="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -13282,7 +13784,7 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13735,6 +14237,9 @@
       <c r="D44">
         <v>2000</v>
       </c>
+      <c r="E44" s="14">
+        <v>36911</v>
+      </c>
       <c r="G44">
         <f>AVERAGE(master!K217:K224)</f>
         <v>5117.625</v>
@@ -13753,6 +14258,9 @@
       <c r="D45">
         <v>2008</v>
       </c>
+      <c r="E45" s="14">
+        <v>39833</v>
+      </c>
       <c r="G45">
         <f>AVERAGE(master!K225:K232)</f>
         <v>6953.75</v>
@@ -13770,6 +14278,9 @@
       </c>
       <c r="D46">
         <v>2016</v>
+      </c>
+      <c r="E46" s="14">
+        <v>42755</v>
       </c>
     </row>
   </sheetData>
@@ -13782,19 +14293,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EBFBCF-E6C2-4EF0-9842-2DFDC52BE682}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="2" width="128.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -13802,7 +14314,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -13810,7 +14322,41 @@
         <v>97</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{FBBFBDF0-F1E0-474A-9F78-15BAF6DD0EF3}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{0A2F2999-CEE5-4F04-9A6B-A4678D0FA624}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/master-index.xlsx
+++ b/master-index.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1293746-C414-4240-A5FC-67F677CAC9C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3230E2F8-FED2-444F-9033-17B3557DB36E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -448,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="301">
   <si>
     <t>potusLastName</t>
   </si>
@@ -1346,6 +1345,24 @@
   </si>
   <si>
     <t>Jimmy Carter, The State of the Union Annual Message to the Congress Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/245130</t>
+  </si>
+  <si>
+    <t>Delayed due to shutdown/Nancy Pelosi</t>
+  </si>
+  <si>
+    <t>2019-02-05-trump.md</t>
+  </si>
+  <si>
+    <t>Donald J. Trump, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/332430</t>
+  </si>
+  <si>
+    <t>NOTE: This is a transcript of the remarks a prepared for delivery.  A transcript of the remarks as delivered will be posted once it is available.</t>
+  </si>
+  <si>
+    <t>Begins with the words "The President." in italics, omitted from .md file.   NOTE: The President spoke at 9:10 p.m. in the House Chamber of the U.S. Capitol. In his remarks, he referred to Supreme Court Associate Justice Neil M. Gorsuch; Alexi Saenz, Jairo Saenz, Selvin Chavez, and Enrique Portillo, who, along with two unnamed minors, are accused in the murder of Brentwood, NY, residents Kayla Cuevas and Nisa Mickens in Brentwood on September 13, 2016; Crystal Champ, birth mother of Hope Holets; and Abu Bakr al-Baghdadi, leader of the Islamic State of Iraq and Syria (ISIS) terrorist organization. He also referred to Executive Order 13823.</t>
+  </si>
+  <si>
+    <t>Donald J. Trump, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/331779</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1476,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1481,6 +1498,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1488,144 +1506,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1987,6 +1867,114 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4"/>
@@ -2040,6 +2028,36 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2382,7 +2400,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>132</c:v>
@@ -2716,10 +2734,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>master!$B$2:$B$236</c:f>
+              <c:f>master!$B$2:$B$238</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="235"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>1790</c:v>
                 </c:pt>
@@ -3424,16 +3442,22 @@
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="00">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="00">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>master!$L$2:$L$236</c:f>
+              <c:f>master!$L$2:$L$238</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="235"/>
+                <c:ptCount val="237"/>
                 <c:pt idx="0">
                   <c:v>1089</c:v>
                 </c:pt>
@@ -3685,6 +3709,12 @@
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>5089</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>5828</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>5249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5096,35 +5126,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:R236" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:R237" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <tableColumns count="18">
-    <tableColumn id="12" xr3:uid="{724596CD-E5E0-4C9C-9CE9-2CB5DFDA8FDE}" name="sotuid" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="12">
+    <tableColumn id="12" xr3:uid="{724596CD-E5E0-4C9C-9CE9-2CB5DFDA8FDE}" name="sotuid" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="2">
       <calculatedColumnFormula>(B2&amp;"-"&amp;C2&amp;"-"&amp;D2&amp;"-"&amp;LOWER(E2)&amp;".md")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2165DEDF-1AB7-4B84-9632-A614CDA07411}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2165DEDF-1AB7-4B84-9632-A614CDA07411}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="A1:R46" xr:uid="{AE285793-CB7D-40A8-B930-00C5755BFACC}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6244E28B-E0F1-47FA-8860-B6D17C3A5B62}" name="#"/>
@@ -5175,17 +5205,17 @@
   <autoFilter ref="E1:F13" xr:uid="{5E0E19EC-E787-4E95-B2A0-DA3101E4B9CA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{13B4AD1F-1158-4533-9B2D-9CFE591E304C}" name="Months"/>
-    <tableColumn id="2" xr3:uid="{C8A49BA1-4372-41EE-98D0-74E91D22AEE1}" name="Column1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C8A49BA1-4372-41EE-98D0-74E91D22AEE1}" name="Column1" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E0C97C5F-B132-4DCF-A62A-D236753529D9}" name="Table6" displayName="Table6" ref="G1:G32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E0C97C5F-B132-4DCF-A62A-D236753529D9}" name="Table6" displayName="Table6" ref="G1:G32" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="G1:G32" xr:uid="{CB8F412D-685E-443A-B695-BC1012C614D8}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D5A23D3D-381F-4AC0-924E-FD70DC3BB239}" name="Dates" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{D5A23D3D-381F-4AC0-924E-FD70DC3BB239}" name="Dates" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5454,10 +5484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A15899E-558C-4C63-B86C-F370C964819B}">
-  <dimension ref="A1:R236"/>
+  <dimension ref="A1:R238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D182" workbookViewId="0">
-      <selection activeCell="Q196" sqref="Q196"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S243" sqref="S243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13283,7 +13314,7 @@
       </c>
       <c r="O197" s="17"/>
       <c r="P197" s="13" t="str">
-        <f t="shared" ref="P197:P198" si="3">(B197&amp;"-"&amp;C197&amp;"-"&amp;D197&amp;"-"&amp;LOWER(E197)&amp;".md")</f>
+        <f t="shared" ref="P197" si="3">(B197&amp;"-"&amp;C197&amp;"-"&amp;D197&amp;"-"&amp;LOWER(E197)&amp;".md")</f>
         <v>1980-01-21-carter.md</v>
       </c>
       <c r="Q197" s="6" t="s">
@@ -15238,12 +15269,109 @@
         <v>196</v>
       </c>
     </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C237" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D237" s="19">
+        <v>30</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1">
+        <v>1</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1">
+        <v>5828</v>
+      </c>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1">
+        <v>1</v>
+      </c>
+      <c r="O237" s="17"/>
+      <c r="P237" s="13" t="str">
+        <f>(B237&amp;"-"&amp;C237&amp;"-"&amp;D237&amp;"-"&amp;LOWER(E237)&amp;".md")</f>
+        <v>2018-01-30-trump.md</v>
+      </c>
+      <c r="Q237" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="R237" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D238" t="s">
+        <v>271</v>
+      </c>
+      <c r="E238" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" t="s">
+        <v>95</v>
+      </c>
+      <c r="G238" t="s">
+        <v>17</v>
+      </c>
+      <c r="H238" t="s">
+        <v>295</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238" t="s">
+        <v>108</v>
+      </c>
+      <c r="L238">
+        <v>5249</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="P238" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q238" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="R238" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="C1 B237:B1048576" xr:uid="{DB144446-EB57-47C0-BE17-4F8D925A6CFF}">
+  <dataValidations count="2">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="C1 B239:B1048576" xr:uid="{DB144446-EB57-47C0-BE17-4F8D925A6CFF}">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B237:B238" xr:uid="{5C2D0870-597B-4AEA-B4C2-D6111C8831CE}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15262,25 +15390,25 @@
           <x14:formula1>
             <xm:f>vocabulary!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G236</xm:sqref>
+          <xm:sqref>G2:G237</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF5FC0A3-8F38-4D54-BB5D-B7B2956A0A1B}">
           <x14:formula1>
             <xm:f>vocabulary!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:K236</xm:sqref>
+          <xm:sqref>J1:K237</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{BD3C8EC6-B7A2-4480-9675-99CF90A83F22}">
           <x14:formula1>
             <xm:f>vocabulary!$F$2:$F$13</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C236</xm:sqref>
+          <xm:sqref>C2:C236 C237:C238</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{863E898A-9393-44B1-82F7-419B3770C50E}">
           <x14:formula1>
             <xm:f>vocabulary!$G$2:$G$32</xm:f>
           </x14:formula1>
-          <xm:sqref>C237:C1048576 D1:D236</xm:sqref>
+          <xm:sqref>C239:C1048576 D1:D236 D237:D238</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15874,8 +16002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DDDDA2-CD65-4F05-8376-3F7C0FDAE546}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15889,7 +16017,7 @@
       </c>
       <c r="B1">
         <f>COUNTA(Table3[deliveredYear])</f>
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -15902,8 +16030,8 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(master!G2:G236,vocabulary!A3)</f>
-        <v>100</v>
+        <f>COUNTIF(master!G2:G237,vocabulary!A3)</f>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -15911,7 +16039,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(master!G2:G236,vocabulary!A2)</f>
+        <f>COUNTIF(master!G2:G237,vocabulary!A2)</f>
         <v>132</v>
       </c>
     </row>

--- a/master-index.xlsx
+++ b/master-index.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3230E2F8-FED2-444F-9033-17B3557DB36E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDB128E-C261-4FDB-BCF7-CF10C3A3C762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="302">
   <si>
     <t>potusLastName</t>
   </si>
@@ -1350,19 +1350,22 @@
     <t>Delayed due to shutdown/Nancy Pelosi</t>
   </si>
   <si>
-    <t>2019-02-05-trump.md</t>
-  </si>
-  <si>
     <t>Donald J. Trump, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/332430</t>
   </si>
   <si>
-    <t>NOTE: This is a transcript of the remarks a prepared for delivery.  A transcript of the remarks as delivered will be posted once it is available.</t>
-  </si>
-  <si>
     <t>Begins with the words "The President." in italics, omitted from .md file.   NOTE: The President spoke at 9:10 p.m. in the House Chamber of the U.S. Capitol. In his remarks, he referred to Supreme Court Associate Justice Neil M. Gorsuch; Alexi Saenz, Jairo Saenz, Selvin Chavez, and Enrique Portillo, who, along with two unnamed minors, are accused in the murder of Brentwood, NY, residents Kayla Cuevas and Nisa Mickens in Brentwood on September 13, 2016; Crystal Champ, birth mother of Hope Holets; and Abu Bakr al-Baghdadi, leader of the Islamic State of Iraq and Syria (ISIS) terrorist organization. He also referred to Executive Order 13823.</t>
   </si>
   <si>
     <t>Donald J. Trump, Address Before a Joint Session of the Congress on the State of the Union Online by Gerhard Peters and John T. Woolley, The American Presidency Project https://www.presidency.ucsb.edu/node/331779</t>
+  </si>
+  <si>
+    <t>NOTE: This is a transcript of the remarks a prepared for delivery.</t>
+  </si>
+  <si>
+    <t>2019 SOTU as prepared for deliverY</t>
+  </si>
+  <si>
+    <t>2019-02-05-trump--as-prepared.md</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1452,8 +1455,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1470,13 +1479,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1499,6 +1519,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1506,6 +1527,36 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2029,36 +2080,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2400,7 +2421,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>101</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>132</c:v>
@@ -2734,10 +2755,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>master!$B$2:$B$238</c:f>
+              <c:f>master!$B$2:$B$239</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="237"/>
+                <c:ptCount val="238"/>
                 <c:pt idx="0">
                   <c:v>1790</c:v>
                 </c:pt>
@@ -3447,6 +3468,9 @@
                   <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="236" formatCode="00">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="00">
                   <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
@@ -3454,10 +3478,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>master!$L$2:$L$238</c:f>
+              <c:f>master!$L$2:$L$239</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="237"/>
+                <c:ptCount val="238"/>
                 <c:pt idx="0">
                   <c:v>1089</c:v>
                 </c:pt>
@@ -3714,6 +3738,9 @@
                   <c:v>5828</c:v>
                 </c:pt>
                 <c:pt idx="236">
+                  <c:v>5723</c:v>
+                </c:pt>
+                <c:pt idx="237">
                   <c:v>5249</c:v>
                 </c:pt>
               </c:numCache>
@@ -5126,35 +5153,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:R237" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1BD357-B2E9-449F-8260-5EBC10B7E30B}" name="Table3" displayName="Table3" ref="A1:R238" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
   <tableColumns count="18">
-    <tableColumn id="12" xr3:uid="{724596CD-E5E0-4C9C-9CE9-2CB5DFDA8FDE}" name="sotuid" dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{724596CD-E5E0-4C9C-9CE9-2CB5DFDA8FDE}" name="sotuid" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{7B1541F7-1420-499B-84B0-DDBCE30A6B9F}" name="deliveredYear" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{E5DA78A8-D8EC-4D94-9182-115EC7E12A0A}" name="deliveredMonth" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{BABAE1A0-DDCA-4D7F-88A1-65C21D264FB2}" name="deliveredDate" dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{C32B71B8-877D-4AE3-907F-792C10C6D836}" name="potusLastName" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{62A98585-9D59-472F-BE4A-CC3781D4ECE8}" name="potusGivenNames" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{3A028ED7-9126-45CD-8215-829006454653}" name="deliveryMedium" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{62A40F6A-36E6-45DD-9E9A-C150022D0158}" name="specialDelivery" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{32316ED5-DCA4-4B8C-8FB7-80B629FC8A2A}" name="isSOTU" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{41CF975F-B342-43DE-8A0A-CDB1158AF583}" name="potusParty" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{AD03A8C2-7013-424B-B7D6-F4841933513F}" name="potusParty2" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{2D67A190-84D8-4575-A4B4-EB96EAF062DC}" name="sotuWordCount" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{AF90EB0F-6682-4B57-8072-C303CF34CAAD}" name="monthsInOffice" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{1EE15E54-3F5A-4E8F-84BB-7C4A4CFACEA8}" name="potusTerm" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{595425A0-FD4B-4503-9E76-4DEF78C55A2C}" name="approvalRating" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{C0C3B4D1-5601-4DBB-B6EF-4D50C83BB51C}" name="ucsb-filename" dataDxfId="7">
       <calculatedColumnFormula>(B2&amp;"-"&amp;C2&amp;"-"&amp;D2&amp;"-"&amp;LOWER(E2)&amp;".md")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{1AE66F0D-C3F9-4BFD-AB7B-22D81EE8B3A9}" name="ucsb-comments" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{26C47F06-6E20-4518-94F9-0AAE8B3855C4}" name="ucsb-citation" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2165DEDF-1AB7-4B84-9632-A614CDA07411}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2165DEDF-1AB7-4B84-9632-A614CDA07411}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:R46" xr:uid="{AE285793-CB7D-40A8-B930-00C5755BFACC}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6244E28B-E0F1-47FA-8860-B6D17C3A5B62}" name="#"/>
@@ -5205,17 +5232,17 @@
   <autoFilter ref="E1:F13" xr:uid="{5E0E19EC-E787-4E95-B2A0-DA3101E4B9CA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{13B4AD1F-1158-4533-9B2D-9CFE591E304C}" name="Months"/>
-    <tableColumn id="2" xr3:uid="{C8A49BA1-4372-41EE-98D0-74E91D22AEE1}" name="Column1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{C8A49BA1-4372-41EE-98D0-74E91D22AEE1}" name="Column1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E0C97C5F-B132-4DCF-A62A-D236753529D9}" name="Table6" displayName="Table6" ref="G1:G32" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E0C97C5F-B132-4DCF-A62A-D236753529D9}" name="Table6" displayName="Table6" ref="G1:G32" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="G1:G32" xr:uid="{CB8F412D-685E-443A-B695-BC1012C614D8}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D5A23D3D-381F-4AC0-924E-FD70DC3BB239}" name="Dates" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{D5A23D3D-381F-4AC0-924E-FD70DC3BB239}" name="Dates" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5484,11 +5511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A15899E-558C-4C63-B86C-F370C964819B}">
-  <dimension ref="A1:R238"/>
+  <dimension ref="A1:R239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S243" sqref="S243"/>
+      <selection pane="bottomLeft" activeCell="Q242" sqref="Q242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15312,66 +15339,109 @@
         <v>2018-01-30-trump.md</v>
       </c>
       <c r="Q237" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="R237" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="9">
+      <c r="B238" s="21">
         <v>2019</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G238" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H238" t="s">
         <v>295</v>
       </c>
-      <c r="I238">
-        <v>1</v>
-      </c>
-      <c r="J238" t="s">
+      <c r="I238" s="1">
+        <v>1</v>
+      </c>
+      <c r="J238" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L238">
+      <c r="K238" s="1"/>
+      <c r="L238" s="1">
+        <v>5723</v>
+      </c>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1">
+        <v>1</v>
+      </c>
+      <c r="O238" s="17"/>
+      <c r="P238" s="13" t="str">
+        <f>(B238&amp;"-"&amp;C238&amp;"-"&amp;D238&amp;"-"&amp;LOWER(E238)&amp;".md")</f>
+        <v>2019-02-05-trump.md</v>
+      </c>
+      <c r="Q238" s="6"/>
+      <c r="R238" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D239" t="s">
+        <v>271</v>
+      </c>
+      <c r="E239" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" t="s">
+        <v>95</v>
+      </c>
+      <c r="G239" t="s">
+        <v>17</v>
+      </c>
+      <c r="H239" t="s">
+        <v>300</v>
+      </c>
+      <c r="J239" t="s">
+        <v>108</v>
+      </c>
+      <c r="L239">
         <v>5249</v>
       </c>
-      <c r="N238">
-        <v>1</v>
-      </c>
-      <c r="P238" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q238" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="R238" s="3" t="s">
-        <v>297</v>
+      <c r="N239">
+        <v>1</v>
+      </c>
+      <c r="P239" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q239" s="22" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="C1 B239:B1048576" xr:uid="{DB144446-EB57-47C0-BE17-4F8D925A6CFF}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="C1 B240:B1048576" xr:uid="{DB144446-EB57-47C0-BE17-4F8D925A6CFF}">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B237:B238" xr:uid="{5C2D0870-597B-4AEA-B4C2-D6111C8831CE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B237:B239" xr:uid="{5C2D0870-597B-4AEA-B4C2-D6111C8831CE}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15390,25 +15460,25 @@
           <x14:formula1>
             <xm:f>vocabulary!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G237</xm:sqref>
+          <xm:sqref>G2:G238</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF5FC0A3-8F38-4D54-BB5D-B7B2956A0A1B}">
           <x14:formula1>
             <xm:f>vocabulary!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:K237</xm:sqref>
+          <xm:sqref>J1:K238</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{BD3C8EC6-B7A2-4480-9675-99CF90A83F22}">
           <x14:formula1>
             <xm:f>vocabulary!$F$2:$F$13</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C236 C237:C238</xm:sqref>
+          <xm:sqref>C2:C239</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{863E898A-9393-44B1-82F7-419B3770C50E}">
           <x14:formula1>
             <xm:f>vocabulary!$G$2:$G$32</xm:f>
           </x14:formula1>
-          <xm:sqref>C239:C1048576 D1:D236 D237:D238</xm:sqref>
+          <xm:sqref>C240:C1048576 D1:D239</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16017,7 +16087,7 @@
       </c>
       <c r="B1">
         <f>COUNTA(Table3[deliveredYear])</f>
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -16030,8 +16100,8 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(master!G2:G237,vocabulary!A3)</f>
-        <v>101</v>
+        <f>COUNTIF(master!G2:G238,vocabulary!A3)</f>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -16039,7 +16109,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(master!G2:G237,vocabulary!A2)</f>
+        <f>COUNTIF(master!G2:G238,vocabulary!A2)</f>
         <v>132</v>
       </c>
     </row>
